--- a/documents/Webtech MERN - Apr 2021.xlsx
+++ b/documents/Webtech MERN - Apr 2021.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Training\mindtree-april2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Training\mindtree-april2021\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A843CB73-8D8E-4143-8382-5C2A62C1F596}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A2C640A-628D-4AD8-B2B5-9A41465EAE43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1845,9 +1845,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BF31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I4" sqref="I4"/>
+      <selection pane="bottomLeft" activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="49.95" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/documents/Webtech MERN - Apr 2021.xlsx
+++ b/documents/Webtech MERN - Apr 2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Training\mindtree-april2021\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A2C640A-628D-4AD8-B2B5-9A41465EAE43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2EBE391-4FD3-4BFB-9296-7A85D19DEA04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1845,9 +1845,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BF31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="49.95" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/documents/Webtech MERN - Apr 2021.xlsx
+++ b/documents/Webtech MERN - Apr 2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Training\mindtree-april2021\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2EBE391-4FD3-4BFB-9296-7A85D19DEA04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7970C0EA-4F53-48A2-9CDF-5AD225A6E1ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1846,8 +1846,8 @@
   <dimension ref="A1:BF31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7:XFD8"/>
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="49.95" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/documents/Webtech MERN - Apr 2021.xlsx
+++ b/documents/Webtech MERN - Apr 2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Training\mindtree-april2021\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7970C0EA-4F53-48A2-9CDF-5AD225A6E1ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF657630-4734-4287-9494-ED6E5312E2A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1845,9 +1845,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BF31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="49.95" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/documents/Webtech MERN - Apr 2021.xlsx
+++ b/documents/Webtech MERN - Apr 2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Training\mindtree-april2021\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF657630-4734-4287-9494-ED6E5312E2A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BF2BED4-1B11-456A-891D-76818A46A9CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1845,9 +1845,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BF31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="49.95" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/documents/Webtech MERN - Apr 2021.xlsx
+++ b/documents/Webtech MERN - Apr 2021.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Training\mindtree-april2021\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BF2BED4-1B11-456A-891D-76818A46A9CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AECEE75-B51D-4351-B0D7-A2447FE63947}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Webtech Mern" sheetId="1" r:id="rId1"/>
     <sheet name="SW" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet1!$A$1:$G$5</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Webtech Mern'!$B$1:$AH$29</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="404">
   <si>
     <t>https://redux-saga.js.org/docs/introduction/BeginnerTutorial.html</t>
   </si>
@@ -1259,6 +1261,84 @@
   </si>
   <si>
     <t>Ability to apply OOP concepts</t>
+  </si>
+  <si>
+    <t>NAME</t>
+  </si>
+  <si>
+    <t>Deepthi J</t>
+  </si>
+  <si>
+    <t>Dipankar Mahato</t>
+  </si>
+  <si>
+    <t>Kashyap.Nadendla</t>
+  </si>
+  <si>
+    <t>SCSS</t>
+  </si>
+  <si>
+    <t>SASS</t>
+  </si>
+  <si>
+    <t>kovi SaiMounika</t>
+  </si>
+  <si>
+    <t>Kushal Baragi</t>
+  </si>
+  <si>
+    <t>Madatha.Kirankumar</t>
+  </si>
+  <si>
+    <t>Madhu Sudhan C</t>
+  </si>
+  <si>
+    <t>Mohansubrahmanya.Gokada</t>
+  </si>
+  <si>
+    <t>Mulugu.HariBabu</t>
+  </si>
+  <si>
+    <t>Nallangu Lakshmi Sailaja</t>
+  </si>
+  <si>
+    <t>Rajaseshan.Kuhaluri</t>
+  </si>
+  <si>
+    <t>Saad Razzak</t>
+  </si>
+  <si>
+    <t>Sai Priya Duddella</t>
+  </si>
+  <si>
+    <t>Shubham Agrawal</t>
+  </si>
+  <si>
+    <t>Spandana A Kashyap</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>sl no</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>ES-6/7-KO1</t>
+  </si>
+  <si>
+    <t>ES-6/7-KO2</t>
+  </si>
+  <si>
+    <t>TEAM-1</t>
+  </si>
+  <si>
+    <t>TEAM-2</t>
+  </si>
+  <si>
+    <t>TEAM-3</t>
   </si>
 </sst>
 </file>
@@ -1327,7 +1407,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1369,8 +1449,44 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1393,13 +1509,65 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1508,6 +1676,30 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1845,9 +2037,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BF31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
+    <sheetView topLeftCell="E1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="49.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6703,4 +6895,436 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{983E95EF-2C32-42F8-9CAB-F38FB8CA9197}">
+  <dimension ref="A1:G19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.21875" customWidth="1"/>
+    <col min="3" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="40" t="s">
+        <v>397</v>
+      </c>
+      <c r="B1" s="41" t="s">
+        <v>378</v>
+      </c>
+      <c r="C1" s="41" t="s">
+        <v>399</v>
+      </c>
+      <c r="D1" s="41" t="s">
+        <v>400</v>
+      </c>
+      <c r="E1" s="41" t="s">
+        <v>263</v>
+      </c>
+      <c r="F1" s="41" t="s">
+        <v>382</v>
+      </c>
+      <c r="G1" s="41" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="49" t="s">
+        <v>401</v>
+      </c>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="51"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="38">
+        <v>1</v>
+      </c>
+      <c r="B3" s="43" t="s">
+        <v>379</v>
+      </c>
+      <c r="C3" s="39" t="s">
+        <v>396</v>
+      </c>
+      <c r="D3" s="42" t="s">
+        <v>398</v>
+      </c>
+      <c r="E3" s="42" t="s">
+        <v>398</v>
+      </c>
+      <c r="F3" s="39" t="s">
+        <v>396</v>
+      </c>
+      <c r="G3" s="39" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="38">
+        <v>2</v>
+      </c>
+      <c r="B4" s="43" t="s">
+        <v>380</v>
+      </c>
+      <c r="C4" s="39" t="s">
+        <v>396</v>
+      </c>
+      <c r="D4" s="39" t="s">
+        <v>396</v>
+      </c>
+      <c r="E4" s="39" t="s">
+        <v>396</v>
+      </c>
+      <c r="F4" s="39" t="s">
+        <v>396</v>
+      </c>
+      <c r="G4" s="39" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="38">
+        <v>3</v>
+      </c>
+      <c r="B5" s="44" t="s">
+        <v>381</v>
+      </c>
+      <c r="C5" s="39" t="s">
+        <v>396</v>
+      </c>
+      <c r="D5" s="39" t="s">
+        <v>396</v>
+      </c>
+      <c r="E5" s="39" t="s">
+        <v>396</v>
+      </c>
+      <c r="F5" s="39" t="s">
+        <v>396</v>
+      </c>
+      <c r="G5" s="39" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="38">
+        <v>4</v>
+      </c>
+      <c r="B6" s="43" t="s">
+        <v>384</v>
+      </c>
+      <c r="C6" s="42" t="s">
+        <v>396</v>
+      </c>
+      <c r="D6" s="42" t="s">
+        <v>398</v>
+      </c>
+      <c r="E6" s="42" t="s">
+        <v>398</v>
+      </c>
+      <c r="F6" s="39" t="s">
+        <v>396</v>
+      </c>
+      <c r="G6" s="39" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="38">
+        <v>5</v>
+      </c>
+      <c r="B7" s="43" t="s">
+        <v>385</v>
+      </c>
+      <c r="C7" s="42" t="s">
+        <v>398</v>
+      </c>
+      <c r="D7" s="42" t="s">
+        <v>398</v>
+      </c>
+      <c r="E7" s="39" t="s">
+        <v>396</v>
+      </c>
+      <c r="F7" s="39" t="s">
+        <v>396</v>
+      </c>
+      <c r="G7" s="39" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="49" t="s">
+        <v>402</v>
+      </c>
+      <c r="B8" s="50"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="51"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="38">
+        <v>6</v>
+      </c>
+      <c r="B9" s="47" t="s">
+        <v>386</v>
+      </c>
+      <c r="C9" s="42" t="s">
+        <v>398</v>
+      </c>
+      <c r="D9" s="42" t="s">
+        <v>398</v>
+      </c>
+      <c r="E9" s="42" t="s">
+        <v>398</v>
+      </c>
+      <c r="F9" s="39" t="s">
+        <v>396</v>
+      </c>
+      <c r="G9" s="39" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="38">
+        <v>7</v>
+      </c>
+      <c r="B10" s="47" t="s">
+        <v>387</v>
+      </c>
+      <c r="C10" s="39" t="s">
+        <v>396</v>
+      </c>
+      <c r="D10" s="39" t="s">
+        <v>396</v>
+      </c>
+      <c r="E10" s="39" t="s">
+        <v>396</v>
+      </c>
+      <c r="F10" s="39" t="s">
+        <v>396</v>
+      </c>
+      <c r="G10" s="39" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="38">
+        <v>8</v>
+      </c>
+      <c r="B11" s="48" t="s">
+        <v>392</v>
+      </c>
+      <c r="C11" s="39" t="s">
+        <v>396</v>
+      </c>
+      <c r="D11" s="39" t="s">
+        <v>396</v>
+      </c>
+      <c r="E11" s="42" t="s">
+        <v>398</v>
+      </c>
+      <c r="F11" s="39" t="s">
+        <v>396</v>
+      </c>
+      <c r="G11" s="39" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="38">
+        <v>9</v>
+      </c>
+      <c r="B12" s="47" t="s">
+        <v>388</v>
+      </c>
+      <c r="C12" s="39" t="s">
+        <v>396</v>
+      </c>
+      <c r="D12" s="39" t="s">
+        <v>396</v>
+      </c>
+      <c r="E12" s="39" t="s">
+        <v>396</v>
+      </c>
+      <c r="F12" s="39" t="s">
+        <v>396</v>
+      </c>
+      <c r="G12" s="39" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="38">
+        <v>10</v>
+      </c>
+      <c r="B13" s="47" t="s">
+        <v>389</v>
+      </c>
+      <c r="C13" s="39" t="s">
+        <v>396</v>
+      </c>
+      <c r="D13" s="39" t="s">
+        <v>396</v>
+      </c>
+      <c r="E13" s="39" t="s">
+        <v>396</v>
+      </c>
+      <c r="F13" s="39" t="s">
+        <v>396</v>
+      </c>
+      <c r="G13" s="39" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="49" t="s">
+        <v>403</v>
+      </c>
+      <c r="B14" s="50"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="51"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="38">
+        <v>11</v>
+      </c>
+      <c r="B15" s="45" t="s">
+        <v>390</v>
+      </c>
+      <c r="C15" s="42" t="s">
+        <v>398</v>
+      </c>
+      <c r="D15" s="42" t="s">
+        <v>398</v>
+      </c>
+      <c r="E15" s="42" t="s">
+        <v>398</v>
+      </c>
+      <c r="F15" s="39" t="s">
+        <v>396</v>
+      </c>
+      <c r="G15" s="39" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="38">
+        <v>12</v>
+      </c>
+      <c r="B16" s="45" t="s">
+        <v>391</v>
+      </c>
+      <c r="C16" s="39" t="s">
+        <v>396</v>
+      </c>
+      <c r="D16" s="39" t="s">
+        <v>396</v>
+      </c>
+      <c r="E16" s="39" t="s">
+        <v>396</v>
+      </c>
+      <c r="F16" s="39" t="s">
+        <v>396</v>
+      </c>
+      <c r="G16" s="39" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="38">
+        <v>13</v>
+      </c>
+      <c r="B17" s="46" t="s">
+        <v>393</v>
+      </c>
+      <c r="C17" s="42" t="s">
+        <v>398</v>
+      </c>
+      <c r="D17" s="42" t="s">
+        <v>398</v>
+      </c>
+      <c r="E17" s="42" t="s">
+        <v>398</v>
+      </c>
+      <c r="F17" s="39" t="s">
+        <v>396</v>
+      </c>
+      <c r="G17" s="39" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="38">
+        <v>14</v>
+      </c>
+      <c r="B18" s="45" t="s">
+        <v>394</v>
+      </c>
+      <c r="C18" s="39" t="s">
+        <v>396</v>
+      </c>
+      <c r="D18" s="39" t="s">
+        <v>396</v>
+      </c>
+      <c r="E18" s="39" t="s">
+        <v>396</v>
+      </c>
+      <c r="F18" s="39" t="s">
+        <v>396</v>
+      </c>
+      <c r="G18" s="39" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="38">
+        <v>15</v>
+      </c>
+      <c r="B19" s="45" t="s">
+        <v>395</v>
+      </c>
+      <c r="C19" s="39" t="s">
+        <v>396</v>
+      </c>
+      <c r="D19" s="39" t="s">
+        <v>396</v>
+      </c>
+      <c r="E19" s="39" t="s">
+        <v>396</v>
+      </c>
+      <c r="F19" s="39" t="s">
+        <v>396</v>
+      </c>
+      <c r="G19" s="39" t="s">
+        <v>396</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A8:G8"/>
+    <mergeCell ref="A14:G14"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:G7 C9:G13 C15:G19" xr:uid="{4CB5697C-CE9B-4D9C-AF2A-AE71901AAEC8}">
+      <formula1>"YES,NO"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/documents/Webtech MERN - Apr 2021.xlsx
+++ b/documents/Webtech MERN - Apr 2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Training\mindtree-april2021\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AECEE75-B51D-4351-B0D7-A2447FE63947}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{094CF806-7F1D-4A91-A2D4-94C07928EB43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Webtech Mern" sheetId="1" r:id="rId1"/>
@@ -1407,7 +1407,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1482,6 +1482,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1567,7 +1573,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1701,6 +1707,30 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2037,9 +2067,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BF31"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
+      <selection pane="bottomLeft" activeCell="F11" sqref="A11:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="49.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3219,22 +3249,22 @@
       </c>
     </row>
     <row r="8" spans="1:58" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="37" t="s">
+      <c r="A8" s="56" t="s">
         <v>337</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="56" t="s">
         <v>230</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="57" t="s">
         <v>229</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="58" t="s">
         <v>228</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="E8" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="F8" s="59" t="s">
         <v>227</v>
       </c>
       <c r="G8" s="25" t="s">
@@ -3375,22 +3405,22 @@
       </c>
     </row>
     <row r="9" spans="1:58" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="37" t="s">
+      <c r="A9" s="52" t="s">
         <v>337</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="52" t="s">
         <v>221</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="53" t="s">
         <v>193</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="54" t="s">
         <v>192</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="E9" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="15" t="s">
+      <c r="F9" s="55" t="s">
         <v>191</v>
       </c>
       <c r="G9" s="11" t="s">
@@ -3535,22 +3565,22 @@
       </c>
     </row>
     <row r="10" spans="1:58" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="37" t="s">
+      <c r="A10" s="52" t="s">
         <v>338</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="52" t="s">
         <v>216</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="53" t="s">
         <v>215</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="54" t="s">
         <v>214</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="E10" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="15" t="s">
+      <c r="F10" s="55" t="s">
         <v>213</v>
       </c>
       <c r="G10" s="11" t="s">
@@ -3697,22 +3727,22 @@
       </c>
     </row>
     <row r="11" spans="1:58" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="37" t="s">
+      <c r="A11" s="56" t="s">
         <v>338</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="56" t="s">
         <v>204</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="57" t="s">
         <v>203</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="58" t="s">
         <v>202</v>
       </c>
-      <c r="E11" s="15" t="s">
+      <c r="E11" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="15" t="s">
+      <c r="F11" s="59" t="s">
         <v>201</v>
       </c>
       <c r="G11" s="11" t="s">
@@ -3855,22 +3885,22 @@
       </c>
     </row>
     <row r="12" spans="1:58" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="37" t="s">
+      <c r="A12" s="52" t="s">
         <v>338</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="52" t="s">
         <v>194</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="53" t="s">
         <v>193</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="54" t="s">
         <v>192</v>
       </c>
-      <c r="E12" s="15" t="s">
+      <c r="E12" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="15" t="s">
+      <c r="F12" s="55" t="s">
         <v>191</v>
       </c>
       <c r="G12" s="11" t="s">
@@ -6901,8 +6931,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{983E95EF-2C32-42F8-9CAB-F38FB8CA9197}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:G14"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/documents/Webtech MERN - Apr 2021.xlsx
+++ b/documents/Webtech MERN - Apr 2021.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Training\mindtree-april2021\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{094CF806-7F1D-4A91-A2D4-94C07928EB43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE3DAF7A-F2EA-4E41-A271-E36A9B8D1359}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Webtech Mern" sheetId="1" r:id="rId1"/>
     <sheet name="SW" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="Campus Minds" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet1!$A$1:$G$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Campus Minds'!$A$1:$G$5</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Webtech Mern'!$B$1:$AH$29</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -30,6 +30,45 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>ghosh</author>
+  </authors>
+  <commentList>
+    <comment ref="B13" authorId="0" shapeId="0" xr:uid="{9BF4976F-C4B2-4827-844B-8F6A304311AD}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>no code found in assignment-5 zip (es6/7)
+no code uploaded for es6/7 OOP concepts
+no code for webpack uploaded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B16" authorId="0" shapeId="0" xr:uid="{3F02A748-1B67-4BB4-B8DD-B1743FE97FC1}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>no code for webpack uploaded</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="404">
   <si>
@@ -1345,7 +1384,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1406,8 +1445,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1488,6 +1540,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1573,7 +1631,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1699,15 +1757,6 @@
     <xf numFmtId="0" fontId="7" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1731,6 +1780,16 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2067,9 +2126,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BF31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F11" sqref="A11:F11"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="49.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3249,22 +3308,22 @@
       </c>
     </row>
     <row r="8" spans="1:58" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="56" t="s">
+      <c r="A8" s="53" t="s">
         <v>337</v>
       </c>
-      <c r="B8" s="56" t="s">
+      <c r="B8" s="53" t="s">
         <v>230</v>
       </c>
-      <c r="C8" s="57" t="s">
+      <c r="C8" s="54" t="s">
         <v>229</v>
       </c>
-      <c r="D8" s="58" t="s">
+      <c r="D8" s="55" t="s">
         <v>228</v>
       </c>
-      <c r="E8" s="59" t="s">
+      <c r="E8" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="59" t="s">
+      <c r="F8" s="56" t="s">
         <v>227</v>
       </c>
       <c r="G8" s="25" t="s">
@@ -3405,22 +3464,22 @@
       </c>
     </row>
     <row r="9" spans="1:58" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="52" t="s">
+      <c r="A9" s="49" t="s">
         <v>337</v>
       </c>
-      <c r="B9" s="52" t="s">
+      <c r="B9" s="49" t="s">
         <v>221</v>
       </c>
-      <c r="C9" s="53" t="s">
+      <c r="C9" s="50" t="s">
         <v>193</v>
       </c>
-      <c r="D9" s="54" t="s">
+      <c r="D9" s="51" t="s">
         <v>192</v>
       </c>
-      <c r="E9" s="55" t="s">
+      <c r="E9" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="55" t="s">
+      <c r="F9" s="52" t="s">
         <v>191</v>
       </c>
       <c r="G9" s="11" t="s">
@@ -3565,22 +3624,22 @@
       </c>
     </row>
     <row r="10" spans="1:58" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="52" t="s">
+      <c r="A10" s="49" t="s">
         <v>338</v>
       </c>
-      <c r="B10" s="52" t="s">
+      <c r="B10" s="49" t="s">
         <v>216</v>
       </c>
-      <c r="C10" s="53" t="s">
+      <c r="C10" s="50" t="s">
         <v>215</v>
       </c>
-      <c r="D10" s="54" t="s">
+      <c r="D10" s="51" t="s">
         <v>214</v>
       </c>
-      <c r="E10" s="55" t="s">
+      <c r="E10" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="55" t="s">
+      <c r="F10" s="52" t="s">
         <v>213</v>
       </c>
       <c r="G10" s="11" t="s">
@@ -3727,22 +3786,22 @@
       </c>
     </row>
     <row r="11" spans="1:58" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="56" t="s">
+      <c r="A11" s="53" t="s">
         <v>338</v>
       </c>
-      <c r="B11" s="56" t="s">
+      <c r="B11" s="53" t="s">
         <v>204</v>
       </c>
-      <c r="C11" s="57" t="s">
+      <c r="C11" s="54" t="s">
         <v>203</v>
       </c>
-      <c r="D11" s="58" t="s">
+      <c r="D11" s="55" t="s">
         <v>202</v>
       </c>
-      <c r="E11" s="59" t="s">
+      <c r="E11" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="59" t="s">
+      <c r="F11" s="56" t="s">
         <v>201</v>
       </c>
       <c r="G11" s="11" t="s">
@@ -3885,22 +3944,22 @@
       </c>
     </row>
     <row r="12" spans="1:58" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="52" t="s">
+      <c r="A12" s="49" t="s">
         <v>338</v>
       </c>
-      <c r="B12" s="52" t="s">
+      <c r="B12" s="49" t="s">
         <v>194</v>
       </c>
-      <c r="C12" s="53" t="s">
+      <c r="C12" s="50" t="s">
         <v>193</v>
       </c>
-      <c r="D12" s="54" t="s">
+      <c r="D12" s="51" t="s">
         <v>192</v>
       </c>
-      <c r="E12" s="55" t="s">
+      <c r="E12" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="55" t="s">
+      <c r="F12" s="52" t="s">
         <v>191</v>
       </c>
       <c r="G12" s="11" t="s">
@@ -6928,11 +6987,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{983E95EF-2C32-42F8-9CAB-F38FB8CA9197}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{983E95EF-2C32-42F8-9CAB-F38FB8CA9197}">
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="F4" sqref="F4:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6940,6 +6999,7 @@
     <col min="1" max="1" width="4.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="40.21875" customWidth="1"/>
     <col min="3" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="4.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -6966,15 +7026,15 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="58" t="s">
         <v>401</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="51"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="60"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="38">
@@ -6983,8 +7043,8 @@
       <c r="B3" s="43" t="s">
         <v>379</v>
       </c>
-      <c r="C3" s="39" t="s">
-        <v>396</v>
+      <c r="C3" s="42" t="s">
+        <v>398</v>
       </c>
       <c r="D3" s="42" t="s">
         <v>398</v>
@@ -6992,11 +7052,11 @@
       <c r="E3" s="42" t="s">
         <v>398</v>
       </c>
-      <c r="F3" s="39" t="s">
-        <v>396</v>
-      </c>
-      <c r="G3" s="39" t="s">
-        <v>396</v>
+      <c r="F3" s="42" t="s">
+        <v>398</v>
+      </c>
+      <c r="G3" s="42" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -7006,19 +7066,19 @@
       <c r="B4" s="43" t="s">
         <v>380</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="42" t="s">
+        <v>398</v>
+      </c>
+      <c r="D4" s="42" t="s">
+        <v>398</v>
+      </c>
+      <c r="E4" s="42" t="s">
+        <v>398</v>
+      </c>
+      <c r="F4" s="57" t="s">
         <v>396</v>
       </c>
-      <c r="D4" s="39" t="s">
-        <v>396</v>
-      </c>
-      <c r="E4" s="39" t="s">
-        <v>396</v>
-      </c>
-      <c r="F4" s="39" t="s">
-        <v>396</v>
-      </c>
-      <c r="G4" s="39" t="s">
+      <c r="G4" s="57" t="s">
         <v>396</v>
       </c>
     </row>
@@ -7029,20 +7089,20 @@
       <c r="B5" s="44" t="s">
         <v>381</v>
       </c>
-      <c r="C5" s="39" t="s">
-        <v>396</v>
-      </c>
-      <c r="D5" s="39" t="s">
-        <v>396</v>
-      </c>
-      <c r="E5" s="39" t="s">
-        <v>396</v>
-      </c>
-      <c r="F5" s="39" t="s">
-        <v>396</v>
-      </c>
-      <c r="G5" s="39" t="s">
-        <v>396</v>
+      <c r="C5" s="42" t="s">
+        <v>398</v>
+      </c>
+      <c r="D5" s="42" t="s">
+        <v>398</v>
+      </c>
+      <c r="E5" s="42" t="s">
+        <v>398</v>
+      </c>
+      <c r="F5" s="42" t="s">
+        <v>398</v>
+      </c>
+      <c r="G5" s="42" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -7053,7 +7113,7 @@
         <v>384</v>
       </c>
       <c r="C6" s="42" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="D6" s="42" t="s">
         <v>398</v>
@@ -7061,11 +7121,11 @@
       <c r="E6" s="42" t="s">
         <v>398</v>
       </c>
-      <c r="F6" s="39" t="s">
-        <v>396</v>
-      </c>
-      <c r="G6" s="39" t="s">
-        <v>396</v>
+      <c r="F6" s="42" t="s">
+        <v>398</v>
+      </c>
+      <c r="G6" s="42" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -7081,26 +7141,26 @@
       <c r="D7" s="42" t="s">
         <v>398</v>
       </c>
-      <c r="E7" s="39" t="s">
+      <c r="E7" s="42" t="s">
+        <v>398</v>
+      </c>
+      <c r="F7" s="57" t="s">
         <v>396</v>
       </c>
-      <c r="F7" s="39" t="s">
-        <v>396</v>
-      </c>
-      <c r="G7" s="39" t="s">
+      <c r="G7" s="57" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="49" t="s">
+      <c r="A8" s="58" t="s">
         <v>402</v>
       </c>
-      <c r="B8" s="50"/>
-      <c r="C8" s="50"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="51"/>
+      <c r="B8" s="59"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="59"/>
+      <c r="G8" s="60"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="38">
@@ -7118,11 +7178,11 @@
       <c r="E9" s="42" t="s">
         <v>398</v>
       </c>
-      <c r="F9" s="39" t="s">
-        <v>396</v>
-      </c>
-      <c r="G9" s="39" t="s">
-        <v>396</v>
+      <c r="F9" s="42" t="s">
+        <v>398</v>
+      </c>
+      <c r="G9" s="42" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -7132,20 +7192,20 @@
       <c r="B10" s="47" t="s">
         <v>387</v>
       </c>
-      <c r="C10" s="39" t="s">
-        <v>396</v>
-      </c>
-      <c r="D10" s="39" t="s">
-        <v>396</v>
-      </c>
-      <c r="E10" s="39" t="s">
-        <v>396</v>
-      </c>
-      <c r="F10" s="39" t="s">
-        <v>396</v>
-      </c>
-      <c r="G10" s="39" t="s">
-        <v>396</v>
+      <c r="C10" s="42" t="s">
+        <v>398</v>
+      </c>
+      <c r="D10" s="42" t="s">
+        <v>398</v>
+      </c>
+      <c r="E10" s="42" t="s">
+        <v>398</v>
+      </c>
+      <c r="F10" s="42" t="s">
+        <v>398</v>
+      </c>
+      <c r="G10" s="42" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -7155,20 +7215,20 @@
       <c r="B11" s="48" t="s">
         <v>392</v>
       </c>
-      <c r="C11" s="39" t="s">
-        <v>396</v>
-      </c>
-      <c r="D11" s="39" t="s">
-        <v>396</v>
+      <c r="C11" s="42" t="s">
+        <v>398</v>
+      </c>
+      <c r="D11" s="42" t="s">
+        <v>398</v>
       </c>
       <c r="E11" s="42" t="s">
         <v>398</v>
       </c>
-      <c r="F11" s="39" t="s">
-        <v>396</v>
-      </c>
-      <c r="G11" s="39" t="s">
-        <v>396</v>
+      <c r="F11" s="42" t="s">
+        <v>398</v>
+      </c>
+      <c r="G11" s="42" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -7178,20 +7238,20 @@
       <c r="B12" s="47" t="s">
         <v>388</v>
       </c>
-      <c r="C12" s="39" t="s">
-        <v>396</v>
-      </c>
-      <c r="D12" s="39" t="s">
-        <v>396</v>
-      </c>
-      <c r="E12" s="39" t="s">
-        <v>396</v>
-      </c>
-      <c r="F12" s="39" t="s">
-        <v>396</v>
-      </c>
-      <c r="G12" s="39" t="s">
-        <v>396</v>
+      <c r="C12" s="42" t="s">
+        <v>398</v>
+      </c>
+      <c r="D12" s="42" t="s">
+        <v>398</v>
+      </c>
+      <c r="E12" s="42" t="s">
+        <v>398</v>
+      </c>
+      <c r="F12" s="42" t="s">
+        <v>398</v>
+      </c>
+      <c r="G12" s="42" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -7210,23 +7270,23 @@
       <c r="E13" s="39" t="s">
         <v>396</v>
       </c>
-      <c r="F13" s="39" t="s">
+      <c r="F13" s="57" t="s">
         <v>396</v>
       </c>
-      <c r="G13" s="39" t="s">
+      <c r="G13" s="57" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="49" t="s">
+      <c r="A14" s="58" t="s">
         <v>403</v>
       </c>
-      <c r="B14" s="50"/>
-      <c r="C14" s="50"/>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="51"/>
+      <c r="B14" s="59"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="60"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="38">
@@ -7244,11 +7304,11 @@
       <c r="E15" s="42" t="s">
         <v>398</v>
       </c>
-      <c r="F15" s="39" t="s">
-        <v>396</v>
-      </c>
-      <c r="G15" s="39" t="s">
-        <v>396</v>
+      <c r="F15" s="42" t="s">
+        <v>398</v>
+      </c>
+      <c r="G15" s="42" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -7258,19 +7318,19 @@
       <c r="B16" s="45" t="s">
         <v>391</v>
       </c>
-      <c r="C16" s="39" t="s">
-        <v>396</v>
-      </c>
-      <c r="D16" s="39" t="s">
-        <v>396</v>
+      <c r="C16" s="42" t="s">
+        <v>398</v>
+      </c>
+      <c r="D16" s="42" t="s">
+        <v>398</v>
       </c>
       <c r="E16" s="39" t="s">
         <v>396</v>
       </c>
-      <c r="F16" s="39" t="s">
+      <c r="F16" s="57" t="s">
         <v>396</v>
       </c>
-      <c r="G16" s="39" t="s">
+      <c r="G16" s="57" t="s">
         <v>396</v>
       </c>
     </row>
@@ -7290,11 +7350,11 @@
       <c r="E17" s="42" t="s">
         <v>398</v>
       </c>
-      <c r="F17" s="39" t="s">
-        <v>396</v>
-      </c>
-      <c r="G17" s="39" t="s">
-        <v>396</v>
+      <c r="F17" s="42" t="s">
+        <v>398</v>
+      </c>
+      <c r="G17" s="42" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -7304,19 +7364,19 @@
       <c r="B18" s="45" t="s">
         <v>394</v>
       </c>
-      <c r="C18" s="39" t="s">
+      <c r="C18" s="42" t="s">
+        <v>398</v>
+      </c>
+      <c r="D18" s="42" t="s">
+        <v>398</v>
+      </c>
+      <c r="E18" s="42" t="s">
+        <v>398</v>
+      </c>
+      <c r="F18" s="57" t="s">
         <v>396</v>
       </c>
-      <c r="D18" s="39" t="s">
-        <v>396</v>
-      </c>
-      <c r="E18" s="39" t="s">
-        <v>396</v>
-      </c>
-      <c r="F18" s="39" t="s">
-        <v>396</v>
-      </c>
-      <c r="G18" s="39" t="s">
+      <c r="G18" s="57" t="s">
         <v>396</v>
       </c>
     </row>
@@ -7327,20 +7387,20 @@
       <c r="B19" s="45" t="s">
         <v>395</v>
       </c>
-      <c r="C19" s="39" t="s">
-        <v>396</v>
-      </c>
-      <c r="D19" s="39" t="s">
-        <v>396</v>
-      </c>
-      <c r="E19" s="39" t="s">
-        <v>396</v>
-      </c>
-      <c r="F19" s="39" t="s">
-        <v>396</v>
-      </c>
-      <c r="G19" s="39" t="s">
-        <v>396</v>
+      <c r="C19" s="42" t="s">
+        <v>398</v>
+      </c>
+      <c r="D19" s="42" t="s">
+        <v>398</v>
+      </c>
+      <c r="E19" s="42" t="s">
+        <v>398</v>
+      </c>
+      <c r="F19" s="42" t="s">
+        <v>398</v>
+      </c>
+      <c r="G19" s="42" t="s">
+        <v>398</v>
       </c>
     </row>
   </sheetData>
@@ -7350,11 +7410,12 @@
     <mergeCell ref="A14:G14"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:G7 C9:G13 C15:G19" xr:uid="{4CB5697C-CE9B-4D9C-AF2A-AE71901AAEC8}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:G7 C15:G19 C9:G13" xr:uid="{4CB5697C-CE9B-4D9C-AF2A-AE71901AAEC8}">
       <formula1>"YES,NO"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/documents/Webtech MERN - Apr 2021.xlsx
+++ b/documents/Webtech MERN - Apr 2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Training\mindtree-april2021\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE3DAF7A-F2EA-4E41-A271-E36A9B8D1359}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FB8AC48-14B6-4AC0-A082-8367A16F71C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2126,9 +2126,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BF31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N10" sqref="N10"/>
+      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="49.95" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/documents/Webtech MERN - Apr 2021.xlsx
+++ b/documents/Webtech MERN - Apr 2021.xlsx
@@ -8,17 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Training\mindtree-april2021\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FB8AC48-14B6-4AC0-A082-8367A16F71C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DC52DE4-9F3D-4BB6-ABDE-F4ED857A9B4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Webtech Mern" sheetId="1" r:id="rId1"/>
     <sheet name="SW" sheetId="2" r:id="rId2"/>
     <sheet name="Campus Minds" sheetId="3" r:id="rId3"/>
+    <sheet name="Topics" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Campus Minds'!$A$1:$G$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Topics!$C$1:$P$29</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Webtech Mern'!$B$1:$AH$29</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -70,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="404">
   <si>
     <t>https://redux-saga.js.org/docs/introduction/BeginnerTutorial.html</t>
   </si>
@@ -1797,7 +1799,27 @@
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="7">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2126,9 +2148,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BF31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="49.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6858,19 +6880,19 @@
   </sheetData>
   <autoFilter ref="B1:AH29" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <conditionalFormatting sqref="C23">
-    <cfRule type="duplicateValues" dxfId="4" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B30:C1048576 B1:C2 C3:C22 C24:C29 B3:B29">
-    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B30:C31 B1:C1 B51:C1048576">
-    <cfRule type="duplicateValues" dxfId="2" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="D3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -7418,4 +7440,3897 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB17D0AD-9B04-4A50-8FA7-CDCA19E31253}">
+  <dimension ref="B1:BG31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="49.95" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="9.21875" style="1"/>
+    <col min="3" max="3" width="19.5546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="31.77734375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16" style="4" customWidth="1"/>
+    <col min="6" max="6" width="23.44140625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="21.21875" style="4" customWidth="1"/>
+    <col min="8" max="8" width="15.5546875" style="4" customWidth="1"/>
+    <col min="9" max="9" width="13.77734375" style="4" customWidth="1"/>
+    <col min="10" max="10" width="14.77734375" style="4" customWidth="1"/>
+    <col min="11" max="11" width="13.21875" style="4" customWidth="1"/>
+    <col min="12" max="12" width="19.77734375" style="2" customWidth="1"/>
+    <col min="13" max="13" width="17.21875" style="2" customWidth="1"/>
+    <col min="14" max="14" width="13.21875" style="2" customWidth="1"/>
+    <col min="15" max="15" width="43.88671875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="33.109375" style="1" customWidth="1"/>
+    <col min="17" max="40" width="9.21875" style="1" hidden="1" customWidth="1"/>
+    <col min="41" max="16384" width="9.21875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:40" s="28" customFormat="1" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="29" t="s">
+        <v>334</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>329</v>
+      </c>
+      <c r="D1" s="30" t="s">
+        <v>328</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>327</v>
+      </c>
+      <c r="F1" s="31" t="s">
+        <v>326</v>
+      </c>
+      <c r="G1" s="31" t="s">
+        <v>325</v>
+      </c>
+      <c r="H1" s="31" t="s">
+        <v>324</v>
+      </c>
+      <c r="I1" s="31" t="s">
+        <v>323</v>
+      </c>
+      <c r="J1" s="31" t="s">
+        <v>322</v>
+      </c>
+      <c r="K1" s="31" t="s">
+        <v>321</v>
+      </c>
+      <c r="L1" s="29" t="s">
+        <v>309</v>
+      </c>
+      <c r="M1" s="29" t="s">
+        <v>308</v>
+      </c>
+      <c r="N1" s="29" t="s">
+        <v>307</v>
+      </c>
+      <c r="O1" s="29" t="s">
+        <v>302</v>
+      </c>
+      <c r="P1" s="29" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q1" s="36" t="s">
+        <v>353</v>
+      </c>
+      <c r="R1" s="36" t="s">
+        <v>354</v>
+      </c>
+      <c r="S1" s="36" t="s">
+        <v>355</v>
+      </c>
+      <c r="T1" s="36" t="s">
+        <v>356</v>
+      </c>
+      <c r="U1" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="V1" s="36" t="s">
+        <v>358</v>
+      </c>
+      <c r="W1" s="36" t="s">
+        <v>359</v>
+      </c>
+      <c r="X1" s="36" t="s">
+        <v>360</v>
+      </c>
+      <c r="Y1" s="36" t="s">
+        <v>361</v>
+      </c>
+      <c r="Z1" s="36" t="s">
+        <v>362</v>
+      </c>
+      <c r="AA1" s="36" t="s">
+        <v>363</v>
+      </c>
+      <c r="AB1" s="36" t="s">
+        <v>364</v>
+      </c>
+      <c r="AC1" s="36" t="s">
+        <v>365</v>
+      </c>
+      <c r="AD1" s="36" t="s">
+        <v>366</v>
+      </c>
+      <c r="AE1" s="36" t="s">
+        <v>367</v>
+      </c>
+      <c r="AF1" s="36" t="s">
+        <v>368</v>
+      </c>
+      <c r="AG1" s="36" t="s">
+        <v>369</v>
+      </c>
+      <c r="AH1" s="36" t="s">
+        <v>370</v>
+      </c>
+      <c r="AI1" s="36" t="s">
+        <v>371</v>
+      </c>
+      <c r="AJ1" s="36" t="s">
+        <v>372</v>
+      </c>
+      <c r="AK1" s="36" t="s">
+        <v>373</v>
+      </c>
+      <c r="AL1" s="36" t="s">
+        <v>374</v>
+      </c>
+      <c r="AM1" s="36" t="s">
+        <v>375</v>
+      </c>
+      <c r="AN1" s="36" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="2" spans="2:40" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="37" t="s">
+        <v>336</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>297</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>296</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>295</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>294</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>293</v>
+      </c>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="P2" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q2" s="9" t="str">
+        <f>IF(NOT(ISBLANK(E2)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="R2" s="9" t="str">
+        <f>IF(NOT(ISBLANK(F2)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="S2" s="9" t="str">
+        <f>IF(NOT(ISBLANK(G2)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="T2" s="9" t="str">
+        <f>IF(NOT(ISBLANK(H2)),"No","")</f>
+        <v/>
+      </c>
+      <c r="U2" s="9" t="str">
+        <f>IF(NOT(ISBLANK(I2)),"No","")</f>
+        <v/>
+      </c>
+      <c r="V2" s="9" t="str">
+        <f>IF(NOT(ISBLANK(J2)),"No","")</f>
+        <v/>
+      </c>
+      <c r="W2" s="9" t="str">
+        <f>IF(NOT(ISBLANK(K2)),"No","")</f>
+        <v/>
+      </c>
+      <c r="X2" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="Y2" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="Z2" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AA2" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AB2" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AC2" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AD2" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AE2" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AF2" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AG2" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AH2" s="9" t="str">
+        <f>IF(NOT(ISBLANK(L2)),"No","")</f>
+        <v/>
+      </c>
+      <c r="AI2" s="9" t="str">
+        <f>IF(NOT(ISBLANK(M2)),"No","")</f>
+        <v/>
+      </c>
+      <c r="AJ2" s="9" t="str">
+        <f>IF(NOT(ISBLANK(N2)),"No","")</f>
+        <v/>
+      </c>
+      <c r="AK2" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AL2" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AM2" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AN2" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="3" spans="2:40" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="37" t="s">
+        <v>336</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>287</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>285</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>284</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>283</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>282</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>281</v>
+      </c>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="P3" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q3" s="9" t="str">
+        <f>IF(NOT(ISBLANK(E3)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="R3" s="9" t="str">
+        <f>IF(NOT(ISBLANK(F3)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="S3" s="9" t="str">
+        <f>IF(NOT(ISBLANK(G3)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="T3" s="9" t="str">
+        <f>IF(NOT(ISBLANK(H3)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="U3" s="9" t="str">
+        <f>IF(NOT(ISBLANK(I3)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="V3" s="9" t="str">
+        <f>IF(NOT(ISBLANK(J3)),"No","")</f>
+        <v/>
+      </c>
+      <c r="W3" s="9" t="str">
+        <f>IF(NOT(ISBLANK(K3)),"No","")</f>
+        <v/>
+      </c>
+      <c r="X3" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="Y3" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="Z3" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AA3" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AB3" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AC3" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AD3" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AE3" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AF3" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AG3" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AH3" s="9" t="str">
+        <f>IF(NOT(ISBLANK(L3)),"No","")</f>
+        <v/>
+      </c>
+      <c r="AI3" s="9" t="str">
+        <f>IF(NOT(ISBLANK(M3)),"No","")</f>
+        <v/>
+      </c>
+      <c r="AJ3" s="9" t="str">
+        <f>IF(NOT(ISBLANK(N3)),"No","")</f>
+        <v/>
+      </c>
+      <c r="AK3" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AL3" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AM3" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AN3" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="4" spans="2:40" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="37" t="s">
+        <v>336</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>275</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>273</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>377</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>272</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>271</v>
+      </c>
+      <c r="I4" s="16" t="s">
+        <v>270</v>
+      </c>
+      <c r="J4" s="14" t="s">
+        <v>269</v>
+      </c>
+      <c r="K4" s="14"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="P4" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q4" s="9" t="str">
+        <f>IF(NOT(ISBLANK(E4)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="R4" s="9" t="str">
+        <f>IF(NOT(ISBLANK(F4)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="S4" s="9" t="str">
+        <f>IF(NOT(ISBLANK(G4)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="T4" s="9" t="str">
+        <f>IF(NOT(ISBLANK(H4)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="U4" s="9" t="str">
+        <f>IF(NOT(ISBLANK(I4)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="V4" s="9" t="str">
+        <f>IF(NOT(ISBLANK(J4)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="W4" s="9" t="str">
+        <f>IF(NOT(ISBLANK(K4)),"No","")</f>
+        <v/>
+      </c>
+      <c r="X4" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="Y4" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="Z4" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AA4" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AB4" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AC4" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AD4" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AE4" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AF4" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AG4" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AH4" s="9" t="str">
+        <f>IF(NOT(ISBLANK(L4)),"No","")</f>
+        <v/>
+      </c>
+      <c r="AI4" s="9" t="str">
+        <f>IF(NOT(ISBLANK(M4)),"No","")</f>
+        <v/>
+      </c>
+      <c r="AJ4" s="9" t="str">
+        <f>IF(NOT(ISBLANK(N4)),"No","")</f>
+        <v/>
+      </c>
+      <c r="AK4" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AL4" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AM4" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AN4" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="5" spans="2:40" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="37" t="s">
+        <v>336</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>261</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>260</v>
+      </c>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="M5" s="18"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="P5" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q5" s="9" t="str">
+        <f>IF(NOT(ISBLANK(E5)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="R5" s="9" t="str">
+        <f>IF(NOT(ISBLANK(F5)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="S5" s="9" t="str">
+        <f>IF(NOT(ISBLANK(G5)),"No","")</f>
+        <v/>
+      </c>
+      <c r="T5" s="9" t="str">
+        <f>IF(NOT(ISBLANK(H5)),"No","")</f>
+        <v/>
+      </c>
+      <c r="U5" s="9" t="str">
+        <f>IF(NOT(ISBLANK(I5)),"No","")</f>
+        <v/>
+      </c>
+      <c r="V5" s="9" t="str">
+        <f>IF(NOT(ISBLANK(J5)),"No","")</f>
+        <v/>
+      </c>
+      <c r="W5" s="9" t="str">
+        <f>IF(NOT(ISBLANK(K5)),"No","")</f>
+        <v/>
+      </c>
+      <c r="X5" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="Y5" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="Z5" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AA5" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AB5" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AC5" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AD5" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AE5" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AF5" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AG5" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AH5" s="9" t="str">
+        <f>IF(NOT(ISBLANK(L5)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AI5" s="9" t="str">
+        <f>IF(NOT(ISBLANK(M5)),"No","")</f>
+        <v/>
+      </c>
+      <c r="AJ5" s="9" t="str">
+        <f>IF(NOT(ISBLANK(N5)),"No","")</f>
+        <v/>
+      </c>
+      <c r="AK5" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AL5" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AM5" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AN5" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="6" spans="2:40" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="37" t="s">
+        <v>337</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>253</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>250</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>248</v>
+      </c>
+      <c r="I6" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="J6" s="14" t="s">
+        <v>246</v>
+      </c>
+      <c r="K6" s="14"/>
+      <c r="L6" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="M6" s="18"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="P6" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q6" s="9" t="str">
+        <f>IF(NOT(ISBLANK(E6)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="R6" s="9" t="str">
+        <f>IF(NOT(ISBLANK(F6)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="S6" s="9" t="str">
+        <f>IF(NOT(ISBLANK(G6)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="T6" s="9" t="str">
+        <f>IF(NOT(ISBLANK(H6)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="U6" s="9" t="str">
+        <f>IF(NOT(ISBLANK(I6)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="V6" s="9" t="str">
+        <f>IF(NOT(ISBLANK(J6)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="W6" s="9" t="str">
+        <f>IF(NOT(ISBLANK(K6)),"No","")</f>
+        <v/>
+      </c>
+      <c r="X6" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="Y6" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="Z6" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AA6" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AB6" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AC6" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AD6" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AE6" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AF6" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AG6" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AH6" s="9" t="str">
+        <f>IF(NOT(ISBLANK(L6)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AI6" s="9" t="str">
+        <f>IF(NOT(ISBLANK(M6)),"No","")</f>
+        <v/>
+      </c>
+      <c r="AJ6" s="9" t="str">
+        <f>IF(NOT(ISBLANK(N6)),"No","")</f>
+        <v/>
+      </c>
+      <c r="AK6" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AL6" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AM6" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AN6" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="7" spans="2:40" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="37" t="s">
+        <v>337</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>239</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>238</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>237</v>
+      </c>
+      <c r="F7" s="24" t="s">
+        <v>236</v>
+      </c>
+      <c r="G7" s="24" t="s">
+        <v>235</v>
+      </c>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="M7" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="N7" s="20"/>
+      <c r="O7" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="P7" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q7" s="9" t="str">
+        <f>IF(NOT(ISBLANK(E7)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="R7" s="9" t="str">
+        <f>IF(NOT(ISBLANK(F7)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="S7" s="9" t="str">
+        <f>IF(NOT(ISBLANK(G7)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="T7" s="9" t="str">
+        <f>IF(NOT(ISBLANK(H7)),"No","")</f>
+        <v/>
+      </c>
+      <c r="U7" s="9" t="str">
+        <f>IF(NOT(ISBLANK(I7)),"No","")</f>
+        <v/>
+      </c>
+      <c r="V7" s="9" t="str">
+        <f>IF(NOT(ISBLANK(J7)),"No","")</f>
+        <v/>
+      </c>
+      <c r="W7" s="9" t="str">
+        <f>IF(NOT(ISBLANK(K7)),"No","")</f>
+        <v/>
+      </c>
+      <c r="X7" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="Y7" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="Z7" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AA7" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AB7" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AC7" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AD7" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AE7" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AF7" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AG7" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AH7" s="9" t="str">
+        <f>IF(NOT(ISBLANK(L7)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AI7" s="9" t="str">
+        <f>IF(NOT(ISBLANK(M7)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AJ7" s="9" t="str">
+        <f>IF(NOT(ISBLANK(N7)),"No","")</f>
+        <v/>
+      </c>
+      <c r="AK7" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AL7" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AM7" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AN7" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="8" spans="2:40" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="53" t="s">
+        <v>337</v>
+      </c>
+      <c r="C8" s="56" t="s">
+        <v>227</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>226</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>225</v>
+      </c>
+      <c r="F8" s="24" t="s">
+        <v>224</v>
+      </c>
+      <c r="G8" s="24" t="s">
+        <v>223</v>
+      </c>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="9" t="str">
+        <f>IF(NOT(ISBLANK(E8)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="R8" s="9" t="str">
+        <f>IF(NOT(ISBLANK(F8)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="S8" s="9" t="str">
+        <f>IF(NOT(ISBLANK(G8)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="T8" s="9" t="str">
+        <f>IF(NOT(ISBLANK(H8)),"No","")</f>
+        <v/>
+      </c>
+      <c r="U8" s="9" t="str">
+        <f>IF(NOT(ISBLANK(I8)),"No","")</f>
+        <v/>
+      </c>
+      <c r="V8" s="9" t="str">
+        <f>IF(NOT(ISBLANK(J8)),"No","")</f>
+        <v/>
+      </c>
+      <c r="W8" s="9" t="str">
+        <f>IF(NOT(ISBLANK(K8)),"No","")</f>
+        <v/>
+      </c>
+      <c r="X8" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="Y8" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="Z8" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AA8" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AB8" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AC8" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AD8" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AE8" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AF8" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AG8" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AH8" s="9" t="str">
+        <f>IF(NOT(ISBLANK(L8)),"No","")</f>
+        <v/>
+      </c>
+      <c r="AI8" s="9" t="str">
+        <f>IF(NOT(ISBLANK(M8)),"No","")</f>
+        <v/>
+      </c>
+      <c r="AJ8" s="9" t="str">
+        <f>IF(NOT(ISBLANK(N8)),"No","")</f>
+        <v/>
+      </c>
+      <c r="AK8" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AL8" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AM8" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AN8" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="9" spans="2:40" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="49" t="s">
+        <v>337</v>
+      </c>
+      <c r="C9" s="52" t="s">
+        <v>191</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="H9" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="I9" s="16"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="P9" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q9" s="9" t="str">
+        <f>IF(NOT(ISBLANK(E9)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="R9" s="9" t="str">
+        <f>IF(NOT(ISBLANK(F9)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="S9" s="9" t="str">
+        <f>IF(NOT(ISBLANK(G9)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="T9" s="9" t="str">
+        <f>IF(NOT(ISBLANK(H9)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="U9" s="9" t="str">
+        <f>IF(NOT(ISBLANK(I9)),"No","")</f>
+        <v/>
+      </c>
+      <c r="V9" s="9" t="str">
+        <f>IF(NOT(ISBLANK(J9)),"No","")</f>
+        <v/>
+      </c>
+      <c r="W9" s="9" t="str">
+        <f>IF(NOT(ISBLANK(K9)),"No","")</f>
+        <v/>
+      </c>
+      <c r="X9" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="Y9" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="Z9" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AA9" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AB9" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AC9" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AD9" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AE9" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AF9" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AG9" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AH9" s="9" t="str">
+        <f>IF(NOT(ISBLANK(L9)),"No","")</f>
+        <v/>
+      </c>
+      <c r="AI9" s="9" t="str">
+        <f>IF(NOT(ISBLANK(M9)),"No","")</f>
+        <v/>
+      </c>
+      <c r="AJ9" s="9" t="str">
+        <f>IF(NOT(ISBLANK(N9)),"No","")</f>
+        <v/>
+      </c>
+      <c r="AK9" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AL9" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AM9" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AN9" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="10" spans="2:40" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="49" t="s">
+        <v>338</v>
+      </c>
+      <c r="C10" s="52" t="s">
+        <v>213</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="I10" s="16"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="M10" s="18" t="s">
+        <v>206</v>
+      </c>
+      <c r="N10" s="10"/>
+      <c r="O10" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="9" t="str">
+        <f>IF(NOT(ISBLANK(E10)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="R10" s="9" t="str">
+        <f>IF(NOT(ISBLANK(F10)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="S10" s="9" t="str">
+        <f>IF(NOT(ISBLANK(G10)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="T10" s="9" t="str">
+        <f>IF(NOT(ISBLANK(H10)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="U10" s="9" t="str">
+        <f>IF(NOT(ISBLANK(I10)),"No","")</f>
+        <v/>
+      </c>
+      <c r="V10" s="9" t="str">
+        <f>IF(NOT(ISBLANK(J10)),"No","")</f>
+        <v/>
+      </c>
+      <c r="W10" s="9" t="str">
+        <f>IF(NOT(ISBLANK(K10)),"No","")</f>
+        <v/>
+      </c>
+      <c r="X10" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="Y10" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="Z10" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AA10" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AB10" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AC10" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AD10" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AE10" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AF10" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AG10" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AH10" s="9" t="str">
+        <f>IF(NOT(ISBLANK(L10)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AI10" s="9" t="str">
+        <f>IF(NOT(ISBLANK(M10)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AJ10" s="9" t="str">
+        <f>IF(NOT(ISBLANK(N10)),"No","")</f>
+        <v/>
+      </c>
+      <c r="AK10" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AL10" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AM10" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AN10" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="11" spans="2:40" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="53" t="s">
+        <v>338</v>
+      </c>
+      <c r="C11" s="56" t="s">
+        <v>201</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="P11" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q11" s="9" t="str">
+        <f>IF(NOT(ISBLANK(E11)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="R11" s="9" t="str">
+        <f>IF(NOT(ISBLANK(F11)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="S11" s="9" t="str">
+        <f>IF(NOT(ISBLANK(G11)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="T11" s="9" t="str">
+        <f>IF(NOT(ISBLANK(H11)),"No","")</f>
+        <v/>
+      </c>
+      <c r="U11" s="9" t="str">
+        <f>IF(NOT(ISBLANK(I11)),"No","")</f>
+        <v/>
+      </c>
+      <c r="V11" s="9" t="str">
+        <f>IF(NOT(ISBLANK(J11)),"No","")</f>
+        <v/>
+      </c>
+      <c r="W11" s="9" t="str">
+        <f>IF(NOT(ISBLANK(K11)),"No","")</f>
+        <v/>
+      </c>
+      <c r="X11" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="Y11" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="Z11" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AA11" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AB11" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AC11" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AD11" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AE11" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AF11" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AG11" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AH11" s="9" t="str">
+        <f>IF(NOT(ISBLANK(L11)),"No","")</f>
+        <v/>
+      </c>
+      <c r="AI11" s="9" t="str">
+        <f>IF(NOT(ISBLANK(M11)),"No","")</f>
+        <v/>
+      </c>
+      <c r="AJ11" s="9" t="str">
+        <f>IF(NOT(ISBLANK(N11)),"No","")</f>
+        <v/>
+      </c>
+      <c r="AK11" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AL11" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AM11" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AN11" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="12" spans="2:40" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="49" t="s">
+        <v>338</v>
+      </c>
+      <c r="C12" s="52" t="s">
+        <v>191</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="M12" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="N12" s="10"/>
+      <c r="O12" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="P12" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q12" s="9" t="str">
+        <f>IF(NOT(ISBLANK(E12)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="R12" s="9" t="str">
+        <f>IF(NOT(ISBLANK(F12)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="S12" s="9" t="str">
+        <f>IF(NOT(ISBLANK(G12)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="T12" s="9" t="str">
+        <f>IF(NOT(ISBLANK(H12)),"No","")</f>
+        <v/>
+      </c>
+      <c r="U12" s="9" t="str">
+        <f>IF(NOT(ISBLANK(I12)),"No","")</f>
+        <v/>
+      </c>
+      <c r="V12" s="9" t="str">
+        <f>IF(NOT(ISBLANK(J12)),"No","")</f>
+        <v/>
+      </c>
+      <c r="W12" s="9" t="str">
+        <f>IF(NOT(ISBLANK(K12)),"No","")</f>
+        <v/>
+      </c>
+      <c r="X12" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="Y12" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="Z12" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AA12" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AB12" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AC12" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AD12" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AE12" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AF12" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AG12" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AH12" s="9" t="str">
+        <f>IF(NOT(ISBLANK(L12)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AI12" s="9" t="str">
+        <f>IF(NOT(ISBLANK(M12)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AJ12" s="9" t="str">
+        <f>IF(NOT(ISBLANK(N12)),"No","")</f>
+        <v/>
+      </c>
+      <c r="AK12" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AL12" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AM12" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AN12" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="13" spans="2:40" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="37" t="s">
+        <v>338</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="H13" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="I13" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="J13" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="K13" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="L13" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="M13" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="N13" s="10"/>
+      <c r="O13" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="P13" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q13" s="9" t="str">
+        <f>IF(NOT(ISBLANK(E13)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="R13" s="9" t="str">
+        <f>IF(NOT(ISBLANK(F13)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="S13" s="9" t="str">
+        <f>IF(NOT(ISBLANK(G13)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="T13" s="9" t="str">
+        <f>IF(NOT(ISBLANK(H13)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="U13" s="9" t="str">
+        <f>IF(NOT(ISBLANK(I13)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="V13" s="9" t="str">
+        <f>IF(NOT(ISBLANK(J13)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="W13" s="9" t="str">
+        <f>IF(NOT(ISBLANK(K13)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="X13" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="Y13" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="Z13" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AA13" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AB13" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AC13" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AD13" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AE13" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AF13" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AG13" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AH13" s="9" t="str">
+        <f>IF(NOT(ISBLANK(L13)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AI13" s="9" t="str">
+        <f>IF(NOT(ISBLANK(M13)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AJ13" s="9" t="str">
+        <f>IF(NOT(ISBLANK(N13)),"No","")</f>
+        <v/>
+      </c>
+      <c r="AK13" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AL13" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AM13" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AN13" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="14" spans="2:40" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="37" t="s">
+        <v>338</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="G14" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="M14" s="18"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="P14" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q14" s="9" t="str">
+        <f>IF(NOT(ISBLANK(E14)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="R14" s="9" t="str">
+        <f>IF(NOT(ISBLANK(F14)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="S14" s="9" t="str">
+        <f>IF(NOT(ISBLANK(G14)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="T14" s="9" t="str">
+        <f>IF(NOT(ISBLANK(H14)),"No","")</f>
+        <v/>
+      </c>
+      <c r="U14" s="9" t="str">
+        <f>IF(NOT(ISBLANK(I14)),"No","")</f>
+        <v/>
+      </c>
+      <c r="V14" s="9" t="str">
+        <f>IF(NOT(ISBLANK(J14)),"No","")</f>
+        <v/>
+      </c>
+      <c r="W14" s="9" t="str">
+        <f>IF(NOT(ISBLANK(K14)),"No","")</f>
+        <v/>
+      </c>
+      <c r="X14" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="Y14" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="Z14" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AA14" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AB14" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AC14" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AD14" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AE14" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AF14" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AG14" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AH14" s="9" t="str">
+        <f>IF(NOT(ISBLANK(L14)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AI14" s="9" t="str">
+        <f>IF(NOT(ISBLANK(M14)),"No","")</f>
+        <v/>
+      </c>
+      <c r="AJ14" s="9" t="str">
+        <f>IF(NOT(ISBLANK(N14)),"No","")</f>
+        <v/>
+      </c>
+      <c r="AK14" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AL14" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AM14" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AN14" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="15" spans="2:40" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="37" t="s">
+        <v>339</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="M15" s="18"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="P15" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q15" s="9" t="str">
+        <f>IF(NOT(ISBLANK(E15)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="R15" s="9" t="str">
+        <f>IF(NOT(ISBLANK(F15)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="S15" s="9" t="str">
+        <f>IF(NOT(ISBLANK(G15)),"No","")</f>
+        <v/>
+      </c>
+      <c r="T15" s="9" t="str">
+        <f>IF(NOT(ISBLANK(H15)),"No","")</f>
+        <v/>
+      </c>
+      <c r="U15" s="9" t="str">
+        <f>IF(NOT(ISBLANK(I15)),"No","")</f>
+        <v/>
+      </c>
+      <c r="V15" s="9" t="str">
+        <f>IF(NOT(ISBLANK(J15)),"No","")</f>
+        <v/>
+      </c>
+      <c r="W15" s="9" t="str">
+        <f>IF(NOT(ISBLANK(K15)),"No","")</f>
+        <v/>
+      </c>
+      <c r="X15" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="Y15" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="Z15" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AA15" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AB15" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AC15" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AD15" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AE15" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AF15" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AG15" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AH15" s="9" t="str">
+        <f>IF(NOT(ISBLANK(L15)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AI15" s="9" t="str">
+        <f>IF(NOT(ISBLANK(M15)),"No","")</f>
+        <v/>
+      </c>
+      <c r="AJ15" s="9" t="str">
+        <f>IF(NOT(ISBLANK(N15)),"No","")</f>
+        <v/>
+      </c>
+      <c r="AK15" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AL15" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AM15" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AN15" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="16" spans="2:40" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="37" t="s">
+        <v>339</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="18"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="P16" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q16" s="9" t="str">
+        <f>IF(NOT(ISBLANK(E16)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="R16" s="9" t="str">
+        <f>IF(NOT(ISBLANK(F16)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="S16" s="9" t="str">
+        <f>IF(NOT(ISBLANK(G16)),"No","")</f>
+        <v/>
+      </c>
+      <c r="T16" s="9" t="str">
+        <f>IF(NOT(ISBLANK(H16)),"No","")</f>
+        <v/>
+      </c>
+      <c r="U16" s="9" t="str">
+        <f>IF(NOT(ISBLANK(I16)),"No","")</f>
+        <v/>
+      </c>
+      <c r="V16" s="9" t="str">
+        <f>IF(NOT(ISBLANK(J16)),"No","")</f>
+        <v/>
+      </c>
+      <c r="W16" s="9" t="str">
+        <f>IF(NOT(ISBLANK(K16)),"No","")</f>
+        <v/>
+      </c>
+      <c r="X16" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="Y16" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="Z16" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AA16" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AB16" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AC16" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AD16" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AE16" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AF16" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AG16" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AH16" s="9" t="str">
+        <f>IF(NOT(ISBLANK(L16)),"No","")</f>
+        <v/>
+      </c>
+      <c r="AI16" s="9" t="str">
+        <f>IF(NOT(ISBLANK(M16)),"No","")</f>
+        <v/>
+      </c>
+      <c r="AJ16" s="9" t="str">
+        <f>IF(NOT(ISBLANK(N16)),"No","")</f>
+        <v/>
+      </c>
+      <c r="AK16" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AL16" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AM16" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AN16" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="17" spans="2:40" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="37" t="s">
+        <v>339</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="G17" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="H17" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="I17" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="J17" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="K17" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="L17" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="M17" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="N17" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="O17" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="P17" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q17" s="9" t="str">
+        <f>IF(NOT(ISBLANK(E17)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="R17" s="9" t="str">
+        <f>IF(NOT(ISBLANK(F17)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="S17" s="9" t="str">
+        <f>IF(NOT(ISBLANK(G17)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="T17" s="9" t="str">
+        <f>IF(NOT(ISBLANK(H17)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="U17" s="9" t="str">
+        <f>IF(NOT(ISBLANK(I17)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="V17" s="9" t="str">
+        <f>IF(NOT(ISBLANK(J17)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="W17" s="9" t="str">
+        <f>IF(NOT(ISBLANK(K17)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="X17" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="Y17" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="Z17" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AA17" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AB17" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AC17" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AD17" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AE17" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AF17" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AG17" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AH17" s="9" t="str">
+        <f>IF(NOT(ISBLANK(L17)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AI17" s="9" t="str">
+        <f>IF(NOT(ISBLANK(M17)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AJ17" s="9" t="str">
+        <f>IF(NOT(ISBLANK(N17)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AK17" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AL17" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AM17" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AN17" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="18" spans="2:40" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="37" t="s">
+        <v>339</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="G18" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="H18" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="I18" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="J18" s="11"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="M18" s="18"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="P18" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q18" s="9" t="str">
+        <f>IF(NOT(ISBLANK(E18)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="R18" s="9" t="str">
+        <f>IF(NOT(ISBLANK(F18)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="S18" s="9" t="str">
+        <f>IF(NOT(ISBLANK(G18)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="T18" s="9" t="str">
+        <f>IF(NOT(ISBLANK(H18)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="U18" s="9" t="str">
+        <f>IF(NOT(ISBLANK(I18)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="V18" s="9" t="str">
+        <f>IF(NOT(ISBLANK(J18)),"No","")</f>
+        <v/>
+      </c>
+      <c r="W18" s="9" t="str">
+        <f>IF(NOT(ISBLANK(K18)),"No","")</f>
+        <v/>
+      </c>
+      <c r="X18" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="Y18" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="Z18" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AA18" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AB18" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AC18" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AD18" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AE18" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AF18" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AG18" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AH18" s="9" t="str">
+        <f>IF(NOT(ISBLANK(L18)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AI18" s="9" t="str">
+        <f>IF(NOT(ISBLANK(M18)),"No","")</f>
+        <v/>
+      </c>
+      <c r="AJ18" s="9" t="str">
+        <f>IF(NOT(ISBLANK(N18)),"No","")</f>
+        <v/>
+      </c>
+      <c r="AK18" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AL18" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AM18" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AN18" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="19" spans="2:40" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="37" t="s">
+        <v>340</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="G19" s="14"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="M19" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="N19" s="10"/>
+      <c r="O19" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="P19" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q19" s="9" t="str">
+        <f>IF(NOT(ISBLANK(E19)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="R19" s="9" t="str">
+        <f>IF(NOT(ISBLANK(F19)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="S19" s="9" t="str">
+        <f>IF(NOT(ISBLANK(G19)),"No","")</f>
+        <v/>
+      </c>
+      <c r="T19" s="9" t="str">
+        <f>IF(NOT(ISBLANK(H19)),"No","")</f>
+        <v/>
+      </c>
+      <c r="U19" s="9" t="str">
+        <f>IF(NOT(ISBLANK(I19)),"No","")</f>
+        <v/>
+      </c>
+      <c r="V19" s="9" t="str">
+        <f>IF(NOT(ISBLANK(J19)),"No","")</f>
+        <v/>
+      </c>
+      <c r="W19" s="9" t="str">
+        <f>IF(NOT(ISBLANK(K19)),"No","")</f>
+        <v/>
+      </c>
+      <c r="X19" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="Y19" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="Z19" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AA19" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AB19" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AC19" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AD19" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AE19" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AF19" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AG19" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AH19" s="9" t="str">
+        <f>IF(NOT(ISBLANK(L19)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AI19" s="9" t="str">
+        <f>IF(NOT(ISBLANK(M19)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AJ19" s="9" t="str">
+        <f>IF(NOT(ISBLANK(N19)),"No","")</f>
+        <v/>
+      </c>
+      <c r="AK19" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AL19" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AM19" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AN19" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="20" spans="2:40" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="37" t="s">
+        <v>340</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="M20" s="18"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="P20" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q20" s="9" t="str">
+        <f>IF(NOT(ISBLANK(E20)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="R20" s="9" t="str">
+        <f>IF(NOT(ISBLANK(F20)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="S20" s="9" t="str">
+        <f>IF(NOT(ISBLANK(G20)),"No","")</f>
+        <v/>
+      </c>
+      <c r="T20" s="9" t="str">
+        <f>IF(NOT(ISBLANK(H20)),"No","")</f>
+        <v/>
+      </c>
+      <c r="U20" s="9" t="str">
+        <f>IF(NOT(ISBLANK(I20)),"No","")</f>
+        <v/>
+      </c>
+      <c r="V20" s="9" t="str">
+        <f>IF(NOT(ISBLANK(J20)),"No","")</f>
+        <v/>
+      </c>
+      <c r="W20" s="9" t="str">
+        <f>IF(NOT(ISBLANK(K20)),"No","")</f>
+        <v/>
+      </c>
+      <c r="X20" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="Y20" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="Z20" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AA20" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AB20" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AC20" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AD20" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AE20" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AF20" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AG20" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AH20" s="9" t="str">
+        <f>IF(NOT(ISBLANK(L20)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AI20" s="9" t="str">
+        <f>IF(NOT(ISBLANK(M20)),"No","")</f>
+        <v/>
+      </c>
+      <c r="AJ20" s="9" t="str">
+        <f>IF(NOT(ISBLANK(N20)),"No","")</f>
+        <v/>
+      </c>
+      <c r="AK20" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AL20" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AM20" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AN20" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="21" spans="2:40" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="37" t="s">
+        <v>341</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="P21" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q21" s="9" t="str">
+        <f>IF(NOT(ISBLANK(E21)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="R21" s="9" t="str">
+        <f>IF(NOT(ISBLANK(F21)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="S21" s="9" t="str">
+        <f>IF(NOT(ISBLANK(G21)),"No","")</f>
+        <v/>
+      </c>
+      <c r="T21" s="9" t="str">
+        <f>IF(NOT(ISBLANK(H21)),"No","")</f>
+        <v/>
+      </c>
+      <c r="U21" s="9" t="str">
+        <f>IF(NOT(ISBLANK(I21)),"No","")</f>
+        <v/>
+      </c>
+      <c r="V21" s="9" t="str">
+        <f>IF(NOT(ISBLANK(J21)),"No","")</f>
+        <v/>
+      </c>
+      <c r="W21" s="9" t="str">
+        <f>IF(NOT(ISBLANK(K21)),"No","")</f>
+        <v/>
+      </c>
+      <c r="X21" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="Y21" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="Z21" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AA21" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AB21" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AC21" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AD21" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AE21" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AF21" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AG21" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AH21" s="9" t="str">
+        <f>IF(NOT(ISBLANK(L21)),"No","")</f>
+        <v/>
+      </c>
+      <c r="AI21" s="9" t="str">
+        <f>IF(NOT(ISBLANK(M21)),"No","")</f>
+        <v/>
+      </c>
+      <c r="AJ21" s="9" t="str">
+        <f>IF(NOT(ISBLANK(N21)),"No","")</f>
+        <v/>
+      </c>
+      <c r="AK21" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AL21" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AM21" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AN21" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="22" spans="2:40" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="37" t="s">
+        <v>341</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="G22" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="H22" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="I22" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="J22" s="11"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="M22" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="N22" s="10"/>
+      <c r="O22" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="P22" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q22" s="9" t="str">
+        <f>IF(NOT(ISBLANK(E22)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="R22" s="9" t="str">
+        <f>IF(NOT(ISBLANK(F22)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="S22" s="9" t="str">
+        <f>IF(NOT(ISBLANK(G22)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="T22" s="9" t="str">
+        <f>IF(NOT(ISBLANK(H22)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="U22" s="9" t="str">
+        <f>IF(NOT(ISBLANK(I22)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="V22" s="9" t="str">
+        <f>IF(NOT(ISBLANK(J22)),"No","")</f>
+        <v/>
+      </c>
+      <c r="W22" s="9" t="str">
+        <f>IF(NOT(ISBLANK(K22)),"No","")</f>
+        <v/>
+      </c>
+      <c r="X22" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="Y22" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="Z22" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AA22" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AB22" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AC22" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AD22" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AE22" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AF22" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AG22" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AH22" s="9" t="str">
+        <f>IF(NOT(ISBLANK(L22)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AI22" s="9" t="str">
+        <f>IF(NOT(ISBLANK(M22)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AJ22" s="9" t="str">
+        <f>IF(NOT(ISBLANK(N22)),"No","")</f>
+        <v/>
+      </c>
+      <c r="AK22" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AL22" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AM22" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AN22" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="23" spans="2:40" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="12" t="s">
+        <v>342</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="M23" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="N23" s="10"/>
+      <c r="O23" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="P23" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q23" s="9" t="str">
+        <f>IF(NOT(ISBLANK(E23)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="R23" s="9" t="str">
+        <f>IF(NOT(ISBLANK(F23)),"No","")</f>
+        <v/>
+      </c>
+      <c r="S23" s="9" t="str">
+        <f>IF(NOT(ISBLANK(G23)),"No","")</f>
+        <v/>
+      </c>
+      <c r="T23" s="9" t="str">
+        <f>IF(NOT(ISBLANK(H23)),"No","")</f>
+        <v/>
+      </c>
+      <c r="U23" s="9" t="str">
+        <f>IF(NOT(ISBLANK(I23)),"No","")</f>
+        <v/>
+      </c>
+      <c r="V23" s="9" t="str">
+        <f>IF(NOT(ISBLANK(J23)),"No","")</f>
+        <v/>
+      </c>
+      <c r="W23" s="9" t="str">
+        <f>IF(NOT(ISBLANK(K23)),"No","")</f>
+        <v/>
+      </c>
+      <c r="X23" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="Y23" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="Z23" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AA23" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AB23" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AC23" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AD23" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AE23" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AF23" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AG23" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AH23" s="9" t="str">
+        <f>IF(NOT(ISBLANK(L23)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AI23" s="9" t="str">
+        <f>IF(NOT(ISBLANK(M23)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AJ23" s="9" t="str">
+        <f>IF(NOT(ISBLANK(N23)),"No","")</f>
+        <v/>
+      </c>
+      <c r="AK23" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AL23" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AM23" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AN23" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="24" spans="2:40" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="12" t="s">
+        <v>342</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="P24" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q24" s="9" t="str">
+        <f>IF(NOT(ISBLANK(E24)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="R24" s="9" t="str">
+        <f>IF(NOT(ISBLANK(F24)),"No","")</f>
+        <v/>
+      </c>
+      <c r="S24" s="9" t="str">
+        <f>IF(NOT(ISBLANK(G24)),"No","")</f>
+        <v/>
+      </c>
+      <c r="T24" s="9" t="str">
+        <f>IF(NOT(ISBLANK(H24)),"No","")</f>
+        <v/>
+      </c>
+      <c r="U24" s="9" t="str">
+        <f>IF(NOT(ISBLANK(I24)),"No","")</f>
+        <v/>
+      </c>
+      <c r="V24" s="9" t="str">
+        <f>IF(NOT(ISBLANK(J24)),"No","")</f>
+        <v/>
+      </c>
+      <c r="W24" s="9" t="str">
+        <f>IF(NOT(ISBLANK(K24)),"No","")</f>
+        <v/>
+      </c>
+      <c r="X24" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="Y24" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="Z24" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AA24" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AB24" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AC24" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AD24" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AE24" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AF24" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AG24" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AH24" s="9" t="str">
+        <f>IF(NOT(ISBLANK(L24)),"No","")</f>
+        <v/>
+      </c>
+      <c r="AI24" s="9" t="str">
+        <f>IF(NOT(ISBLANK(M24)),"No","")</f>
+        <v/>
+      </c>
+      <c r="AJ24" s="9" t="str">
+        <f>IF(NOT(ISBLANK(N24)),"No","")</f>
+        <v/>
+      </c>
+      <c r="AK24" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AL24" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AM24" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AN24" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="25" spans="2:40" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="12" t="s">
+        <v>343</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="M25" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="N25" s="10"/>
+      <c r="O25" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="P25" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q25" s="9" t="str">
+        <f>IF(NOT(ISBLANK(E25)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="R25" s="9" t="str">
+        <f>IF(NOT(ISBLANK(F25)),"No","")</f>
+        <v/>
+      </c>
+      <c r="S25" s="9" t="str">
+        <f>IF(NOT(ISBLANK(G25)),"No","")</f>
+        <v/>
+      </c>
+      <c r="T25" s="9" t="str">
+        <f>IF(NOT(ISBLANK(H25)),"No","")</f>
+        <v/>
+      </c>
+      <c r="U25" s="9" t="str">
+        <f>IF(NOT(ISBLANK(I25)),"No","")</f>
+        <v/>
+      </c>
+      <c r="V25" s="9" t="str">
+        <f>IF(NOT(ISBLANK(J25)),"No","")</f>
+        <v/>
+      </c>
+      <c r="W25" s="9" t="str">
+        <f>IF(NOT(ISBLANK(K25)),"No","")</f>
+        <v/>
+      </c>
+      <c r="X25" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="Y25" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="Z25" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AA25" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AB25" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AC25" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AD25" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AE25" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AF25" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AG25" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AH25" s="9" t="str">
+        <f>IF(NOT(ISBLANK(L25)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AI25" s="9" t="str">
+        <f>IF(NOT(ISBLANK(M25)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AJ25" s="9" t="str">
+        <f>IF(NOT(ISBLANK(N25)),"No","")</f>
+        <v/>
+      </c>
+      <c r="AK25" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AL25" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AM25" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AN25" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="26" spans="2:40" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="12" t="s">
+        <v>343</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="F26" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="M26" s="11"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="P26" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="9" t="str">
+        <f>IF(NOT(ISBLANK(E26)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="R26" s="9" t="str">
+        <f>IF(NOT(ISBLANK(F26)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="S26" s="9" t="str">
+        <f>IF(NOT(ISBLANK(G26)),"No","")</f>
+        <v/>
+      </c>
+      <c r="T26" s="9" t="str">
+        <f>IF(NOT(ISBLANK(H26)),"No","")</f>
+        <v/>
+      </c>
+      <c r="U26" s="9" t="str">
+        <f>IF(NOT(ISBLANK(I26)),"No","")</f>
+        <v/>
+      </c>
+      <c r="V26" s="9" t="str">
+        <f>IF(NOT(ISBLANK(J26)),"No","")</f>
+        <v/>
+      </c>
+      <c r="W26" s="9" t="str">
+        <f>IF(NOT(ISBLANK(K26)),"No","")</f>
+        <v/>
+      </c>
+      <c r="X26" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="Y26" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="Z26" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AA26" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AB26" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AC26" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AD26" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AE26" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AF26" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AG26" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AH26" s="9" t="str">
+        <f>IF(NOT(ISBLANK(L26)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AI26" s="9" t="str">
+        <f>IF(NOT(ISBLANK(M26)),"No","")</f>
+        <v/>
+      </c>
+      <c r="AJ26" s="9" t="str">
+        <f>IF(NOT(ISBLANK(N26)),"No","")</f>
+        <v/>
+      </c>
+      <c r="AK26" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AL26" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AM26" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AN26" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="27" spans="2:40" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="37" t="s">
+        <v>344</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="F27" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="G27" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="M27" s="11"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="P27" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q27" s="9" t="str">
+        <f>IF(NOT(ISBLANK(E27)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="R27" s="9" t="str">
+        <f>IF(NOT(ISBLANK(F27)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="S27" s="9" t="str">
+        <f>IF(NOT(ISBLANK(G27)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="T27" s="9" t="str">
+        <f>IF(NOT(ISBLANK(H27)),"No","")</f>
+        <v/>
+      </c>
+      <c r="U27" s="9" t="str">
+        <f>IF(NOT(ISBLANK(I27)),"No","")</f>
+        <v/>
+      </c>
+      <c r="V27" s="9" t="str">
+        <f>IF(NOT(ISBLANK(J27)),"No","")</f>
+        <v/>
+      </c>
+      <c r="W27" s="9" t="str">
+        <f>IF(NOT(ISBLANK(K27)),"No","")</f>
+        <v/>
+      </c>
+      <c r="X27" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="Y27" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="Z27" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AA27" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AB27" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AC27" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AD27" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AE27" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AF27" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AG27" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AH27" s="9" t="str">
+        <f>IF(NOT(ISBLANK(L27)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AI27" s="9" t="str">
+        <f>IF(NOT(ISBLANK(M27)),"No","")</f>
+        <v/>
+      </c>
+      <c r="AJ27" s="9" t="str">
+        <f>IF(NOT(ISBLANK(N27)),"No","")</f>
+        <v/>
+      </c>
+      <c r="AK27" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AL27" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AM27" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AN27" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="28" spans="2:40" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="37" t="s">
+        <v>344</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="F28" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="G28" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="10"/>
+      <c r="O28" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="P28" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q28" s="9" t="str">
+        <f>IF(NOT(ISBLANK(E28)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="R28" s="9" t="str">
+        <f>IF(NOT(ISBLANK(F28)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="S28" s="9" t="str">
+        <f>IF(NOT(ISBLANK(G28)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="T28" s="9" t="str">
+        <f>IF(NOT(ISBLANK(H28)),"No","")</f>
+        <v/>
+      </c>
+      <c r="U28" s="9" t="str">
+        <f>IF(NOT(ISBLANK(I28)),"No","")</f>
+        <v/>
+      </c>
+      <c r="V28" s="9" t="str">
+        <f>IF(NOT(ISBLANK(J28)),"No","")</f>
+        <v/>
+      </c>
+      <c r="W28" s="9" t="str">
+        <f>IF(NOT(ISBLANK(K28)),"No","")</f>
+        <v/>
+      </c>
+      <c r="X28" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="Y28" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="Z28" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AA28" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AB28" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AC28" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AD28" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AE28" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AF28" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AG28" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AH28" s="9" t="str">
+        <f>IF(NOT(ISBLANK(L28)),"No","")</f>
+        <v/>
+      </c>
+      <c r="AI28" s="9" t="str">
+        <f>IF(NOT(ISBLANK(M28)),"No","")</f>
+        <v/>
+      </c>
+      <c r="AJ28" s="9" t="str">
+        <f>IF(NOT(ISBLANK(N28)),"No","")</f>
+        <v/>
+      </c>
+      <c r="AK28" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AL28" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AM28" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AN28" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="29" spans="2:40" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="12" t="s">
+        <v>345</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="14"/>
+      <c r="L29" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="M29" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N29" s="10"/>
+      <c r="O29" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="P29" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q29" s="9" t="str">
+        <f>IF(NOT(ISBLANK(E29)),"No","")</f>
+        <v/>
+      </c>
+      <c r="R29" s="9" t="str">
+        <f>IF(NOT(ISBLANK(F29)),"No","")</f>
+        <v/>
+      </c>
+      <c r="S29" s="9" t="str">
+        <f>IF(NOT(ISBLANK(G29)),"No","")</f>
+        <v/>
+      </c>
+      <c r="T29" s="9" t="str">
+        <f>IF(NOT(ISBLANK(H29)),"No","")</f>
+        <v/>
+      </c>
+      <c r="U29" s="9" t="str">
+        <f>IF(NOT(ISBLANK(I29)),"No","")</f>
+        <v/>
+      </c>
+      <c r="V29" s="9" t="str">
+        <f>IF(NOT(ISBLANK(J29)),"No","")</f>
+        <v/>
+      </c>
+      <c r="W29" s="9" t="str">
+        <f>IF(NOT(ISBLANK(K29)),"No","")</f>
+        <v/>
+      </c>
+      <c r="X29" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="Y29" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="Z29" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AA29" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AB29" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AC29" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AD29" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AE29" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AF29" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AG29" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AH29" s="9" t="str">
+        <f>IF(NOT(ISBLANK(L29)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AI29" s="9" t="str">
+        <f>IF(NOT(ISBLANK(M29)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AJ29" s="9" t="str">
+        <f>IF(NOT(ISBLANK(N29)),"No","")</f>
+        <v/>
+      </c>
+      <c r="AK29" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AL29" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AM29" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AN29" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="30" spans="2:40" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D30" s="5"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="6"/>
+      <c r="N30" s="6"/>
+      <c r="O30" s="5"/>
+      <c r="P30" s="5"/>
+    </row>
+    <row r="31" spans="2:40" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D31" s="5"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="6"/>
+      <c r="N31" s="6"/>
+      <c r="O31" s="5"/>
+      <c r="P31" s="5"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="C1:P29" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <conditionalFormatting sqref="B1">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1">
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="P2" r:id="rId1" xr:uid="{6BEBFCE4-8952-483A-B810-41AD37D97EBD}"/>
+    <hyperlink ref="P3" r:id="rId2" xr:uid="{D524046E-282D-48B1-B165-26CC1C4FFB88}"/>
+    <hyperlink ref="P5" r:id="rId3" xr:uid="{5DEA23F7-7C73-4A14-9DD3-5278BC2CA0FD}"/>
+    <hyperlink ref="P6" r:id="rId4" xr:uid="{0F222FCC-092A-46C2-8C67-132F79850180}"/>
+    <hyperlink ref="P7" r:id="rId5" xr:uid="{0E1FD15B-EA7B-46AA-BDCF-0906EA72A11A}"/>
+    <hyperlink ref="P9" r:id="rId6" xr:uid="{F902A3C1-7171-44D1-806A-9E947DDAD93B}"/>
+    <hyperlink ref="P11" r:id="rId7" xr:uid="{16878787-2C90-404C-8B61-D831BB17EA09}"/>
+    <hyperlink ref="P12" r:id="rId8" xr:uid="{47F6A0B6-32B0-4D1E-BF6A-5C14FBD8C2FB}"/>
+    <hyperlink ref="P13" r:id="rId9" xr:uid="{46FCF794-02CF-4783-A6D0-B7650A470766}"/>
+    <hyperlink ref="P14" r:id="rId10" xr:uid="{139517B8-CC84-4C73-A991-3E942636A824}"/>
+    <hyperlink ref="P15" r:id="rId11" xr:uid="{430A97DF-25E1-4339-BA73-A62AD6E8C57F}"/>
+    <hyperlink ref="P16" r:id="rId12" xr:uid="{4ED2F39A-532C-43E5-B4D0-48B3FC05C99F}"/>
+    <hyperlink ref="P17" r:id="rId13" xr:uid="{D08429D6-EF85-4D4F-97AF-206489B50C5D}"/>
+    <hyperlink ref="P18" r:id="rId14" xr:uid="{043E06A2-2FFF-4ADA-9216-6C088E9319F8}"/>
+    <hyperlink ref="P19" r:id="rId15" xr:uid="{9014CB75-25A5-482C-BE9E-048157D01337}"/>
+    <hyperlink ref="P20" r:id="rId16" xr:uid="{5448FE94-E259-4CE2-A22C-BA2B5EFCC50E}"/>
+    <hyperlink ref="P27" r:id="rId17" xr:uid="{269A5F01-A933-4456-B6B6-E727FC46C348}"/>
+    <hyperlink ref="P21" r:id="rId18" xr:uid="{E80A8747-3BB7-4491-8EBF-E5493F5FCB00}"/>
+    <hyperlink ref="P28" r:id="rId19" xr:uid="{0DF85B10-C7FD-4563-9F44-25D6A1B507A8}"/>
+    <hyperlink ref="P22" r:id="rId20" xr:uid="{9090F4D3-65B5-4B4A-AD52-7B2B8982C229}"/>
+    <hyperlink ref="P23" r:id="rId21" xr:uid="{8E79B3C7-0396-4652-8DA2-D6853DE3A19C}"/>
+    <hyperlink ref="P29" r:id="rId22" xr:uid="{5D3E1B1B-01D5-4B40-AF5A-E2D2DF033AF5}"/>
+    <hyperlink ref="P24" r:id="rId23" xr:uid="{FAE67DCD-9982-4BFB-811E-B9895544358A}"/>
+    <hyperlink ref="P25" r:id="rId24" xr:uid="{7C83ECCB-A2A1-4A0D-9CCA-3648BD934BF0}"/>
+    <hyperlink ref="P26" r:id="rId25" xr:uid="{072C146D-4CEE-4B76-B963-CFA8442C8A27}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId26"/>
+</worksheet>
 </file>
--- a/documents/Webtech MERN - Apr 2021.xlsx
+++ b/documents/Webtech MERN - Apr 2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Training\mindtree-april2021\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DC52DE4-9F3D-4BB6-ABDE-F4ED857A9B4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFCE40DA-24D2-4953-ABFD-A4667BD1C91C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Webtech Mern" sheetId="1" r:id="rId1"/>
@@ -19,8 +19,8 @@
     <sheet name="Topics" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Campus Minds'!$A$1:$G$5</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Topics!$C$1:$P$29</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Campus Minds'!$A$1:$H$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Topics!$B$1:$O$29</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Webtech Mern'!$B$1:$AH$29</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
     <author>ghosh</author>
   </authors>
   <commentList>
-    <comment ref="B13" authorId="0" shapeId="0" xr:uid="{9BF4976F-C4B2-4827-844B-8F6A304311AD}">
+    <comment ref="C13" authorId="0" shapeId="0" xr:uid="{9BF4976F-C4B2-4827-844B-8F6A304311AD}">
       <text>
         <r>
           <rPr>
@@ -53,7 +53,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B16" authorId="0" shapeId="0" xr:uid="{3F02A748-1B67-4BB4-B8DD-B1743FE97FC1}">
+    <comment ref="C16" authorId="0" shapeId="0" xr:uid="{3F02A748-1B67-4BB4-B8DD-B1743FE97FC1}">
       <text>
         <r>
           <rPr>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="874" uniqueCount="420">
   <si>
     <t>https://redux-saga.js.org/docs/introduction/BeginnerTutorial.html</t>
   </si>
@@ -1313,9 +1313,6 @@
     <t>Dipankar Mahato</t>
   </si>
   <si>
-    <t>Kashyap.Nadendla</t>
-  </si>
-  <si>
     <t>SCSS</t>
   </si>
   <si>
@@ -1328,18 +1325,9 @@
     <t>Kushal Baragi</t>
   </si>
   <si>
-    <t>Madatha.Kirankumar</t>
-  </si>
-  <si>
     <t>Madhu Sudhan C</t>
   </si>
   <si>
-    <t>Mohansubrahmanya.Gokada</t>
-  </si>
-  <si>
-    <t>Mulugu.HariBabu</t>
-  </si>
-  <si>
     <t>Nallangu Lakshmi Sailaja</t>
   </si>
   <si>
@@ -1380,6 +1368,66 @@
   </si>
   <si>
     <t>TEAM-3</t>
+  </si>
+  <si>
+    <t>MID</t>
+  </si>
+  <si>
+    <t>M1066389</t>
+  </si>
+  <si>
+    <t>Kiran Kumar Madatha</t>
+  </si>
+  <si>
+    <t>Kashyap Sai Prasad Nadendla</t>
+  </si>
+  <si>
+    <t>M1066890</t>
+  </si>
+  <si>
+    <t>M1066961</t>
+  </si>
+  <si>
+    <t>M1066679</t>
+  </si>
+  <si>
+    <t>Hari Babu Mulugu</t>
+  </si>
+  <si>
+    <t>M1067220</t>
+  </si>
+  <si>
+    <t>M1067163</t>
+  </si>
+  <si>
+    <t>M1066864</t>
+  </si>
+  <si>
+    <t>Gokada Mohan Subrahmanya Anjaneya Katamraju</t>
+  </si>
+  <si>
+    <t>M1067021</t>
+  </si>
+  <si>
+    <t>M1067050</t>
+  </si>
+  <si>
+    <t>M1066694</t>
+  </si>
+  <si>
+    <t>M1067073</t>
+  </si>
+  <si>
+    <t>M1067005</t>
+  </si>
+  <si>
+    <t>M1067165</t>
+  </si>
+  <si>
+    <t>M1066893</t>
+  </si>
+  <si>
+    <t>M1067052</t>
   </si>
 </sst>
 </file>
@@ -2148,9 +2196,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BF31"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F12" sqref="F12:BG12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="49.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -7010,429 +7058,481 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{983E95EF-2C32-42F8-9CAB-F38FB8CA9197}">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4:G4"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.21875" customWidth="1"/>
-    <col min="3" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="4.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="4.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="40" t="s">
+        <v>393</v>
+      </c>
+      <c r="B1" s="40" t="s">
+        <v>400</v>
+      </c>
+      <c r="C1" s="41" t="s">
+        <v>378</v>
+      </c>
+      <c r="D1" s="41" t="s">
+        <v>395</v>
+      </c>
+      <c r="E1" s="41" t="s">
+        <v>396</v>
+      </c>
+      <c r="F1" s="41" t="s">
+        <v>263</v>
+      </c>
+      <c r="G1" s="41" t="s">
+        <v>381</v>
+      </c>
+      <c r="H1" s="41" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="58" t="s">
         <v>397</v>
-      </c>
-      <c r="B1" s="41" t="s">
-        <v>378</v>
-      </c>
-      <c r="C1" s="41" t="s">
-        <v>399</v>
-      </c>
-      <c r="D1" s="41" t="s">
-        <v>400</v>
-      </c>
-      <c r="E1" s="41" t="s">
-        <v>263</v>
-      </c>
-      <c r="F1" s="41" t="s">
-        <v>382</v>
-      </c>
-      <c r="G1" s="41" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="58" t="s">
-        <v>401</v>
       </c>
       <c r="B2" s="59"/>
       <c r="C2" s="59"/>
       <c r="D2" s="59"/>
       <c r="E2" s="59"/>
       <c r="F2" s="59"/>
-      <c r="G2" s="60"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="60"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="38">
         <v>1</v>
       </c>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="38" t="s">
+        <v>410</v>
+      </c>
+      <c r="C3" s="43" t="s">
         <v>379</v>
       </c>
-      <c r="C3" s="42" t="s">
-        <v>398</v>
-      </c>
       <c r="D3" s="42" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="E3" s="42" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="F3" s="42" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="G3" s="42" t="s">
-        <v>398</v>
+        <v>394</v>
+      </c>
+      <c r="H3" s="42" t="s">
+        <v>394</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="38">
         <v>2</v>
       </c>
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="38" t="s">
+        <v>414</v>
+      </c>
+      <c r="C4" s="43" t="s">
         <v>380</v>
       </c>
-      <c r="C4" s="42" t="s">
-        <v>398</v>
-      </c>
       <c r="D4" s="42" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="E4" s="42" t="s">
-        <v>398</v>
-      </c>
-      <c r="F4" s="57" t="s">
-        <v>396</v>
+        <v>394</v>
+      </c>
+      <c r="F4" s="42" t="s">
+        <v>394</v>
       </c>
       <c r="G4" s="57" t="s">
-        <v>396</v>
+        <v>392</v>
+      </c>
+      <c r="H4" s="57" t="s">
+        <v>392</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="38">
         <v>3</v>
       </c>
-      <c r="B5" s="44" t="s">
-        <v>381</v>
-      </c>
-      <c r="C5" s="42" t="s">
-        <v>398</v>
+      <c r="B5" s="38" t="s">
+        <v>401</v>
+      </c>
+      <c r="C5" s="44" t="s">
+        <v>403</v>
       </c>
       <c r="D5" s="42" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="E5" s="42" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="F5" s="42" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="G5" s="42" t="s">
-        <v>398</v>
+        <v>394</v>
+      </c>
+      <c r="H5" s="42" t="s">
+        <v>394</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="38">
         <v>4</v>
       </c>
-      <c r="B6" s="43" t="s">
-        <v>384</v>
-      </c>
-      <c r="C6" s="42" t="s">
-        <v>398</v>
+      <c r="B6" s="38" t="s">
+        <v>419</v>
+      </c>
+      <c r="C6" s="43" t="s">
+        <v>383</v>
       </c>
       <c r="D6" s="42" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="E6" s="42" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="F6" s="42" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="G6" s="42" t="s">
-        <v>398</v>
+        <v>394</v>
+      </c>
+      <c r="H6" s="42" t="s">
+        <v>394</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="38">
         <v>5</v>
       </c>
-      <c r="B7" s="43" t="s">
-        <v>385</v>
-      </c>
-      <c r="C7" s="42" t="s">
+      <c r="B7" s="38" t="s">
+        <v>417</v>
+      </c>
+      <c r="C7" s="43" t="s">
+        <v>384</v>
+      </c>
+      <c r="D7" s="42" t="s">
+        <v>394</v>
+      </c>
+      <c r="E7" s="42" t="s">
+        <v>394</v>
+      </c>
+      <c r="F7" s="42" t="s">
+        <v>394</v>
+      </c>
+      <c r="G7" s="57" t="s">
+        <v>392</v>
+      </c>
+      <c r="H7" s="57" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="58" t="s">
         <v>398</v>
-      </c>
-      <c r="D7" s="42" t="s">
-        <v>398</v>
-      </c>
-      <c r="E7" s="42" t="s">
-        <v>398</v>
-      </c>
-      <c r="F7" s="57" t="s">
-        <v>396</v>
-      </c>
-      <c r="G7" s="57" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="58" t="s">
-        <v>402</v>
       </c>
       <c r="B8" s="59"/>
       <c r="C8" s="59"/>
       <c r="D8" s="59"/>
       <c r="E8" s="59"/>
       <c r="F8" s="59"/>
-      <c r="G8" s="60"/>
+      <c r="G8" s="59"/>
+      <c r="H8" s="60"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="38">
         <v>6</v>
       </c>
-      <c r="B9" s="47" t="s">
-        <v>386</v>
-      </c>
-      <c r="C9" s="42" t="s">
-        <v>398</v>
+      <c r="B9" s="38" t="s">
+        <v>404</v>
+      </c>
+      <c r="C9" s="47" t="s">
+        <v>402</v>
       </c>
       <c r="D9" s="42" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="E9" s="42" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="F9" s="42" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="G9" s="42" t="s">
-        <v>398</v>
+        <v>394</v>
+      </c>
+      <c r="H9" s="42" t="s">
+        <v>394</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="38">
         <v>7</v>
       </c>
-      <c r="B10" s="47" t="s">
-        <v>387</v>
-      </c>
-      <c r="C10" s="42" t="s">
-        <v>398</v>
+      <c r="B10" s="38" t="s">
+        <v>418</v>
+      </c>
+      <c r="C10" s="47" t="s">
+        <v>385</v>
       </c>
       <c r="D10" s="42" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="E10" s="42" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="F10" s="42" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="G10" s="42" t="s">
-        <v>398</v>
+        <v>394</v>
+      </c>
+      <c r="H10" s="42" t="s">
+        <v>394</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="38">
         <v>8</v>
       </c>
-      <c r="B11" s="48" t="s">
-        <v>392</v>
-      </c>
-      <c r="C11" s="42" t="s">
-        <v>398</v>
+      <c r="B11" s="38" t="s">
+        <v>409</v>
+      </c>
+      <c r="C11" s="48" t="s">
+        <v>388</v>
       </c>
       <c r="D11" s="42" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="E11" s="42" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="F11" s="42" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="G11" s="42" t="s">
-        <v>398</v>
+        <v>394</v>
+      </c>
+      <c r="H11" s="42" t="s">
+        <v>394</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="38">
         <v>9</v>
       </c>
-      <c r="B12" s="47" t="s">
-        <v>388</v>
-      </c>
-      <c r="C12" s="42" t="s">
-        <v>398</v>
+      <c r="B12" s="38" t="s">
+        <v>412</v>
+      </c>
+      <c r="C12" s="47" t="s">
+        <v>411</v>
       </c>
       <c r="D12" s="42" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="E12" s="42" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="F12" s="42" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="G12" s="42" t="s">
-        <v>398</v>
+        <v>394</v>
+      </c>
+      <c r="H12" s="42" t="s">
+        <v>394</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="38">
         <v>10</v>
       </c>
-      <c r="B13" s="47" t="s">
-        <v>389</v>
-      </c>
-      <c r="C13" s="39" t="s">
-        <v>396</v>
+      <c r="B13" s="38" t="s">
+        <v>408</v>
+      </c>
+      <c r="C13" s="47" t="s">
+        <v>407</v>
       </c>
       <c r="D13" s="39" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="E13" s="39" t="s">
-        <v>396</v>
-      </c>
-      <c r="F13" s="57" t="s">
-        <v>396</v>
+        <v>392</v>
+      </c>
+      <c r="F13" s="39" t="s">
+        <v>392</v>
       </c>
       <c r="G13" s="57" t="s">
-        <v>396</v>
+        <v>392</v>
+      </c>
+      <c r="H13" s="57" t="s">
+        <v>392</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="58" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="B14" s="59"/>
       <c r="C14" s="59"/>
       <c r="D14" s="59"/>
       <c r="E14" s="59"/>
       <c r="F14" s="59"/>
-      <c r="G14" s="60"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="60"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="38">
         <v>11</v>
       </c>
-      <c r="B15" s="45" t="s">
-        <v>390</v>
-      </c>
-      <c r="C15" s="42" t="s">
-        <v>398</v>
+      <c r="B15" s="38" t="s">
+        <v>416</v>
+      </c>
+      <c r="C15" s="45" t="s">
+        <v>386</v>
       </c>
       <c r="D15" s="42" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="E15" s="42" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="F15" s="42" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="G15" s="42" t="s">
-        <v>398</v>
+        <v>394</v>
+      </c>
+      <c r="H15" s="42" t="s">
+        <v>394</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="38">
         <v>12</v>
       </c>
-      <c r="B16" s="45" t="s">
-        <v>391</v>
-      </c>
-      <c r="C16" s="42" t="s">
-        <v>398</v>
+      <c r="B16" s="38" t="s">
+        <v>406</v>
+      </c>
+      <c r="C16" s="45" t="s">
+        <v>387</v>
       </c>
       <c r="D16" s="42" t="s">
-        <v>398</v>
-      </c>
-      <c r="E16" s="39" t="s">
-        <v>396</v>
-      </c>
-      <c r="F16" s="57" t="s">
-        <v>396</v>
+        <v>394</v>
+      </c>
+      <c r="E16" s="42" t="s">
+        <v>394</v>
+      </c>
+      <c r="F16" s="39" t="s">
+        <v>392</v>
       </c>
       <c r="G16" s="57" t="s">
-        <v>396</v>
+        <v>392</v>
+      </c>
+      <c r="H16" s="57" t="s">
+        <v>392</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="38">
         <v>13</v>
       </c>
-      <c r="B17" s="46" t="s">
-        <v>393</v>
-      </c>
-      <c r="C17" s="42" t="s">
-        <v>398</v>
+      <c r="B17" s="38" t="s">
+        <v>405</v>
+      </c>
+      <c r="C17" s="46" t="s">
+        <v>389</v>
       </c>
       <c r="D17" s="42" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="E17" s="42" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="F17" s="42" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="G17" s="42" t="s">
-        <v>398</v>
+        <v>394</v>
+      </c>
+      <c r="H17" s="42" t="s">
+        <v>394</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="38">
         <v>14</v>
       </c>
-      <c r="B18" s="45" t="s">
+      <c r="B18" s="38" t="s">
+        <v>415</v>
+      </c>
+      <c r="C18" s="45" t="s">
+        <v>390</v>
+      </c>
+      <c r="D18" s="42" t="s">
         <v>394</v>
       </c>
-      <c r="C18" s="42" t="s">
-        <v>398</v>
-      </c>
-      <c r="D18" s="42" t="s">
-        <v>398</v>
-      </c>
       <c r="E18" s="42" t="s">
-        <v>398</v>
-      </c>
-      <c r="F18" s="57" t="s">
-        <v>396</v>
+        <v>394</v>
+      </c>
+      <c r="F18" s="42" t="s">
+        <v>394</v>
       </c>
       <c r="G18" s="57" t="s">
-        <v>396</v>
+        <v>392</v>
+      </c>
+      <c r="H18" s="57" t="s">
+        <v>392</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="38">
         <v>15</v>
       </c>
-      <c r="B19" s="45" t="s">
-        <v>395</v>
-      </c>
-      <c r="C19" s="42" t="s">
-        <v>398</v>
+      <c r="B19" s="38" t="s">
+        <v>413</v>
+      </c>
+      <c r="C19" s="45" t="s">
+        <v>391</v>
       </c>
       <c r="D19" s="42" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="E19" s="42" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="F19" s="42" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="G19" s="42" t="s">
-        <v>398</v>
+        <v>394</v>
+      </c>
+      <c r="H19" s="42" t="s">
+        <v>394</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A8:G8"/>
-    <mergeCell ref="A14:G14"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="A14:H14"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:G7 C15:G19 C9:G13" xr:uid="{4CB5697C-CE9B-4D9C-AF2A-AE71901AAEC8}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:H7 D15:H19 D9:H13" xr:uid="{4CB5697C-CE9B-4D9C-AF2A-AE71901AAEC8}">
       <formula1>"YES,NO"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7444,212 +7544,216 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB17D0AD-9B04-4A50-8FA7-CDCA19E31253}">
-  <dimension ref="B1:BG31"/>
+  <dimension ref="A1:AM31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="49.95" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="9.21875" style="1"/>
-    <col min="3" max="3" width="19.5546875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="31.77734375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16" style="4" customWidth="1"/>
-    <col min="6" max="6" width="23.44140625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="21.21875" style="4" customWidth="1"/>
-    <col min="8" max="8" width="15.5546875" style="4" customWidth="1"/>
-    <col min="9" max="9" width="13.77734375" style="4" customWidth="1"/>
-    <col min="10" max="10" width="14.77734375" style="4" customWidth="1"/>
-    <col min="11" max="11" width="13.21875" style="4" customWidth="1"/>
-    <col min="12" max="12" width="19.77734375" style="2" customWidth="1"/>
-    <col min="13" max="13" width="17.21875" style="2" customWidth="1"/>
-    <col min="14" max="14" width="13.21875" style="2" customWidth="1"/>
-    <col min="15" max="15" width="43.88671875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="33.109375" style="1" customWidth="1"/>
-    <col min="17" max="40" width="9.21875" style="1" hidden="1" customWidth="1"/>
-    <col min="41" max="16384" width="9.21875" style="1"/>
+    <col min="1" max="1" width="9.21875" style="1"/>
+    <col min="2" max="2" width="19.5546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="31.77734375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16" style="4" customWidth="1"/>
+    <col min="5" max="5" width="23.44140625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="21.21875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="15.5546875" style="4" customWidth="1"/>
+    <col min="8" max="8" width="13.77734375" style="4" customWidth="1"/>
+    <col min="9" max="9" width="14.77734375" style="4" customWidth="1"/>
+    <col min="10" max="10" width="13.21875" style="4" customWidth="1"/>
+    <col min="11" max="11" width="19.77734375" style="2" customWidth="1"/>
+    <col min="12" max="12" width="17.21875" style="2" customWidth="1"/>
+    <col min="13" max="13" width="13.21875" style="2" customWidth="1"/>
+    <col min="14" max="14" width="43.88671875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="33.109375" style="1" customWidth="1"/>
+    <col min="16" max="39" width="9.21875" style="1" hidden="1" customWidth="1"/>
+    <col min="40" max="16384" width="9.21875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:40" s="28" customFormat="1" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="29" t="s">
+    <row r="1" spans="1:39" s="28" customFormat="1" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="29" t="s">
         <v>334</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="B1" s="32" t="s">
         <v>329</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="C1" s="30" t="s">
         <v>328</v>
       </c>
+      <c r="D1" s="31" t="s">
+        <v>327</v>
+      </c>
       <c r="E1" s="31" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F1" s="31" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G1" s="31" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H1" s="31" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I1" s="31" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="J1" s="31" t="s">
-        <v>322</v>
-      </c>
-      <c r="K1" s="31" t="s">
         <v>321</v>
       </c>
+      <c r="K1" s="29" t="s">
+        <v>309</v>
+      </c>
       <c r="L1" s="29" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="M1" s="29" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="N1" s="29" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="O1" s="29" t="s">
-        <v>302</v>
-      </c>
-      <c r="P1" s="29" t="s">
         <v>301</v>
       </c>
+      <c r="P1" s="36" t="s">
+        <v>353</v>
+      </c>
       <c r="Q1" s="36" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="R1" s="36" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="S1" s="36" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="T1" s="36" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="U1" s="36" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="V1" s="36" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="W1" s="36" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="X1" s="36" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Y1" s="36" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Z1" s="36" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AA1" s="36" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AB1" s="36" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AC1" s="36" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AD1" s="36" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AE1" s="36" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AF1" s="36" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AG1" s="36" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AH1" s="36" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AI1" s="36" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AJ1" s="36" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AK1" s="36" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AL1" s="36" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AM1" s="36" t="s">
-        <v>375</v>
-      </c>
-      <c r="AN1" s="36" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="2" spans="2:40" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="37" t="s">
+    <row r="2" spans="1:39" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="37" t="s">
         <v>336</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="B2" s="27" t="s">
         <v>297</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="C2" s="11" t="s">
         <v>296</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="D2" s="14" t="s">
         <v>295</v>
       </c>
+      <c r="E2" s="16" t="s">
+        <v>294</v>
+      </c>
       <c r="F2" s="16" t="s">
-        <v>294</v>
-      </c>
-      <c r="G2" s="16" t="s">
         <v>293</v>
       </c>
+      <c r="G2" s="16"/>
       <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
+      <c r="I2" s="14"/>
       <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="10"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="8" t="s">
+        <v>292</v>
+      </c>
       <c r="O2" s="8" t="s">
-        <v>292</v>
-      </c>
-      <c r="P2" s="8" t="s">
         <v>291</v>
       </c>
+      <c r="P2" s="9" t="str">
+        <f t="shared" ref="P2:P29" si="0">IF(NOT(ISBLANK(D2)),"No","")</f>
+        <v>No</v>
+      </c>
       <c r="Q2" s="9" t="str">
-        <f>IF(NOT(ISBLANK(E2)),"No","")</f>
+        <f t="shared" ref="Q2:Q29" si="1">IF(NOT(ISBLANK(E2)),"No","")</f>
         <v>No</v>
       </c>
       <c r="R2" s="9" t="str">
-        <f>IF(NOT(ISBLANK(F2)),"No","")</f>
+        <f t="shared" ref="R2:R29" si="2">IF(NOT(ISBLANK(F2)),"No","")</f>
         <v>No</v>
       </c>
       <c r="S2" s="9" t="str">
-        <f>IF(NOT(ISBLANK(G2)),"No","")</f>
-        <v>No</v>
+        <f t="shared" ref="S2:S29" si="3">IF(NOT(ISBLANK(G2)),"No","")</f>
+        <v/>
       </c>
       <c r="T2" s="9" t="str">
-        <f>IF(NOT(ISBLANK(H2)),"No","")</f>
+        <f t="shared" ref="T2:T29" si="4">IF(NOT(ISBLANK(H2)),"No","")</f>
         <v/>
       </c>
       <c r="U2" s="9" t="str">
-        <f>IF(NOT(ISBLANK(I2)),"No","")</f>
+        <f t="shared" ref="U2:U29" si="5">IF(NOT(ISBLANK(I2)),"No","")</f>
         <v/>
       </c>
       <c r="V2" s="9" t="str">
-        <f>IF(NOT(ISBLANK(J2)),"No","")</f>
+        <f t="shared" ref="V2:V29" si="6">IF(NOT(ISBLANK(J2)),"No","")</f>
         <v/>
       </c>
       <c r="W2" s="9" t="str">
-        <f>IF(NOT(ISBLANK(K2)),"No","")</f>
-        <v/>
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
       </c>
       <c r="X2" s="9" t="str">
         <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
@@ -7688,20 +7792,20 @@
         <v>No</v>
       </c>
       <c r="AG2" s="9" t="str">
-        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
-        <v>No</v>
+        <f t="shared" ref="AG2:AG29" si="7">IF(NOT(ISBLANK(K2)),"No","")</f>
+        <v/>
       </c>
       <c r="AH2" s="9" t="str">
-        <f>IF(NOT(ISBLANK(L2)),"No","")</f>
+        <f t="shared" ref="AH2:AH29" si="8">IF(NOT(ISBLANK(L2)),"No","")</f>
         <v/>
       </c>
       <c r="AI2" s="9" t="str">
-        <f>IF(NOT(ISBLANK(M2)),"No","")</f>
+        <f t="shared" ref="AI2:AI29" si="9">IF(NOT(ISBLANK(M2)),"No","")</f>
         <v/>
       </c>
       <c r="AJ2" s="9" t="str">
-        <f>IF(NOT(ISBLANK(N2)),"No","")</f>
-        <v/>
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
       </c>
       <c r="AK2" s="9" t="str">
         <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
@@ -7715,74 +7819,74 @@
         <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
         <v>No</v>
       </c>
-      <c r="AN2" s="9" t="str">
-        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
-        <v>No</v>
-      </c>
     </row>
-    <row r="3" spans="2:40" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="37" t="s">
+    <row r="3" spans="1:39" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="37" t="s">
         <v>336</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="B3" s="27" t="s">
         <v>287</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="C3" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="D3" s="14" t="s">
         <v>285</v>
       </c>
+      <c r="E3" s="16" t="s">
+        <v>284</v>
+      </c>
       <c r="F3" s="16" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H3" s="16" t="s">
-        <v>282</v>
-      </c>
-      <c r="I3" s="16" t="s">
         <v>281</v>
       </c>
+      <c r="I3" s="14"/>
       <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="10"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="8" t="s">
+        <v>280</v>
+      </c>
       <c r="O3" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="P3" s="8" t="s">
         <v>279</v>
       </c>
+      <c r="P3" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>No</v>
+      </c>
       <c r="Q3" s="9" t="str">
-        <f>IF(NOT(ISBLANK(E3)),"No","")</f>
+        <f t="shared" si="1"/>
         <v>No</v>
       </c>
       <c r="R3" s="9" t="str">
-        <f>IF(NOT(ISBLANK(F3)),"No","")</f>
+        <f t="shared" si="2"/>
         <v>No</v>
       </c>
       <c r="S3" s="9" t="str">
-        <f>IF(NOT(ISBLANK(G3)),"No","")</f>
+        <f t="shared" si="3"/>
         <v>No</v>
       </c>
       <c r="T3" s="9" t="str">
-        <f>IF(NOT(ISBLANK(H3)),"No","")</f>
+        <f t="shared" si="4"/>
         <v>No</v>
       </c>
       <c r="U3" s="9" t="str">
-        <f>IF(NOT(ISBLANK(I3)),"No","")</f>
-        <v>No</v>
+        <f t="shared" si="5"/>
+        <v/>
       </c>
       <c r="V3" s="9" t="str">
-        <f>IF(NOT(ISBLANK(J3)),"No","")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="W3" s="9" t="str">
-        <f>IF(NOT(ISBLANK(K3)),"No","")</f>
-        <v/>
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
       </c>
       <c r="X3" s="9" t="str">
         <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
@@ -7821,20 +7925,20 @@
         <v>No</v>
       </c>
       <c r="AG3" s="9" t="str">
-        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
-        <v>No</v>
+        <f t="shared" si="7"/>
+        <v/>
       </c>
       <c r="AH3" s="9" t="str">
-        <f>IF(NOT(ISBLANK(L3)),"No","")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AI3" s="9" t="str">
-        <f>IF(NOT(ISBLANK(M3)),"No","")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AJ3" s="9" t="str">
-        <f>IF(NOT(ISBLANK(N3)),"No","")</f>
-        <v/>
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
       </c>
       <c r="AK3" s="9" t="str">
         <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
@@ -7848,76 +7952,76 @@
         <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
         <v>No</v>
       </c>
-      <c r="AN3" s="9" t="str">
-        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
-        <v>No</v>
-      </c>
     </row>
-    <row r="4" spans="2:40" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="37" t="s">
+    <row r="4" spans="1:39" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="37" t="s">
         <v>336</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="B4" s="27" t="s">
         <v>275</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="C4" s="11" t="s">
         <v>274</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="D4" s="14" t="s">
         <v>273</v>
       </c>
+      <c r="E4" s="16" t="s">
+        <v>377</v>
+      </c>
       <c r="F4" s="16" t="s">
-        <v>377</v>
+        <v>272</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H4" s="16" t="s">
-        <v>271</v>
-      </c>
-      <c r="I4" s="16" t="s">
         <v>270</v>
       </c>
-      <c r="J4" s="14" t="s">
+      <c r="I4" s="14" t="s">
         <v>269</v>
       </c>
-      <c r="K4" s="14"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="8" t="s">
+      <c r="J4" s="14"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="P4" s="11" t="s">
+      <c r="O4" s="11" t="s">
         <v>267</v>
       </c>
+      <c r="P4" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>No</v>
+      </c>
       <c r="Q4" s="9" t="str">
-        <f>IF(NOT(ISBLANK(E4)),"No","")</f>
+        <f t="shared" si="1"/>
         <v>No</v>
       </c>
       <c r="R4" s="9" t="str">
-        <f>IF(NOT(ISBLANK(F4)),"No","")</f>
+        <f t="shared" si="2"/>
         <v>No</v>
       </c>
       <c r="S4" s="9" t="str">
-        <f>IF(NOT(ISBLANK(G4)),"No","")</f>
+        <f t="shared" si="3"/>
         <v>No</v>
       </c>
       <c r="T4" s="9" t="str">
-        <f>IF(NOT(ISBLANK(H4)),"No","")</f>
+        <f t="shared" si="4"/>
         <v>No</v>
       </c>
       <c r="U4" s="9" t="str">
-        <f>IF(NOT(ISBLANK(I4)),"No","")</f>
+        <f t="shared" si="5"/>
         <v>No</v>
       </c>
       <c r="V4" s="9" t="str">
-        <f>IF(NOT(ISBLANK(J4)),"No","")</f>
-        <v>No</v>
+        <f t="shared" si="6"/>
+        <v/>
       </c>
       <c r="W4" s="9" t="str">
-        <f>IF(NOT(ISBLANK(K4)),"No","")</f>
-        <v/>
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
       </c>
       <c r="X4" s="9" t="str">
         <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
@@ -7956,20 +8060,20 @@
         <v>No</v>
       </c>
       <c r="AG4" s="9" t="str">
-        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
-        <v>No</v>
+        <f t="shared" si="7"/>
+        <v/>
       </c>
       <c r="AH4" s="9" t="str">
-        <f>IF(NOT(ISBLANK(L4)),"No","")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AI4" s="9" t="str">
-        <f>IF(NOT(ISBLANK(M4)),"No","")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AJ4" s="9" t="str">
-        <f>IF(NOT(ISBLANK(N4)),"No","")</f>
-        <v/>
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
       </c>
       <c r="AK4" s="9" t="str">
         <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
@@ -7983,70 +8087,70 @@
         <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
         <v>No</v>
       </c>
-      <c r="AN4" s="9" t="str">
-        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
-        <v>No</v>
-      </c>
     </row>
-    <row r="5" spans="2:40" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="37" t="s">
+    <row r="5" spans="1:39" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="37" t="s">
         <v>336</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="B5" s="15" t="s">
         <v>263</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="C5" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="D5" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="E5" s="16" t="s">
         <v>260</v>
       </c>
+      <c r="F5" s="16"/>
       <c r="G5" s="16"/>
       <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
+      <c r="I5" s="14"/>
       <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="11" t="s">
+      <c r="K5" s="11" t="s">
         <v>259</v>
       </c>
-      <c r="M5" s="18"/>
-      <c r="N5" s="10"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="8" t="s">
+        <v>258</v>
+      </c>
       <c r="O5" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="P5" s="8" t="s">
         <v>257</v>
       </c>
+      <c r="P5" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>No</v>
+      </c>
       <c r="Q5" s="9" t="str">
-        <f>IF(NOT(ISBLANK(E5)),"No","")</f>
+        <f t="shared" si="1"/>
         <v>No</v>
       </c>
       <c r="R5" s="9" t="str">
-        <f>IF(NOT(ISBLANK(F5)),"No","")</f>
-        <v>No</v>
+        <f t="shared" si="2"/>
+        <v/>
       </c>
       <c r="S5" s="9" t="str">
-        <f>IF(NOT(ISBLANK(G5)),"No","")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="T5" s="9" t="str">
-        <f>IF(NOT(ISBLANK(H5)),"No","")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="U5" s="9" t="str">
-        <f>IF(NOT(ISBLANK(I5)),"No","")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="V5" s="9" t="str">
-        <f>IF(NOT(ISBLANK(J5)),"No","")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="W5" s="9" t="str">
-        <f>IF(NOT(ISBLANK(K5)),"No","")</f>
-        <v/>
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
       </c>
       <c r="X5" s="9" t="str">
         <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
@@ -8085,20 +8189,20 @@
         <v>No</v>
       </c>
       <c r="AG5" s="9" t="str">
-        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <f t="shared" si="7"/>
         <v>No</v>
       </c>
       <c r="AH5" s="9" t="str">
-        <f>IF(NOT(ISBLANK(L5)),"No","")</f>
-        <v>No</v>
+        <f t="shared" si="8"/>
+        <v/>
       </c>
       <c r="AI5" s="9" t="str">
-        <f>IF(NOT(ISBLANK(M5)),"No","")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AJ5" s="9" t="str">
-        <f>IF(NOT(ISBLANK(N5)),"No","")</f>
-        <v/>
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
       </c>
       <c r="AK5" s="9" t="str">
         <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
@@ -8112,78 +8216,78 @@
         <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
         <v>No</v>
       </c>
-      <c r="AN5" s="9" t="str">
-        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
-        <v>No</v>
-      </c>
     </row>
-    <row r="6" spans="2:40" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="37" t="s">
+    <row r="6" spans="1:39" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="37" t="s">
         <v>337</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="B6" s="15" t="s">
         <v>253</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="C6" s="11" t="s">
         <v>252</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="D6" s="16" t="s">
         <v>251</v>
       </c>
-      <c r="F6" s="18" t="s">
+      <c r="E6" s="18" t="s">
         <v>250</v>
       </c>
+      <c r="F6" s="16" t="s">
+        <v>249</v>
+      </c>
       <c r="G6" s="16" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H6" s="16" t="s">
-        <v>248</v>
-      </c>
-      <c r="I6" s="16" t="s">
         <v>247</v>
       </c>
-      <c r="J6" s="14" t="s">
+      <c r="I6" s="14" t="s">
         <v>246</v>
       </c>
-      <c r="K6" s="14"/>
-      <c r="L6" s="11" t="s">
+      <c r="J6" s="14"/>
+      <c r="K6" s="11" t="s">
         <v>245</v>
       </c>
-      <c r="M6" s="18"/>
-      <c r="N6" s="10"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="8" t="s">
+        <v>244</v>
+      </c>
       <c r="O6" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="P6" s="8" t="s">
         <v>243</v>
       </c>
+      <c r="P6" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>No</v>
+      </c>
       <c r="Q6" s="9" t="str">
-        <f>IF(NOT(ISBLANK(E6)),"No","")</f>
+        <f t="shared" si="1"/>
         <v>No</v>
       </c>
       <c r="R6" s="9" t="str">
-        <f>IF(NOT(ISBLANK(F6)),"No","")</f>
+        <f t="shared" si="2"/>
         <v>No</v>
       </c>
       <c r="S6" s="9" t="str">
-        <f>IF(NOT(ISBLANK(G6)),"No","")</f>
+        <f t="shared" si="3"/>
         <v>No</v>
       </c>
       <c r="T6" s="9" t="str">
-        <f>IF(NOT(ISBLANK(H6)),"No","")</f>
+        <f t="shared" si="4"/>
         <v>No</v>
       </c>
       <c r="U6" s="9" t="str">
-        <f>IF(NOT(ISBLANK(I6)),"No","")</f>
+        <f t="shared" si="5"/>
         <v>No</v>
       </c>
       <c r="V6" s="9" t="str">
-        <f>IF(NOT(ISBLANK(J6)),"No","")</f>
-        <v>No</v>
+        <f t="shared" si="6"/>
+        <v/>
       </c>
       <c r="W6" s="9" t="str">
-        <f>IF(NOT(ISBLANK(K6)),"No","")</f>
-        <v/>
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
       </c>
       <c r="X6" s="9" t="str">
         <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
@@ -8222,20 +8326,20 @@
         <v>No</v>
       </c>
       <c r="AG6" s="9" t="str">
-        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <f t="shared" si="7"/>
         <v>No</v>
       </c>
       <c r="AH6" s="9" t="str">
-        <f>IF(NOT(ISBLANK(L6)),"No","")</f>
-        <v>No</v>
+        <f t="shared" si="8"/>
+        <v/>
       </c>
       <c r="AI6" s="9" t="str">
-        <f>IF(NOT(ISBLANK(M6)),"No","")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AJ6" s="9" t="str">
-        <f>IF(NOT(ISBLANK(N6)),"No","")</f>
-        <v/>
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
       </c>
       <c r="AK6" s="9" t="str">
         <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
@@ -8249,74 +8353,74 @@
         <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
         <v>No</v>
       </c>
-      <c r="AN6" s="9" t="str">
-        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
-        <v>No</v>
-      </c>
     </row>
-    <row r="7" spans="2:40" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="37" t="s">
+    <row r="7" spans="1:39" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="37" t="s">
         <v>337</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="B7" s="15" t="s">
         <v>239</v>
       </c>
-      <c r="D7" s="25" t="s">
+      <c r="C7" s="25" t="s">
         <v>238</v>
       </c>
+      <c r="D7" s="24" t="s">
+        <v>237</v>
+      </c>
       <c r="E7" s="24" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F7" s="24" t="s">
-        <v>236</v>
-      </c>
-      <c r="G7" s="24" t="s">
         <v>235</v>
       </c>
+      <c r="G7" s="24"/>
       <c r="H7" s="24"/>
       <c r="I7" s="24"/>
       <c r="J7" s="24"/>
-      <c r="K7" s="24"/>
+      <c r="K7" s="21" t="s">
+        <v>234</v>
+      </c>
       <c r="L7" s="21" t="s">
-        <v>234</v>
-      </c>
-      <c r="M7" s="21" t="s">
         <v>233</v>
       </c>
-      <c r="N7" s="20"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="8" t="s">
+        <v>232</v>
+      </c>
       <c r="O7" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="P7" s="8" t="s">
         <v>231</v>
       </c>
+      <c r="P7" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>No</v>
+      </c>
       <c r="Q7" s="9" t="str">
-        <f>IF(NOT(ISBLANK(E7)),"No","")</f>
+        <f t="shared" si="1"/>
         <v>No</v>
       </c>
       <c r="R7" s="9" t="str">
-        <f>IF(NOT(ISBLANK(F7)),"No","")</f>
+        <f t="shared" si="2"/>
         <v>No</v>
       </c>
       <c r="S7" s="9" t="str">
-        <f>IF(NOT(ISBLANK(G7)),"No","")</f>
-        <v>No</v>
+        <f t="shared" si="3"/>
+        <v/>
       </c>
       <c r="T7" s="9" t="str">
-        <f>IF(NOT(ISBLANK(H7)),"No","")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="U7" s="9" t="str">
-        <f>IF(NOT(ISBLANK(I7)),"No","")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="V7" s="9" t="str">
-        <f>IF(NOT(ISBLANK(J7)),"No","")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="W7" s="9" t="str">
-        <f>IF(NOT(ISBLANK(K7)),"No","")</f>
-        <v/>
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
       </c>
       <c r="X7" s="9" t="str">
         <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
@@ -8355,20 +8459,20 @@
         <v>No</v>
       </c>
       <c r="AG7" s="9" t="str">
-        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <f t="shared" si="7"/>
         <v>No</v>
       </c>
       <c r="AH7" s="9" t="str">
-        <f>IF(NOT(ISBLANK(L7)),"No","")</f>
+        <f t="shared" si="8"/>
         <v>No</v>
       </c>
       <c r="AI7" s="9" t="str">
-        <f>IF(NOT(ISBLANK(M7)),"No","")</f>
-        <v>No</v>
+        <f t="shared" si="9"/>
+        <v/>
       </c>
       <c r="AJ7" s="9" t="str">
-        <f>IF(NOT(ISBLANK(N7)),"No","")</f>
-        <v/>
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
       </c>
       <c r="AK7" s="9" t="str">
         <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
@@ -8382,68 +8486,68 @@
         <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
         <v>No</v>
       </c>
-      <c r="AN7" s="9" t="str">
-        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
-        <v>No</v>
-      </c>
     </row>
-    <row r="8" spans="2:40" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="53" t="s">
+    <row r="8" spans="1:39" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="53" t="s">
         <v>337</v>
       </c>
-      <c r="C8" s="56" t="s">
+      <c r="B8" s="56" t="s">
         <v>227</v>
       </c>
-      <c r="D8" s="25" t="s">
+      <c r="C8" s="25" t="s">
         <v>226</v>
       </c>
-      <c r="E8" s="21" t="s">
+      <c r="D8" s="21" t="s">
         <v>225</v>
       </c>
+      <c r="E8" s="24" t="s">
+        <v>224</v>
+      </c>
       <c r="F8" s="24" t="s">
-        <v>224</v>
-      </c>
-      <c r="G8" s="24" t="s">
         <v>223</v>
       </c>
+      <c r="G8" s="24"/>
       <c r="H8" s="24"/>
       <c r="I8" s="24"/>
       <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
+      <c r="K8" s="21"/>
       <c r="L8" s="21"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="20"/>
-      <c r="O8" s="8" t="s">
+      <c r="M8" s="20"/>
+      <c r="N8" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="P8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>No</v>
+      </c>
       <c r="Q8" s="9" t="str">
-        <f>IF(NOT(ISBLANK(E8)),"No","")</f>
+        <f t="shared" si="1"/>
         <v>No</v>
       </c>
       <c r="R8" s="9" t="str">
-        <f>IF(NOT(ISBLANK(F8)),"No","")</f>
+        <f t="shared" si="2"/>
         <v>No</v>
       </c>
       <c r="S8" s="9" t="str">
-        <f>IF(NOT(ISBLANK(G8)),"No","")</f>
-        <v>No</v>
+        <f t="shared" si="3"/>
+        <v/>
       </c>
       <c r="T8" s="9" t="str">
-        <f>IF(NOT(ISBLANK(H8)),"No","")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="U8" s="9" t="str">
-        <f>IF(NOT(ISBLANK(I8)),"No","")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="V8" s="9" t="str">
-        <f>IF(NOT(ISBLANK(J8)),"No","")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="W8" s="9" t="str">
-        <f>IF(NOT(ISBLANK(K8)),"No","")</f>
-        <v/>
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
       </c>
       <c r="X8" s="9" t="str">
         <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
@@ -8482,20 +8586,20 @@
         <v>No</v>
       </c>
       <c r="AG8" s="9" t="str">
-        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
-        <v>No</v>
+        <f t="shared" si="7"/>
+        <v/>
       </c>
       <c r="AH8" s="9" t="str">
-        <f>IF(NOT(ISBLANK(L8)),"No","")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AI8" s="9" t="str">
-        <f>IF(NOT(ISBLANK(M8)),"No","")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AJ8" s="9" t="str">
-        <f>IF(NOT(ISBLANK(N8)),"No","")</f>
-        <v/>
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
       </c>
       <c r="AK8" s="9" t="str">
         <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
@@ -8509,868 +8613,868 @@
         <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
         <v>No</v>
       </c>
-      <c r="AN8" s="9" t="str">
-        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
-        <v>No</v>
-      </c>
     </row>
-    <row r="9" spans="2:40" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="49" t="s">
+    <row r="9" spans="1:39" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="49" t="s">
         <v>337</v>
       </c>
-      <c r="C9" s="52" t="s">
+      <c r="B9" s="52" t="s">
         <v>191</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="C9" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="D9" s="14" t="s">
         <v>220</v>
       </c>
+      <c r="E9" s="16" t="s">
+        <v>219</v>
+      </c>
       <c r="F9" s="16" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G9" s="16" t="s">
-        <v>218</v>
-      </c>
-      <c r="H9" s="16" t="s">
         <v>217</v>
       </c>
-      <c r="I9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="14"/>
       <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="18"/>
-      <c r="N9" s="10"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="8" t="s">
+        <v>184</v>
+      </c>
       <c r="O9" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="P9" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>No</v>
+      </c>
+      <c r="Q9" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>No</v>
+      </c>
+      <c r="R9" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>No</v>
+      </c>
+      <c r="S9" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>No</v>
+      </c>
+      <c r="T9" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="U9" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="V9" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="W9" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="X9" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="Y9" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="Z9" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AA9" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AB9" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AC9" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AD9" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AE9" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AF9" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AG9" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AH9" s="9" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AI9" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AJ9" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AK9" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AL9" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AM9" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="49" t="s">
+        <v>338</v>
+      </c>
+      <c r="B10" s="52" t="s">
+        <v>213</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="H10" s="16"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="L10" s="18" t="s">
+        <v>206</v>
+      </c>
+      <c r="M10" s="10"/>
+      <c r="N10" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="O10" s="11"/>
+      <c r="P10" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>No</v>
+      </c>
+      <c r="Q10" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>No</v>
+      </c>
+      <c r="R10" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>No</v>
+      </c>
+      <c r="S10" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>No</v>
+      </c>
+      <c r="T10" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="U10" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="V10" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="W10" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="X10" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="Y10" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="Z10" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AA10" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AB10" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AC10" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AD10" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AE10" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AF10" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AG10" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>No</v>
+      </c>
+      <c r="AH10" s="9" t="str">
+        <f t="shared" si="8"/>
+        <v>No</v>
+      </c>
+      <c r="AI10" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AJ10" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AK10" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AL10" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AM10" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="53" t="s">
+        <v>338</v>
+      </c>
+      <c r="B11" s="56" t="s">
+        <v>201</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="O11" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="P11" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>No</v>
+      </c>
+      <c r="Q11" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>No</v>
+      </c>
+      <c r="R11" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>No</v>
+      </c>
+      <c r="S11" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="T11" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="U11" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="V11" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="W11" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="X11" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="Y11" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="Z11" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AA11" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AB11" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AC11" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AD11" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AE11" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AF11" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AG11" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AH11" s="9" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AI11" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AJ11" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AK11" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AL11" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AM11" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="49" t="s">
+        <v>338</v>
+      </c>
+      <c r="B12" s="52" t="s">
+        <v>191</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="L12" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="M12" s="10"/>
+      <c r="N12" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="P9" s="8" t="s">
+      <c r="O12" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="Q9" s="9" t="str">
-        <f>IF(NOT(ISBLANK(E9)),"No","")</f>
-        <v>No</v>
-      </c>
-      <c r="R9" s="9" t="str">
-        <f>IF(NOT(ISBLANK(F9)),"No","")</f>
-        <v>No</v>
-      </c>
-      <c r="S9" s="9" t="str">
-        <f>IF(NOT(ISBLANK(G9)),"No","")</f>
-        <v>No</v>
-      </c>
-      <c r="T9" s="9" t="str">
-        <f>IF(NOT(ISBLANK(H9)),"No","")</f>
-        <v>No</v>
-      </c>
-      <c r="U9" s="9" t="str">
-        <f>IF(NOT(ISBLANK(I9)),"No","")</f>
-        <v/>
-      </c>
-      <c r="V9" s="9" t="str">
-        <f>IF(NOT(ISBLANK(J9)),"No","")</f>
-        <v/>
-      </c>
-      <c r="W9" s="9" t="str">
-        <f>IF(NOT(ISBLANK(K9)),"No","")</f>
-        <v/>
-      </c>
-      <c r="X9" s="9" t="str">
-        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
-        <v>No</v>
-      </c>
-      <c r="Y9" s="9" t="str">
-        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
-        <v>No</v>
-      </c>
-      <c r="Z9" s="9" t="str">
-        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
-        <v>No</v>
-      </c>
-      <c r="AA9" s="9" t="str">
-        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
-        <v>No</v>
-      </c>
-      <c r="AB9" s="9" t="str">
-        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
-        <v>No</v>
-      </c>
-      <c r="AC9" s="9" t="str">
-        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
-        <v>No</v>
-      </c>
-      <c r="AD9" s="9" t="str">
-        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
-        <v>No</v>
-      </c>
-      <c r="AE9" s="9" t="str">
-        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
-        <v>No</v>
-      </c>
-      <c r="AF9" s="9" t="str">
-        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
-        <v>No</v>
-      </c>
-      <c r="AG9" s="9" t="str">
-        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
-        <v>No</v>
-      </c>
-      <c r="AH9" s="9" t="str">
-        <f>IF(NOT(ISBLANK(L9)),"No","")</f>
-        <v/>
-      </c>
-      <c r="AI9" s="9" t="str">
-        <f>IF(NOT(ISBLANK(M9)),"No","")</f>
-        <v/>
-      </c>
-      <c r="AJ9" s="9" t="str">
-        <f>IF(NOT(ISBLANK(N9)),"No","")</f>
-        <v/>
-      </c>
-      <c r="AK9" s="9" t="str">
-        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
-        <v>No</v>
-      </c>
-      <c r="AL9" s="9" t="str">
-        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
-        <v>No</v>
-      </c>
-      <c r="AM9" s="9" t="str">
-        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
-        <v>No</v>
-      </c>
-      <c r="AN9" s="9" t="str">
+      <c r="P12" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>No</v>
+      </c>
+      <c r="Q12" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>No</v>
+      </c>
+      <c r="R12" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>No</v>
+      </c>
+      <c r="S12" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="T12" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="U12" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="V12" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="W12" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="X12" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="Y12" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="Z12" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AA12" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AB12" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AC12" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AD12" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AE12" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AF12" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AG12" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>No</v>
+      </c>
+      <c r="AH12" s="9" t="str">
+        <f t="shared" si="8"/>
+        <v>No</v>
+      </c>
+      <c r="AI12" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AJ12" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AK12" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AL12" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AM12" s="9" t="str">
         <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
         <v>No</v>
       </c>
     </row>
-    <row r="10" spans="2:40" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="49" t="s">
+    <row r="13" spans="1:39" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="37" t="s">
         <v>338</v>
       </c>
-      <c r="C10" s="52" t="s">
-        <v>213</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>211</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>210</v>
-      </c>
-      <c r="G10" s="16" t="s">
-        <v>209</v>
-      </c>
-      <c r="H10" s="16" t="s">
-        <v>208</v>
-      </c>
-      <c r="I10" s="16"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="M10" s="18" t="s">
-        <v>206</v>
-      </c>
-      <c r="N10" s="10"/>
-      <c r="O10" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="9" t="str">
-        <f>IF(NOT(ISBLANK(E10)),"No","")</f>
-        <v>No</v>
-      </c>
-      <c r="R10" s="9" t="str">
-        <f>IF(NOT(ISBLANK(F10)),"No","")</f>
-        <v>No</v>
-      </c>
-      <c r="S10" s="9" t="str">
-        <f>IF(NOT(ISBLANK(G10)),"No","")</f>
-        <v>No</v>
-      </c>
-      <c r="T10" s="9" t="str">
-        <f>IF(NOT(ISBLANK(H10)),"No","")</f>
-        <v>No</v>
-      </c>
-      <c r="U10" s="9" t="str">
-        <f>IF(NOT(ISBLANK(I10)),"No","")</f>
-        <v/>
-      </c>
-      <c r="V10" s="9" t="str">
-        <f>IF(NOT(ISBLANK(J10)),"No","")</f>
-        <v/>
-      </c>
-      <c r="W10" s="9" t="str">
-        <f>IF(NOT(ISBLANK(K10)),"No","")</f>
-        <v/>
-      </c>
-      <c r="X10" s="9" t="str">
-        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
-        <v>No</v>
-      </c>
-      <c r="Y10" s="9" t="str">
-        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
-        <v>No</v>
-      </c>
-      <c r="Z10" s="9" t="str">
-        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
-        <v>No</v>
-      </c>
-      <c r="AA10" s="9" t="str">
-        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
-        <v>No</v>
-      </c>
-      <c r="AB10" s="9" t="str">
-        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
-        <v>No</v>
-      </c>
-      <c r="AC10" s="9" t="str">
-        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
-        <v>No</v>
-      </c>
-      <c r="AD10" s="9" t="str">
-        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
-        <v>No</v>
-      </c>
-      <c r="AE10" s="9" t="str">
-        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
-        <v>No</v>
-      </c>
-      <c r="AF10" s="9" t="str">
-        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
-        <v>No</v>
-      </c>
-      <c r="AG10" s="9" t="str">
-        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
-        <v>No</v>
-      </c>
-      <c r="AH10" s="9" t="str">
-        <f>IF(NOT(ISBLANK(L10)),"No","")</f>
-        <v>No</v>
-      </c>
-      <c r="AI10" s="9" t="str">
-        <f>IF(NOT(ISBLANK(M10)),"No","")</f>
-        <v>No</v>
-      </c>
-      <c r="AJ10" s="9" t="str">
-        <f>IF(NOT(ISBLANK(N10)),"No","")</f>
-        <v/>
-      </c>
-      <c r="AK10" s="9" t="str">
-        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
-        <v>No</v>
-      </c>
-      <c r="AL10" s="9" t="str">
-        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
-        <v>No</v>
-      </c>
-      <c r="AM10" s="9" t="str">
-        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
-        <v>No</v>
-      </c>
-      <c r="AN10" s="9" t="str">
+      <c r="B13" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="H13" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="I13" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="J13" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="K13" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="L13" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="M13" s="10"/>
+      <c r="N13" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="O13" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="P13" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>No</v>
+      </c>
+      <c r="Q13" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>No</v>
+      </c>
+      <c r="R13" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>No</v>
+      </c>
+      <c r="S13" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>No</v>
+      </c>
+      <c r="T13" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>No</v>
+      </c>
+      <c r="U13" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>No</v>
+      </c>
+      <c r="V13" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v>No</v>
+      </c>
+      <c r="W13" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="X13" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="Y13" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="Z13" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AA13" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AB13" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AC13" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AD13" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AE13" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AF13" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AG13" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>No</v>
+      </c>
+      <c r="AH13" s="9" t="str">
+        <f t="shared" si="8"/>
+        <v>No</v>
+      </c>
+      <c r="AI13" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AJ13" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AK13" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AL13" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AM13" s="9" t="str">
         <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
         <v>No</v>
       </c>
     </row>
-    <row r="11" spans="2:40" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="53" t="s">
+    <row r="14" spans="1:39" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="37" t="s">
         <v>338</v>
       </c>
-      <c r="C11" s="56" t="s">
-        <v>201</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>199</v>
-      </c>
-      <c r="F11" s="16" t="s">
-        <v>198</v>
-      </c>
-      <c r="G11" s="16" t="s">
-        <v>197</v>
-      </c>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="18"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="P11" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q11" s="9" t="str">
-        <f>IF(NOT(ISBLANK(E11)),"No","")</f>
-        <v>No</v>
-      </c>
-      <c r="R11" s="9" t="str">
-        <f>IF(NOT(ISBLANK(F11)),"No","")</f>
-        <v>No</v>
-      </c>
-      <c r="S11" s="9" t="str">
-        <f>IF(NOT(ISBLANK(G11)),"No","")</f>
-        <v>No</v>
-      </c>
-      <c r="T11" s="9" t="str">
-        <f>IF(NOT(ISBLANK(H11)),"No","")</f>
-        <v/>
-      </c>
-      <c r="U11" s="9" t="str">
-        <f>IF(NOT(ISBLANK(I11)),"No","")</f>
-        <v/>
-      </c>
-      <c r="V11" s="9" t="str">
-        <f>IF(NOT(ISBLANK(J11)),"No","")</f>
-        <v/>
-      </c>
-      <c r="W11" s="9" t="str">
-        <f>IF(NOT(ISBLANK(K11)),"No","")</f>
-        <v/>
-      </c>
-      <c r="X11" s="9" t="str">
-        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
-        <v>No</v>
-      </c>
-      <c r="Y11" s="9" t="str">
-        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
-        <v>No</v>
-      </c>
-      <c r="Z11" s="9" t="str">
-        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
-        <v>No</v>
-      </c>
-      <c r="AA11" s="9" t="str">
-        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
-        <v>No</v>
-      </c>
-      <c r="AB11" s="9" t="str">
-        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
-        <v>No</v>
-      </c>
-      <c r="AC11" s="9" t="str">
-        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
-        <v>No</v>
-      </c>
-      <c r="AD11" s="9" t="str">
-        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
-        <v>No</v>
-      </c>
-      <c r="AE11" s="9" t="str">
-        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
-        <v>No</v>
-      </c>
-      <c r="AF11" s="9" t="str">
-        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
-        <v>No</v>
-      </c>
-      <c r="AG11" s="9" t="str">
-        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
-        <v>No</v>
-      </c>
-      <c r="AH11" s="9" t="str">
-        <f>IF(NOT(ISBLANK(L11)),"No","")</f>
-        <v/>
-      </c>
-      <c r="AI11" s="9" t="str">
-        <f>IF(NOT(ISBLANK(M11)),"No","")</f>
-        <v/>
-      </c>
-      <c r="AJ11" s="9" t="str">
-        <f>IF(NOT(ISBLANK(N11)),"No","")</f>
-        <v/>
-      </c>
-      <c r="AK11" s="9" t="str">
-        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
-        <v>No</v>
-      </c>
-      <c r="AL11" s="9" t="str">
-        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
-        <v>No</v>
-      </c>
-      <c r="AM11" s="9" t="str">
-        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
-        <v>No</v>
-      </c>
-      <c r="AN11" s="9" t="str">
+      <c r="B14" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="L14" s="18"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="O14" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="P14" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>No</v>
+      </c>
+      <c r="Q14" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>No</v>
+      </c>
+      <c r="R14" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>No</v>
+      </c>
+      <c r="S14" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="T14" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="U14" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="V14" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="W14" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="X14" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="Y14" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="Z14" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AA14" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AB14" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AC14" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AD14" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AE14" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AF14" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AG14" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>No</v>
+      </c>
+      <c r="AH14" s="9" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AI14" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AJ14" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AK14" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AL14" s="9" t="str">
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
+      </c>
+      <c r="AM14" s="9" t="str">
         <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
         <v>No</v>
       </c>
     </row>
-    <row r="12" spans="2:40" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="49" t="s">
-        <v>338</v>
-      </c>
-      <c r="C12" s="52" t="s">
-        <v>191</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>190</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>189</v>
-      </c>
-      <c r="F12" s="16" t="s">
-        <v>188</v>
-      </c>
-      <c r="G12" s="16" t="s">
-        <v>187</v>
-      </c>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="11" t="s">
-        <v>186</v>
-      </c>
-      <c r="M12" s="18" t="s">
-        <v>185</v>
-      </c>
-      <c r="N12" s="10"/>
-      <c r="O12" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="P12" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q12" s="9" t="str">
-        <f>IF(NOT(ISBLANK(E12)),"No","")</f>
-        <v>No</v>
-      </c>
-      <c r="R12" s="9" t="str">
-        <f>IF(NOT(ISBLANK(F12)),"No","")</f>
-        <v>No</v>
-      </c>
-      <c r="S12" s="9" t="str">
-        <f>IF(NOT(ISBLANK(G12)),"No","")</f>
-        <v>No</v>
-      </c>
-      <c r="T12" s="9" t="str">
-        <f>IF(NOT(ISBLANK(H12)),"No","")</f>
-        <v/>
-      </c>
-      <c r="U12" s="9" t="str">
-        <f>IF(NOT(ISBLANK(I12)),"No","")</f>
-        <v/>
-      </c>
-      <c r="V12" s="9" t="str">
-        <f>IF(NOT(ISBLANK(J12)),"No","")</f>
-        <v/>
-      </c>
-      <c r="W12" s="9" t="str">
-        <f>IF(NOT(ISBLANK(K12)),"No","")</f>
-        <v/>
-      </c>
-      <c r="X12" s="9" t="str">
-        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
-        <v>No</v>
-      </c>
-      <c r="Y12" s="9" t="str">
-        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
-        <v>No</v>
-      </c>
-      <c r="Z12" s="9" t="str">
-        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
-        <v>No</v>
-      </c>
-      <c r="AA12" s="9" t="str">
-        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
-        <v>No</v>
-      </c>
-      <c r="AB12" s="9" t="str">
-        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
-        <v>No</v>
-      </c>
-      <c r="AC12" s="9" t="str">
-        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
-        <v>No</v>
-      </c>
-      <c r="AD12" s="9" t="str">
-        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
-        <v>No</v>
-      </c>
-      <c r="AE12" s="9" t="str">
-        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
-        <v>No</v>
-      </c>
-      <c r="AF12" s="9" t="str">
-        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
-        <v>No</v>
-      </c>
-      <c r="AG12" s="9" t="str">
-        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
-        <v>No</v>
-      </c>
-      <c r="AH12" s="9" t="str">
-        <f>IF(NOT(ISBLANK(L12)),"No","")</f>
-        <v>No</v>
-      </c>
-      <c r="AI12" s="9" t="str">
-        <f>IF(NOT(ISBLANK(M12)),"No","")</f>
-        <v>No</v>
-      </c>
-      <c r="AJ12" s="9" t="str">
-        <f>IF(NOT(ISBLANK(N12)),"No","")</f>
-        <v/>
-      </c>
-      <c r="AK12" s="9" t="str">
-        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
-        <v>No</v>
-      </c>
-      <c r="AL12" s="9" t="str">
-        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
-        <v>No</v>
-      </c>
-      <c r="AM12" s="9" t="str">
-        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
-        <v>No</v>
-      </c>
-      <c r="AN12" s="9" t="str">
-        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
-        <v>No</v>
-      </c>
-    </row>
-    <row r="13" spans="2:40" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="37" t="s">
-        <v>338</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>176</v>
-      </c>
-      <c r="F13" s="16" t="s">
-        <v>175</v>
-      </c>
-      <c r="G13" s="16" t="s">
-        <v>174</v>
-      </c>
-      <c r="H13" s="16" t="s">
-        <v>173</v>
-      </c>
-      <c r="I13" s="16" t="s">
-        <v>172</v>
-      </c>
-      <c r="J13" s="14" t="s">
-        <v>171</v>
-      </c>
-      <c r="K13" s="14" t="s">
-        <v>170</v>
-      </c>
-      <c r="L13" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="M13" s="18" t="s">
-        <v>168</v>
-      </c>
-      <c r="N13" s="10"/>
-      <c r="O13" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="P13" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q13" s="9" t="str">
-        <f>IF(NOT(ISBLANK(E13)),"No","")</f>
-        <v>No</v>
-      </c>
-      <c r="R13" s="9" t="str">
-        <f>IF(NOT(ISBLANK(F13)),"No","")</f>
-        <v>No</v>
-      </c>
-      <c r="S13" s="9" t="str">
-        <f>IF(NOT(ISBLANK(G13)),"No","")</f>
-        <v>No</v>
-      </c>
-      <c r="T13" s="9" t="str">
-        <f>IF(NOT(ISBLANK(H13)),"No","")</f>
-        <v>No</v>
-      </c>
-      <c r="U13" s="9" t="str">
-        <f>IF(NOT(ISBLANK(I13)),"No","")</f>
-        <v>No</v>
-      </c>
-      <c r="V13" s="9" t="str">
-        <f>IF(NOT(ISBLANK(J13)),"No","")</f>
-        <v>No</v>
-      </c>
-      <c r="W13" s="9" t="str">
-        <f>IF(NOT(ISBLANK(K13)),"No","")</f>
-        <v>No</v>
-      </c>
-      <c r="X13" s="9" t="str">
-        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
-        <v>No</v>
-      </c>
-      <c r="Y13" s="9" t="str">
-        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
-        <v>No</v>
-      </c>
-      <c r="Z13" s="9" t="str">
-        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
-        <v>No</v>
-      </c>
-      <c r="AA13" s="9" t="str">
-        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
-        <v>No</v>
-      </c>
-      <c r="AB13" s="9" t="str">
-        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
-        <v>No</v>
-      </c>
-      <c r="AC13" s="9" t="str">
-        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
-        <v>No</v>
-      </c>
-      <c r="AD13" s="9" t="str">
-        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
-        <v>No</v>
-      </c>
-      <c r="AE13" s="9" t="str">
-        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
-        <v>No</v>
-      </c>
-      <c r="AF13" s="9" t="str">
-        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
-        <v>No</v>
-      </c>
-      <c r="AG13" s="9" t="str">
-        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
-        <v>No</v>
-      </c>
-      <c r="AH13" s="9" t="str">
-        <f>IF(NOT(ISBLANK(L13)),"No","")</f>
-        <v>No</v>
-      </c>
-      <c r="AI13" s="9" t="str">
-        <f>IF(NOT(ISBLANK(M13)),"No","")</f>
-        <v>No</v>
-      </c>
-      <c r="AJ13" s="9" t="str">
-        <f>IF(NOT(ISBLANK(N13)),"No","")</f>
-        <v/>
-      </c>
-      <c r="AK13" s="9" t="str">
-        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
-        <v>No</v>
-      </c>
-      <c r="AL13" s="9" t="str">
-        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
-        <v>No</v>
-      </c>
-      <c r="AM13" s="9" t="str">
-        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
-        <v>No</v>
-      </c>
-      <c r="AN13" s="9" t="str">
-        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
-        <v>No</v>
-      </c>
-    </row>
-    <row r="14" spans="2:40" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="37" t="s">
-        <v>338</v>
-      </c>
-      <c r="C14" s="15" t="s">
+    <row r="15" spans="1:39" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="37" t="s">
+        <v>339</v>
+      </c>
+      <c r="B15" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="D14" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="F14" s="16" t="s">
-        <v>160</v>
-      </c>
-      <c r="G14" s="16" t="s">
-        <v>159</v>
-      </c>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="M14" s="18"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="8" t="s">
-        <v>335</v>
-      </c>
-      <c r="P14" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q14" s="9" t="str">
-        <f>IF(NOT(ISBLANK(E14)),"No","")</f>
-        <v>No</v>
-      </c>
-      <c r="R14" s="9" t="str">
-        <f>IF(NOT(ISBLANK(F14)),"No","")</f>
-        <v>No</v>
-      </c>
-      <c r="S14" s="9" t="str">
-        <f>IF(NOT(ISBLANK(G14)),"No","")</f>
-        <v>No</v>
-      </c>
-      <c r="T14" s="9" t="str">
-        <f>IF(NOT(ISBLANK(H14)),"No","")</f>
-        <v/>
-      </c>
-      <c r="U14" s="9" t="str">
-        <f>IF(NOT(ISBLANK(I14)),"No","")</f>
-        <v/>
-      </c>
-      <c r="V14" s="9" t="str">
-        <f>IF(NOT(ISBLANK(J14)),"No","")</f>
-        <v/>
-      </c>
-      <c r="W14" s="9" t="str">
-        <f>IF(NOT(ISBLANK(K14)),"No","")</f>
-        <v/>
-      </c>
-      <c r="X14" s="9" t="str">
-        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
-        <v>No</v>
-      </c>
-      <c r="Y14" s="9" t="str">
-        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
-        <v>No</v>
-      </c>
-      <c r="Z14" s="9" t="str">
-        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
-        <v>No</v>
-      </c>
-      <c r="AA14" s="9" t="str">
-        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
-        <v>No</v>
-      </c>
-      <c r="AB14" s="9" t="str">
-        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
-        <v>No</v>
-      </c>
-      <c r="AC14" s="9" t="str">
-        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
-        <v>No</v>
-      </c>
-      <c r="AD14" s="9" t="str">
-        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
-        <v>No</v>
-      </c>
-      <c r="AE14" s="9" t="str">
-        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
-        <v>No</v>
-      </c>
-      <c r="AF14" s="9" t="str">
-        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
-        <v>No</v>
-      </c>
-      <c r="AG14" s="9" t="str">
-        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
-        <v>No</v>
-      </c>
-      <c r="AH14" s="9" t="str">
-        <f>IF(NOT(ISBLANK(L14)),"No","")</f>
-        <v>No</v>
-      </c>
-      <c r="AI14" s="9" t="str">
-        <f>IF(NOT(ISBLANK(M14)),"No","")</f>
-        <v/>
-      </c>
-      <c r="AJ14" s="9" t="str">
-        <f>IF(NOT(ISBLANK(N14)),"No","")</f>
-        <v/>
-      </c>
-      <c r="AK14" s="9" t="str">
-        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
-        <v>No</v>
-      </c>
-      <c r="AL14" s="9" t="str">
-        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
-        <v>No</v>
-      </c>
-      <c r="AM14" s="9" t="str">
-        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
-        <v>No</v>
-      </c>
-      <c r="AN14" s="9" t="str">
-        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
-        <v>No</v>
-      </c>
-    </row>
-    <row r="15" spans="2:40" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="37" t="s">
-        <v>339</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="D15" s="11" t="s">
+      <c r="C15" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="E15" s="14" t="s">
+      <c r="D15" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="F15" s="16" t="s">
+      <c r="E15" s="16" t="s">
         <v>150</v>
       </c>
+      <c r="F15" s="16"/>
       <c r="G15" s="16"/>
       <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
+      <c r="I15" s="14"/>
       <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="11" t="s">
+      <c r="K15" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="M15" s="18"/>
-      <c r="N15" s="10"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="8" t="s">
+        <v>148</v>
+      </c>
       <c r="O15" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="P15" s="8" t="s">
         <v>147</v>
       </c>
+      <c r="P15" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>No</v>
+      </c>
       <c r="Q15" s="9" t="str">
-        <f>IF(NOT(ISBLANK(E15)),"No","")</f>
+        <f t="shared" si="1"/>
         <v>No</v>
       </c>
       <c r="R15" s="9" t="str">
-        <f>IF(NOT(ISBLANK(F15)),"No","")</f>
-        <v>No</v>
+        <f t="shared" si="2"/>
+        <v/>
       </c>
       <c r="S15" s="9" t="str">
-        <f>IF(NOT(ISBLANK(G15)),"No","")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="T15" s="9" t="str">
-        <f>IF(NOT(ISBLANK(H15)),"No","")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="U15" s="9" t="str">
-        <f>IF(NOT(ISBLANK(I15)),"No","")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="V15" s="9" t="str">
-        <f>IF(NOT(ISBLANK(J15)),"No","")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="W15" s="9" t="str">
-        <f>IF(NOT(ISBLANK(K15)),"No","")</f>
-        <v/>
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
       </c>
       <c r="X15" s="9" t="str">
         <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
@@ -9409,20 +9513,20 @@
         <v>No</v>
       </c>
       <c r="AG15" s="9" t="str">
-        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <f t="shared" si="7"/>
         <v>No</v>
       </c>
       <c r="AH15" s="9" t="str">
-        <f>IF(NOT(ISBLANK(L15)),"No","")</f>
-        <v>No</v>
+        <f t="shared" si="8"/>
+        <v/>
       </c>
       <c r="AI15" s="9" t="str">
-        <f>IF(NOT(ISBLANK(M15)),"No","")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AJ15" s="9" t="str">
-        <f>IF(NOT(ISBLANK(N15)),"No","")</f>
-        <v/>
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
       </c>
       <c r="AK15" s="9" t="str">
         <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
@@ -9436,68 +9540,68 @@
         <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
         <v>No</v>
       </c>
-      <c r="AN15" s="9" t="str">
-        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
-        <v>No</v>
-      </c>
     </row>
-    <row r="16" spans="2:40" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="37" t="s">
+    <row r="16" spans="1:39" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="37" t="s">
         <v>339</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="B16" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="C16" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="E16" s="14" t="s">
+      <c r="D16" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="F16" s="16" t="s">
+      <c r="E16" s="16" t="s">
         <v>140</v>
       </c>
+      <c r="F16" s="16"/>
       <c r="G16" s="16"/>
       <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
+      <c r="I16" s="14"/>
       <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="18"/>
-      <c r="N16" s="10"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="8" t="s">
+        <v>139</v>
+      </c>
       <c r="O16" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="P16" s="8" t="s">
         <v>138</v>
       </c>
+      <c r="P16" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>No</v>
+      </c>
       <c r="Q16" s="9" t="str">
-        <f>IF(NOT(ISBLANK(E16)),"No","")</f>
+        <f t="shared" si="1"/>
         <v>No</v>
       </c>
       <c r="R16" s="9" t="str">
-        <f>IF(NOT(ISBLANK(F16)),"No","")</f>
-        <v>No</v>
+        <f t="shared" si="2"/>
+        <v/>
       </c>
       <c r="S16" s="9" t="str">
-        <f>IF(NOT(ISBLANK(G16)),"No","")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="T16" s="9" t="str">
-        <f>IF(NOT(ISBLANK(H16)),"No","")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="U16" s="9" t="str">
-        <f>IF(NOT(ISBLANK(I16)),"No","")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="V16" s="9" t="str">
-        <f>IF(NOT(ISBLANK(J16)),"No","")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="W16" s="9" t="str">
-        <f>IF(NOT(ISBLANK(K16)),"No","")</f>
-        <v/>
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
       </c>
       <c r="X16" s="9" t="str">
         <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
@@ -9536,20 +9640,20 @@
         <v>No</v>
       </c>
       <c r="AG16" s="9" t="str">
-        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
-        <v>No</v>
+        <f t="shared" si="7"/>
+        <v/>
       </c>
       <c r="AH16" s="9" t="str">
-        <f>IF(NOT(ISBLANK(L16)),"No","")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AI16" s="9" t="str">
-        <f>IF(NOT(ISBLANK(M16)),"No","")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AJ16" s="9" t="str">
-        <f>IF(NOT(ISBLANK(N16)),"No","")</f>
-        <v/>
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
       </c>
       <c r="AK16" s="9" t="str">
         <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
@@ -9563,83 +9667,83 @@
         <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
         <v>No</v>
       </c>
-      <c r="AN16" s="9" t="str">
-        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
-        <v>No</v>
-      </c>
     </row>
-    <row r="17" spans="2:40" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="37" t="s">
+    <row r="17" spans="1:39" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="37" t="s">
         <v>339</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="B17" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="C17" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="E17" s="14" t="s">
+      <c r="D17" s="14" t="s">
         <v>134</v>
       </c>
+      <c r="E17" s="16" t="s">
+        <v>133</v>
+      </c>
       <c r="F17" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G17" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H17" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="I17" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="J17" s="11" t="s">
+      <c r="I17" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="K17" s="14" t="s">
+      <c r="J17" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="L17" s="11" t="s">
+      <c r="K17" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="M17" s="18" t="s">
+      <c r="L17" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="N17" s="11" t="s">
+      <c r="M17" s="11" t="s">
         <v>125</v>
       </c>
+      <c r="N17" s="8" t="s">
+        <v>124</v>
+      </c>
       <c r="O17" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="P17" s="8" t="s">
         <v>93</v>
       </c>
+      <c r="P17" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>No</v>
+      </c>
       <c r="Q17" s="9" t="str">
-        <f>IF(NOT(ISBLANK(E17)),"No","")</f>
+        <f t="shared" si="1"/>
         <v>No</v>
       </c>
       <c r="R17" s="9" t="str">
-        <f>IF(NOT(ISBLANK(F17)),"No","")</f>
+        <f t="shared" si="2"/>
         <v>No</v>
       </c>
       <c r="S17" s="9" t="str">
-        <f>IF(NOT(ISBLANK(G17)),"No","")</f>
+        <f t="shared" si="3"/>
         <v>No</v>
       </c>
       <c r="T17" s="9" t="str">
-        <f>IF(NOT(ISBLANK(H17)),"No","")</f>
+        <f t="shared" si="4"/>
         <v>No</v>
       </c>
       <c r="U17" s="9" t="str">
-        <f>IF(NOT(ISBLANK(I17)),"No","")</f>
+        <f t="shared" si="5"/>
         <v>No</v>
       </c>
       <c r="V17" s="9" t="str">
-        <f>IF(NOT(ISBLANK(J17)),"No","")</f>
+        <f t="shared" si="6"/>
         <v>No</v>
       </c>
       <c r="W17" s="9" t="str">
-        <f>IF(NOT(ISBLANK(K17)),"No","")</f>
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
         <v>No</v>
       </c>
       <c r="X17" s="9" t="str">
@@ -9679,19 +9783,19 @@
         <v>No</v>
       </c>
       <c r="AG17" s="9" t="str">
-        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <f t="shared" si="7"/>
         <v>No</v>
       </c>
       <c r="AH17" s="9" t="str">
-        <f>IF(NOT(ISBLANK(L17)),"No","")</f>
+        <f t="shared" si="8"/>
         <v>No</v>
       </c>
       <c r="AI17" s="9" t="str">
-        <f>IF(NOT(ISBLANK(M17)),"No","")</f>
+        <f t="shared" si="9"/>
         <v>No</v>
       </c>
       <c r="AJ17" s="9" t="str">
-        <f>IF(NOT(ISBLANK(N17)),"No","")</f>
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
         <v>No</v>
       </c>
       <c r="AK17" s="9" t="str">
@@ -9706,76 +9810,76 @@
         <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
         <v>No</v>
       </c>
-      <c r="AN17" s="9" t="str">
-        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
-        <v>No</v>
-      </c>
     </row>
-    <row r="18" spans="2:40" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="37" t="s">
+    <row r="18" spans="1:39" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="37" t="s">
         <v>339</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="B18" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="C18" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="E18" s="14" t="s">
+      <c r="D18" s="14" t="s">
         <v>119</v>
       </c>
+      <c r="E18" s="16" t="s">
+        <v>118</v>
+      </c>
       <c r="F18" s="16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G18" s="16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H18" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="I18" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="J18" s="11"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="11" t="s">
+      <c r="I18" s="11"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="M18" s="18"/>
-      <c r="N18" s="10"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="8" t="s">
+        <v>113</v>
+      </c>
       <c r="O18" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="P18" s="8" t="s">
         <v>93</v>
       </c>
+      <c r="P18" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>No</v>
+      </c>
       <c r="Q18" s="9" t="str">
-        <f>IF(NOT(ISBLANK(E18)),"No","")</f>
+        <f t="shared" si="1"/>
         <v>No</v>
       </c>
       <c r="R18" s="9" t="str">
-        <f>IF(NOT(ISBLANK(F18)),"No","")</f>
+        <f t="shared" si="2"/>
         <v>No</v>
       </c>
       <c r="S18" s="9" t="str">
-        <f>IF(NOT(ISBLANK(G18)),"No","")</f>
+        <f t="shared" si="3"/>
         <v>No</v>
       </c>
       <c r="T18" s="9" t="str">
-        <f>IF(NOT(ISBLANK(H18)),"No","")</f>
+        <f t="shared" si="4"/>
         <v>No</v>
       </c>
       <c r="U18" s="9" t="str">
-        <f>IF(NOT(ISBLANK(I18)),"No","")</f>
-        <v>No</v>
+        <f t="shared" si="5"/>
+        <v/>
       </c>
       <c r="V18" s="9" t="str">
-        <f>IF(NOT(ISBLANK(J18)),"No","")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="W18" s="9" t="str">
-        <f>IF(NOT(ISBLANK(K18)),"No","")</f>
-        <v/>
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
       </c>
       <c r="X18" s="9" t="str">
         <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
@@ -9814,20 +9918,20 @@
         <v>No</v>
       </c>
       <c r="AG18" s="9" t="str">
-        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <f t="shared" si="7"/>
         <v>No</v>
       </c>
       <c r="AH18" s="9" t="str">
-        <f>IF(NOT(ISBLANK(L18)),"No","")</f>
-        <v>No</v>
+        <f t="shared" si="8"/>
+        <v/>
       </c>
       <c r="AI18" s="9" t="str">
-        <f>IF(NOT(ISBLANK(M18)),"No","")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AJ18" s="9" t="str">
-        <f>IF(NOT(ISBLANK(N18)),"No","")</f>
-        <v/>
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
       </c>
       <c r="AK18" s="9" t="str">
         <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
@@ -9841,72 +9945,72 @@
         <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
         <v>No</v>
       </c>
-      <c r="AN18" s="9" t="str">
-        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
-        <v>No</v>
-      </c>
     </row>
-    <row r="19" spans="2:40" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="37" t="s">
+    <row r="19" spans="1:39" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="37" t="s">
         <v>340</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="B19" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="C19" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="E19" s="14" t="s">
+      <c r="D19" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="F19" s="16" t="s">
+      <c r="E19" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="G19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="16"/>
       <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
+      <c r="I19" s="14"/>
       <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="11" t="s">
+      <c r="K19" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="M19" s="18" t="s">
+      <c r="L19" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="N19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="8" t="s">
+        <v>103</v>
+      </c>
       <c r="O19" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="P19" s="8" t="s">
         <v>102</v>
       </c>
+      <c r="P19" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>No</v>
+      </c>
       <c r="Q19" s="9" t="str">
-        <f>IF(NOT(ISBLANK(E19)),"No","")</f>
+        <f t="shared" si="1"/>
         <v>No</v>
       </c>
       <c r="R19" s="9" t="str">
-        <f>IF(NOT(ISBLANK(F19)),"No","")</f>
-        <v>No</v>
+        <f t="shared" si="2"/>
+        <v/>
       </c>
       <c r="S19" s="9" t="str">
-        <f>IF(NOT(ISBLANK(G19)),"No","")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="T19" s="9" t="str">
-        <f>IF(NOT(ISBLANK(H19)),"No","")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="U19" s="9" t="str">
-        <f>IF(NOT(ISBLANK(I19)),"No","")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="V19" s="9" t="str">
-        <f>IF(NOT(ISBLANK(J19)),"No","")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="W19" s="9" t="str">
-        <f>IF(NOT(ISBLANK(K19)),"No","")</f>
-        <v/>
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
       </c>
       <c r="X19" s="9" t="str">
         <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
@@ -9945,20 +10049,20 @@
         <v>No</v>
       </c>
       <c r="AG19" s="9" t="str">
-        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <f t="shared" si="7"/>
         <v>No</v>
       </c>
       <c r="AH19" s="9" t="str">
-        <f>IF(NOT(ISBLANK(L19)),"No","")</f>
+        <f t="shared" si="8"/>
         <v>No</v>
       </c>
       <c r="AI19" s="9" t="str">
-        <f>IF(NOT(ISBLANK(M19)),"No","")</f>
-        <v>No</v>
+        <f t="shared" si="9"/>
+        <v/>
       </c>
       <c r="AJ19" s="9" t="str">
-        <f>IF(NOT(ISBLANK(N19)),"No","")</f>
-        <v/>
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
       </c>
       <c r="AK19" s="9" t="str">
         <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
@@ -9972,70 +10076,70 @@
         <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
         <v>No</v>
       </c>
-      <c r="AN19" s="9" t="str">
-        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
-        <v>No</v>
-      </c>
     </row>
-    <row r="20" spans="2:40" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="37" t="s">
+    <row r="20" spans="1:39" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="37" t="s">
         <v>340</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="B20" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="C20" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="E20" s="14" t="s">
+      <c r="D20" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="F20" s="16" t="s">
+      <c r="E20" s="16" t="s">
         <v>96</v>
       </c>
+      <c r="F20" s="16"/>
       <c r="G20" s="16"/>
       <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
+      <c r="I20" s="14"/>
       <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="11" t="s">
+      <c r="K20" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="M20" s="18"/>
-      <c r="N20" s="10"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="8" t="s">
+        <v>94</v>
+      </c>
       <c r="O20" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="P20" s="8" t="s">
         <v>93</v>
       </c>
+      <c r="P20" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>No</v>
+      </c>
       <c r="Q20" s="9" t="str">
-        <f>IF(NOT(ISBLANK(E20)),"No","")</f>
+        <f t="shared" si="1"/>
         <v>No</v>
       </c>
       <c r="R20" s="9" t="str">
-        <f>IF(NOT(ISBLANK(F20)),"No","")</f>
-        <v>No</v>
+        <f t="shared" si="2"/>
+        <v/>
       </c>
       <c r="S20" s="9" t="str">
-        <f>IF(NOT(ISBLANK(G20)),"No","")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="T20" s="9" t="str">
-        <f>IF(NOT(ISBLANK(H20)),"No","")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="U20" s="9" t="str">
-        <f>IF(NOT(ISBLANK(I20)),"No","")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="V20" s="9" t="str">
-        <f>IF(NOT(ISBLANK(J20)),"No","")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="W20" s="9" t="str">
-        <f>IF(NOT(ISBLANK(K20)),"No","")</f>
-        <v/>
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
       </c>
       <c r="X20" s="9" t="str">
         <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
@@ -10074,20 +10178,20 @@
         <v>No</v>
       </c>
       <c r="AG20" s="9" t="str">
-        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <f t="shared" si="7"/>
         <v>No</v>
       </c>
       <c r="AH20" s="9" t="str">
-        <f>IF(NOT(ISBLANK(L20)),"No","")</f>
-        <v>No</v>
+        <f t="shared" si="8"/>
+        <v/>
       </c>
       <c r="AI20" s="9" t="str">
-        <f>IF(NOT(ISBLANK(M20)),"No","")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AJ20" s="9" t="str">
-        <f>IF(NOT(ISBLANK(N20)),"No","")</f>
-        <v/>
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
       </c>
       <c r="AK20" s="9" t="str">
         <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
@@ -10101,68 +10205,68 @@
         <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
         <v>No</v>
       </c>
-      <c r="AN20" s="9" t="str">
-        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
-        <v>No</v>
-      </c>
     </row>
-    <row r="21" spans="2:40" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="37" t="s">
+    <row r="21" spans="1:39" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="37" t="s">
         <v>341</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="B21" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="C21" s="11" t="s">
         <v>79</v>
       </c>
+      <c r="D21" s="14" t="s">
+        <v>78</v>
+      </c>
       <c r="E21" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="F21" s="14" t="s">
         <v>77</v>
       </c>
+      <c r="F21" s="14"/>
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
       <c r="I21" s="14"/>
       <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
+      <c r="K21" s="11"/>
       <c r="L21" s="11"/>
-      <c r="M21" s="11"/>
-      <c r="N21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="8" t="s">
+        <v>76</v>
+      </c>
       <c r="O21" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="P21" s="8" t="s">
         <v>12</v>
       </c>
+      <c r="P21" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>No</v>
+      </c>
       <c r="Q21" s="9" t="str">
-        <f>IF(NOT(ISBLANK(E21)),"No","")</f>
+        <f t="shared" si="1"/>
         <v>No</v>
       </c>
       <c r="R21" s="9" t="str">
-        <f>IF(NOT(ISBLANK(F21)),"No","")</f>
-        <v>No</v>
+        <f t="shared" si="2"/>
+        <v/>
       </c>
       <c r="S21" s="9" t="str">
-        <f>IF(NOT(ISBLANK(G21)),"No","")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="T21" s="9" t="str">
-        <f>IF(NOT(ISBLANK(H21)),"No","")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="U21" s="9" t="str">
-        <f>IF(NOT(ISBLANK(I21)),"No","")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="V21" s="9" t="str">
-        <f>IF(NOT(ISBLANK(J21)),"No","")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="W21" s="9" t="str">
-        <f>IF(NOT(ISBLANK(K21)),"No","")</f>
-        <v/>
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
       </c>
       <c r="X21" s="9" t="str">
         <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
@@ -10201,20 +10305,20 @@
         <v>No</v>
       </c>
       <c r="AG21" s="9" t="str">
-        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
-        <v>No</v>
+        <f t="shared" si="7"/>
+        <v/>
       </c>
       <c r="AH21" s="9" t="str">
-        <f>IF(NOT(ISBLANK(L21)),"No","")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AI21" s="9" t="str">
-        <f>IF(NOT(ISBLANK(M21)),"No","")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AJ21" s="9" t="str">
-        <f>IF(NOT(ISBLANK(N21)),"No","")</f>
-        <v/>
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
       </c>
       <c r="AK21" s="9" t="str">
         <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
@@ -10228,78 +10332,78 @@
         <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
         <v>No</v>
       </c>
-      <c r="AN21" s="9" t="str">
-        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
-        <v>No</v>
-      </c>
     </row>
-    <row r="22" spans="2:40" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="37" t="s">
+    <row r="22" spans="1:39" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="37" t="s">
         <v>341</v>
       </c>
-      <c r="C22" s="15" t="s">
+      <c r="B22" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="D22" s="11" t="s">
+      <c r="C22" s="11" t="s">
         <v>60</v>
       </c>
+      <c r="D22" s="14" t="s">
+        <v>59</v>
+      </c>
       <c r="E22" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F22" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G22" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H22" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="I22" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="J22" s="11"/>
-      <c r="K22" s="16"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="11" t="s">
+        <v>54</v>
+      </c>
       <c r="L22" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="M22" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="N22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="8" t="s">
+        <v>52</v>
+      </c>
       <c r="O22" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="P22" s="8" t="s">
         <v>51</v>
       </c>
+      <c r="P22" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>No</v>
+      </c>
       <c r="Q22" s="9" t="str">
-        <f>IF(NOT(ISBLANK(E22)),"No","")</f>
+        <f t="shared" si="1"/>
         <v>No</v>
       </c>
       <c r="R22" s="9" t="str">
-        <f>IF(NOT(ISBLANK(F22)),"No","")</f>
+        <f t="shared" si="2"/>
         <v>No</v>
       </c>
       <c r="S22" s="9" t="str">
-        <f>IF(NOT(ISBLANK(G22)),"No","")</f>
+        <f t="shared" si="3"/>
         <v>No</v>
       </c>
       <c r="T22" s="9" t="str">
-        <f>IF(NOT(ISBLANK(H22)),"No","")</f>
+        <f t="shared" si="4"/>
         <v>No</v>
       </c>
       <c r="U22" s="9" t="str">
-        <f>IF(NOT(ISBLANK(I22)),"No","")</f>
-        <v>No</v>
+        <f t="shared" si="5"/>
+        <v/>
       </c>
       <c r="V22" s="9" t="str">
-        <f>IF(NOT(ISBLANK(J22)),"No","")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="W22" s="9" t="str">
-        <f>IF(NOT(ISBLANK(K22)),"No","")</f>
-        <v/>
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
       </c>
       <c r="X22" s="9" t="str">
         <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
@@ -10338,20 +10442,20 @@
         <v>No</v>
       </c>
       <c r="AG22" s="9" t="str">
-        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <f t="shared" si="7"/>
         <v>No</v>
       </c>
       <c r="AH22" s="9" t="str">
-        <f>IF(NOT(ISBLANK(L22)),"No","")</f>
+        <f t="shared" si="8"/>
         <v>No</v>
       </c>
       <c r="AI22" s="9" t="str">
-        <f>IF(NOT(ISBLANK(M22)),"No","")</f>
-        <v>No</v>
+        <f t="shared" si="9"/>
+        <v/>
       </c>
       <c r="AJ22" s="9" t="str">
-        <f>IF(NOT(ISBLANK(N22)),"No","")</f>
-        <v/>
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
       </c>
       <c r="AK22" s="9" t="str">
         <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
@@ -10365,70 +10469,70 @@
         <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
         <v>No</v>
       </c>
-      <c r="AN22" s="9" t="str">
-        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
-        <v>No</v>
-      </c>
     </row>
-    <row r="23" spans="2:40" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="12" t="s">
+    <row r="23" spans="1:39" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="12" t="s">
         <v>342</v>
       </c>
-      <c r="C23" s="15" t="s">
+      <c r="B23" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="D23" s="11" t="s">
+      <c r="C23" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="E23" s="14" t="s">
+      <c r="D23" s="14" t="s">
         <v>45</v>
       </c>
+      <c r="E23" s="14"/>
       <c r="F23" s="14"/>
       <c r="G23" s="14"/>
       <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
+      <c r="I23" s="11"/>
       <c r="J23" s="11"/>
-      <c r="K23" s="11"/>
+      <c r="K23" s="11" t="s">
+        <v>44</v>
+      </c>
       <c r="L23" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="M23" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="N23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="8" t="s">
+        <v>42</v>
+      </c>
       <c r="O23" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="P23" s="8" t="s">
         <v>41</v>
       </c>
+      <c r="P23" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>No</v>
+      </c>
       <c r="Q23" s="9" t="str">
-        <f>IF(NOT(ISBLANK(E23)),"No","")</f>
-        <v>No</v>
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="R23" s="9" t="str">
-        <f>IF(NOT(ISBLANK(F23)),"No","")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="S23" s="9" t="str">
-        <f>IF(NOT(ISBLANK(G23)),"No","")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="T23" s="9" t="str">
-        <f>IF(NOT(ISBLANK(H23)),"No","")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="U23" s="9" t="str">
-        <f>IF(NOT(ISBLANK(I23)),"No","")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="V23" s="9" t="str">
-        <f>IF(NOT(ISBLANK(J23)),"No","")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="W23" s="9" t="str">
-        <f>IF(NOT(ISBLANK(K23)),"No","")</f>
-        <v/>
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
       </c>
       <c r="X23" s="9" t="str">
         <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
@@ -10467,20 +10571,20 @@
         <v>No</v>
       </c>
       <c r="AG23" s="9" t="str">
-        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <f t="shared" si="7"/>
         <v>No</v>
       </c>
       <c r="AH23" s="9" t="str">
-        <f>IF(NOT(ISBLANK(L23)),"No","")</f>
+        <f t="shared" si="8"/>
         <v>No</v>
       </c>
       <c r="AI23" s="9" t="str">
-        <f>IF(NOT(ISBLANK(M23)),"No","")</f>
-        <v>No</v>
+        <f t="shared" si="9"/>
+        <v/>
       </c>
       <c r="AJ23" s="9" t="str">
-        <f>IF(NOT(ISBLANK(N23)),"No","")</f>
-        <v/>
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
       </c>
       <c r="AK23" s="9" t="str">
         <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
@@ -10494,66 +10598,66 @@
         <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
         <v>No</v>
       </c>
-      <c r="AN23" s="9" t="str">
-        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
-        <v>No</v>
-      </c>
     </row>
-    <row r="24" spans="2:40" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="12" t="s">
+    <row r="24" spans="1:39" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="12" t="s">
         <v>342</v>
       </c>
-      <c r="C24" s="15" t="s">
+      <c r="B24" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D24" s="11" t="s">
+      <c r="C24" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E24" s="14" t="s">
+      <c r="D24" s="14" t="s">
         <v>23</v>
       </c>
+      <c r="E24" s="14"/>
       <c r="F24" s="14"/>
       <c r="G24" s="14"/>
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
       <c r="J24" s="14"/>
-      <c r="K24" s="14"/>
+      <c r="K24" s="11"/>
       <c r="L24" s="11"/>
-      <c r="M24" s="11"/>
-      <c r="N24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="O24" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="P24" s="8" t="s">
         <v>21</v>
       </c>
+      <c r="P24" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>No</v>
+      </c>
       <c r="Q24" s="9" t="str">
-        <f>IF(NOT(ISBLANK(E24)),"No","")</f>
-        <v>No</v>
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="R24" s="9" t="str">
-        <f>IF(NOT(ISBLANK(F24)),"No","")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="S24" s="9" t="str">
-        <f>IF(NOT(ISBLANK(G24)),"No","")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="T24" s="9" t="str">
-        <f>IF(NOT(ISBLANK(H24)),"No","")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="U24" s="9" t="str">
-        <f>IF(NOT(ISBLANK(I24)),"No","")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="V24" s="9" t="str">
-        <f>IF(NOT(ISBLANK(J24)),"No","")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="W24" s="9" t="str">
-        <f>IF(NOT(ISBLANK(K24)),"No","")</f>
-        <v/>
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
       </c>
       <c r="X24" s="9" t="str">
         <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
@@ -10592,20 +10696,20 @@
         <v>No</v>
       </c>
       <c r="AG24" s="9" t="str">
-        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
-        <v>No</v>
+        <f t="shared" si="7"/>
+        <v/>
       </c>
       <c r="AH24" s="9" t="str">
-        <f>IF(NOT(ISBLANK(L24)),"No","")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AI24" s="9" t="str">
-        <f>IF(NOT(ISBLANK(M24)),"No","")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AJ24" s="9" t="str">
-        <f>IF(NOT(ISBLANK(N24)),"No","")</f>
-        <v/>
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
       </c>
       <c r="AK24" s="9" t="str">
         <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
@@ -10619,70 +10723,70 @@
         <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
         <v>No</v>
       </c>
-      <c r="AN24" s="9" t="str">
-        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
-        <v>No</v>
-      </c>
     </row>
-    <row r="25" spans="2:40" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="12" t="s">
+    <row r="25" spans="1:39" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="12" t="s">
         <v>343</v>
       </c>
-      <c r="C25" s="15" t="s">
+      <c r="B25" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D25" s="11" t="s">
+      <c r="C25" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E25" s="14" t="s">
+      <c r="D25" s="14" t="s">
         <v>16</v>
       </c>
+      <c r="E25" s="14"/>
       <c r="F25" s="14"/>
       <c r="G25" s="14"/>
       <c r="H25" s="14"/>
       <c r="I25" s="14"/>
       <c r="J25" s="14"/>
-      <c r="K25" s="14"/>
+      <c r="K25" s="11" t="s">
+        <v>15</v>
+      </c>
       <c r="L25" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="M25" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="N25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="O25" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="P25" s="8" t="s">
         <v>12</v>
       </c>
+      <c r="P25" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>No</v>
+      </c>
       <c r="Q25" s="9" t="str">
-        <f>IF(NOT(ISBLANK(E25)),"No","")</f>
-        <v>No</v>
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="R25" s="9" t="str">
-        <f>IF(NOT(ISBLANK(F25)),"No","")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="S25" s="9" t="str">
-        <f>IF(NOT(ISBLANK(G25)),"No","")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="T25" s="9" t="str">
-        <f>IF(NOT(ISBLANK(H25)),"No","")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="U25" s="9" t="str">
-        <f>IF(NOT(ISBLANK(I25)),"No","")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="V25" s="9" t="str">
-        <f>IF(NOT(ISBLANK(J25)),"No","")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="W25" s="9" t="str">
-        <f>IF(NOT(ISBLANK(K25)),"No","")</f>
-        <v/>
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
       </c>
       <c r="X25" s="9" t="str">
         <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
@@ -10721,20 +10825,20 @@
         <v>No</v>
       </c>
       <c r="AG25" s="9" t="str">
-        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <f t="shared" si="7"/>
         <v>No</v>
       </c>
       <c r="AH25" s="9" t="str">
-        <f>IF(NOT(ISBLANK(L25)),"No","")</f>
+        <f t="shared" si="8"/>
         <v>No</v>
       </c>
       <c r="AI25" s="9" t="str">
-        <f>IF(NOT(ISBLANK(M25)),"No","")</f>
-        <v>No</v>
+        <f t="shared" si="9"/>
+        <v/>
       </c>
       <c r="AJ25" s="9" t="str">
-        <f>IF(NOT(ISBLANK(N25)),"No","")</f>
-        <v/>
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
       </c>
       <c r="AK25" s="9" t="str">
         <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
@@ -10748,70 +10852,70 @@
         <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
         <v>No</v>
       </c>
-      <c r="AN25" s="9" t="str">
-        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
-        <v>No</v>
-      </c>
     </row>
-    <row r="26" spans="2:40" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="12" t="s">
+    <row r="26" spans="1:39" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="12" t="s">
         <v>343</v>
       </c>
-      <c r="C26" s="15" t="s">
+      <c r="B26" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D26" s="11" t="s">
+      <c r="C26" s="11" t="s">
         <v>6</v>
       </c>
+      <c r="D26" s="14" t="s">
+        <v>5</v>
+      </c>
       <c r="E26" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="F26" s="14" t="s">
         <v>4</v>
       </c>
+      <c r="F26" s="14"/>
       <c r="G26" s="14"/>
       <c r="H26" s="14"/>
       <c r="I26" s="14"/>
       <c r="J26" s="14"/>
-      <c r="K26" s="14"/>
-      <c r="L26" s="11" t="s">
+      <c r="K26" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="M26" s="11"/>
-      <c r="N26" s="10"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="8" t="s">
+        <v>1</v>
+      </c>
       <c r="O26" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="P26" s="8" t="s">
         <v>0</v>
       </c>
+      <c r="P26" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>No</v>
+      </c>
       <c r="Q26" s="9" t="str">
-        <f>IF(NOT(ISBLANK(E26)),"No","")</f>
+        <f t="shared" si="1"/>
         <v>No</v>
       </c>
       <c r="R26" s="9" t="str">
-        <f>IF(NOT(ISBLANK(F26)),"No","")</f>
-        <v>No</v>
+        <f t="shared" si="2"/>
+        <v/>
       </c>
       <c r="S26" s="9" t="str">
-        <f>IF(NOT(ISBLANK(G26)),"No","")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="T26" s="9" t="str">
-        <f>IF(NOT(ISBLANK(H26)),"No","")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="U26" s="9" t="str">
-        <f>IF(NOT(ISBLANK(I26)),"No","")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="V26" s="9" t="str">
-        <f>IF(NOT(ISBLANK(J26)),"No","")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="W26" s="9" t="str">
-        <f>IF(NOT(ISBLANK(K26)),"No","")</f>
-        <v/>
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
       </c>
       <c r="X26" s="9" t="str">
         <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
@@ -10850,20 +10954,20 @@
         <v>No</v>
       </c>
       <c r="AG26" s="9" t="str">
-        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <f t="shared" si="7"/>
         <v>No</v>
       </c>
       <c r="AH26" s="9" t="str">
-        <f>IF(NOT(ISBLANK(L26)),"No","")</f>
-        <v>No</v>
+        <f t="shared" si="8"/>
+        <v/>
       </c>
       <c r="AI26" s="9" t="str">
-        <f>IF(NOT(ISBLANK(M26)),"No","")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AJ26" s="9" t="str">
-        <f>IF(NOT(ISBLANK(N26)),"No","")</f>
-        <v/>
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
       </c>
       <c r="AK26" s="9" t="str">
         <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
@@ -10877,72 +10981,72 @@
         <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
         <v>No</v>
       </c>
-      <c r="AN26" s="9" t="str">
-        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
-        <v>No</v>
-      </c>
     </row>
-    <row r="27" spans="2:40" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="37" t="s">
+    <row r="27" spans="1:39" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="37" t="s">
         <v>344</v>
       </c>
-      <c r="C27" s="15" t="s">
+      <c r="B27" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="D27" s="11" t="s">
+      <c r="C27" s="11" t="s">
         <v>88</v>
       </c>
+      <c r="D27" s="14" t="s">
+        <v>87</v>
+      </c>
       <c r="E27" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F27" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="G27" s="14" t="s">
         <v>85</v>
       </c>
+      <c r="G27" s="14"/>
       <c r="H27" s="14"/>
       <c r="I27" s="14"/>
       <c r="J27" s="14"/>
-      <c r="K27" s="14"/>
-      <c r="L27" s="11" t="s">
+      <c r="K27" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="M27" s="11"/>
-      <c r="N27" s="10"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="8" t="s">
+        <v>83</v>
+      </c>
       <c r="O27" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="P27" s="8" t="s">
         <v>82</v>
       </c>
+      <c r="P27" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>No</v>
+      </c>
       <c r="Q27" s="9" t="str">
-        <f>IF(NOT(ISBLANK(E27)),"No","")</f>
+        <f t="shared" si="1"/>
         <v>No</v>
       </c>
       <c r="R27" s="9" t="str">
-        <f>IF(NOT(ISBLANK(F27)),"No","")</f>
+        <f t="shared" si="2"/>
         <v>No</v>
       </c>
       <c r="S27" s="9" t="str">
-        <f>IF(NOT(ISBLANK(G27)),"No","")</f>
-        <v>No</v>
+        <f t="shared" si="3"/>
+        <v/>
       </c>
       <c r="T27" s="9" t="str">
-        <f>IF(NOT(ISBLANK(H27)),"No","")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="U27" s="9" t="str">
-        <f>IF(NOT(ISBLANK(I27)),"No","")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="V27" s="9" t="str">
-        <f>IF(NOT(ISBLANK(J27)),"No","")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="W27" s="9" t="str">
-        <f>IF(NOT(ISBLANK(K27)),"No","")</f>
-        <v/>
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
       </c>
       <c r="X27" s="9" t="str">
         <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
@@ -10981,20 +11085,20 @@
         <v>No</v>
       </c>
       <c r="AG27" s="9" t="str">
-        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <f t="shared" si="7"/>
         <v>No</v>
       </c>
       <c r="AH27" s="9" t="str">
-        <f>IF(NOT(ISBLANK(L27)),"No","")</f>
-        <v>No</v>
+        <f t="shared" si="8"/>
+        <v/>
       </c>
       <c r="AI27" s="9" t="str">
-        <f>IF(NOT(ISBLANK(M27)),"No","")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AJ27" s="9" t="str">
-        <f>IF(NOT(ISBLANK(N27)),"No","")</f>
-        <v/>
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
       </c>
       <c r="AK27" s="9" t="str">
         <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
@@ -11008,70 +11112,70 @@
         <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
         <v>No</v>
       </c>
-      <c r="AN27" s="9" t="str">
-        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
-        <v>No</v>
-      </c>
     </row>
-    <row r="28" spans="2:40" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="37" t="s">
+    <row r="28" spans="1:39" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="37" t="s">
         <v>344</v>
       </c>
-      <c r="C28" s="15" t="s">
+      <c r="B28" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="D28" s="11" t="s">
+      <c r="C28" s="11" t="s">
         <v>70</v>
       </c>
+      <c r="D28" s="14" t="s">
+        <v>69</v>
+      </c>
       <c r="E28" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F28" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="G28" s="14" t="s">
         <v>67</v>
       </c>
+      <c r="G28" s="14"/>
       <c r="H28" s="14"/>
       <c r="I28" s="14"/>
       <c r="J28" s="14"/>
-      <c r="K28" s="14"/>
+      <c r="K28" s="11"/>
       <c r="L28" s="11"/>
-      <c r="M28" s="11"/>
-      <c r="N28" s="10"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="8" t="s">
+        <v>66</v>
+      </c>
       <c r="O28" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="P28" s="8" t="s">
         <v>65</v>
       </c>
+      <c r="P28" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>No</v>
+      </c>
       <c r="Q28" s="9" t="str">
-        <f>IF(NOT(ISBLANK(E28)),"No","")</f>
+        <f t="shared" si="1"/>
         <v>No</v>
       </c>
       <c r="R28" s="9" t="str">
-        <f>IF(NOT(ISBLANK(F28)),"No","")</f>
+        <f t="shared" si="2"/>
         <v>No</v>
       </c>
       <c r="S28" s="9" t="str">
-        <f>IF(NOT(ISBLANK(G28)),"No","")</f>
-        <v>No</v>
+        <f t="shared" si="3"/>
+        <v/>
       </c>
       <c r="T28" s="9" t="str">
-        <f>IF(NOT(ISBLANK(H28)),"No","")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="U28" s="9" t="str">
-        <f>IF(NOT(ISBLANK(I28)),"No","")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="V28" s="9" t="str">
-        <f>IF(NOT(ISBLANK(J28)),"No","")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="W28" s="9" t="str">
-        <f>IF(NOT(ISBLANK(K28)),"No","")</f>
-        <v/>
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
       </c>
       <c r="X28" s="9" t="str">
         <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
@@ -11110,20 +11214,20 @@
         <v>No</v>
       </c>
       <c r="AG28" s="9" t="str">
-        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
-        <v>No</v>
+        <f t="shared" si="7"/>
+        <v/>
       </c>
       <c r="AH28" s="9" t="str">
-        <f>IF(NOT(ISBLANK(L28)),"No","")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AI28" s="9" t="str">
-        <f>IF(NOT(ISBLANK(M28)),"No","")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AJ28" s="9" t="str">
-        <f>IF(NOT(ISBLANK(N28)),"No","")</f>
-        <v/>
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
       </c>
       <c r="AK28" s="9" t="str">
         <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
@@ -11137,68 +11241,68 @@
         <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
         <v>No</v>
       </c>
-      <c r="AN28" s="9" t="str">
-        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
-        <v>No</v>
-      </c>
     </row>
-    <row r="29" spans="2:40" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="12" t="s">
+    <row r="29" spans="1:39" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="12" t="s">
         <v>345</v>
       </c>
-      <c r="C29" s="15" t="s">
+      <c r="B29" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="D29" s="11" t="s">
+      <c r="C29" s="11" t="s">
         <v>35</v>
       </c>
+      <c r="D29" s="14"/>
       <c r="E29" s="14"/>
       <c r="F29" s="14"/>
       <c r="G29" s="14"/>
       <c r="H29" s="14"/>
       <c r="I29" s="14"/>
       <c r="J29" s="14"/>
-      <c r="K29" s="14"/>
+      <c r="K29" s="11" t="s">
+        <v>33</v>
+      </c>
       <c r="L29" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="M29" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="N29" s="10"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="O29" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="P29" s="8" t="s">
         <v>30</v>
       </c>
+      <c r="P29" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="Q29" s="9" t="str">
-        <f>IF(NOT(ISBLANK(E29)),"No","")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="R29" s="9" t="str">
-        <f>IF(NOT(ISBLANK(F29)),"No","")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="S29" s="9" t="str">
-        <f>IF(NOT(ISBLANK(G29)),"No","")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="T29" s="9" t="str">
-        <f>IF(NOT(ISBLANK(H29)),"No","")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="U29" s="9" t="str">
-        <f>IF(NOT(ISBLANK(I29)),"No","")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="V29" s="9" t="str">
-        <f>IF(NOT(ISBLANK(J29)),"No","")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="W29" s="9" t="str">
-        <f>IF(NOT(ISBLANK(K29)),"No","")</f>
-        <v/>
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
       </c>
       <c r="X29" s="9" t="str">
         <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
@@ -11237,20 +11341,20 @@
         <v>No</v>
       </c>
       <c r="AG29" s="9" t="str">
-        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <f t="shared" si="7"/>
         <v>No</v>
       </c>
       <c r="AH29" s="9" t="str">
-        <f>IF(NOT(ISBLANK(L29)),"No","")</f>
+        <f t="shared" si="8"/>
         <v>No</v>
       </c>
       <c r="AI29" s="9" t="str">
-        <f>IF(NOT(ISBLANK(M29)),"No","")</f>
-        <v>No</v>
+        <f t="shared" si="9"/>
+        <v/>
       </c>
       <c r="AJ29" s="9" t="str">
-        <f>IF(NOT(ISBLANK(N29)),"No","")</f>
-        <v/>
+        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
+        <v>No</v>
       </c>
       <c r="AK29" s="9" t="str">
         <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
@@ -11264,71 +11368,67 @@
         <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
         <v>No</v>
       </c>
-      <c r="AN29" s="9" t="str">
-        <f>IF(NOT(ISBLANK(#REF!)),"No","")</f>
-        <v>No</v>
-      </c>
     </row>
-    <row r="30" spans="2:40" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D30" s="5"/>
+    <row r="30" spans="1:39" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C30" s="5"/>
+      <c r="D30" s="7"/>
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
+      <c r="K30" s="6"/>
       <c r="L30" s="6"/>
       <c r="M30" s="6"/>
-      <c r="N30" s="6"/>
+      <c r="N30" s="5"/>
       <c r="O30" s="5"/>
-      <c r="P30" s="5"/>
     </row>
-    <row r="31" spans="2:40" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D31" s="5"/>
+    <row r="31" spans="1:39" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C31" s="5"/>
+      <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
+      <c r="K31" s="6"/>
       <c r="L31" s="6"/>
       <c r="M31" s="6"/>
-      <c r="N31" s="6"/>
+      <c r="N31" s="5"/>
       <c r="O31" s="5"/>
-      <c r="P31" s="5"/>
     </row>
   </sheetData>
-  <autoFilter ref="C1:P29" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <conditionalFormatting sqref="B1">
+  <autoFilter ref="B1:O29" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <conditionalFormatting sqref="A1">
     <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1">
+  <conditionalFormatting sqref="A1">
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="P2" r:id="rId1" xr:uid="{6BEBFCE4-8952-483A-B810-41AD37D97EBD}"/>
-    <hyperlink ref="P3" r:id="rId2" xr:uid="{D524046E-282D-48B1-B165-26CC1C4FFB88}"/>
-    <hyperlink ref="P5" r:id="rId3" xr:uid="{5DEA23F7-7C73-4A14-9DD3-5278BC2CA0FD}"/>
-    <hyperlink ref="P6" r:id="rId4" xr:uid="{0F222FCC-092A-46C2-8C67-132F79850180}"/>
-    <hyperlink ref="P7" r:id="rId5" xr:uid="{0E1FD15B-EA7B-46AA-BDCF-0906EA72A11A}"/>
-    <hyperlink ref="P9" r:id="rId6" xr:uid="{F902A3C1-7171-44D1-806A-9E947DDAD93B}"/>
-    <hyperlink ref="P11" r:id="rId7" xr:uid="{16878787-2C90-404C-8B61-D831BB17EA09}"/>
-    <hyperlink ref="P12" r:id="rId8" xr:uid="{47F6A0B6-32B0-4D1E-BF6A-5C14FBD8C2FB}"/>
-    <hyperlink ref="P13" r:id="rId9" xr:uid="{46FCF794-02CF-4783-A6D0-B7650A470766}"/>
-    <hyperlink ref="P14" r:id="rId10" xr:uid="{139517B8-CC84-4C73-A991-3E942636A824}"/>
-    <hyperlink ref="P15" r:id="rId11" xr:uid="{430A97DF-25E1-4339-BA73-A62AD6E8C57F}"/>
-    <hyperlink ref="P16" r:id="rId12" xr:uid="{4ED2F39A-532C-43E5-B4D0-48B3FC05C99F}"/>
-    <hyperlink ref="P17" r:id="rId13" xr:uid="{D08429D6-EF85-4D4F-97AF-206489B50C5D}"/>
-    <hyperlink ref="P18" r:id="rId14" xr:uid="{043E06A2-2FFF-4ADA-9216-6C088E9319F8}"/>
-    <hyperlink ref="P19" r:id="rId15" xr:uid="{9014CB75-25A5-482C-BE9E-048157D01337}"/>
-    <hyperlink ref="P20" r:id="rId16" xr:uid="{5448FE94-E259-4CE2-A22C-BA2B5EFCC50E}"/>
-    <hyperlink ref="P27" r:id="rId17" xr:uid="{269A5F01-A933-4456-B6B6-E727FC46C348}"/>
-    <hyperlink ref="P21" r:id="rId18" xr:uid="{E80A8747-3BB7-4491-8EBF-E5493F5FCB00}"/>
-    <hyperlink ref="P28" r:id="rId19" xr:uid="{0DF85B10-C7FD-4563-9F44-25D6A1B507A8}"/>
-    <hyperlink ref="P22" r:id="rId20" xr:uid="{9090F4D3-65B5-4B4A-AD52-7B2B8982C229}"/>
-    <hyperlink ref="P23" r:id="rId21" xr:uid="{8E79B3C7-0396-4652-8DA2-D6853DE3A19C}"/>
-    <hyperlink ref="P29" r:id="rId22" xr:uid="{5D3E1B1B-01D5-4B40-AF5A-E2D2DF033AF5}"/>
-    <hyperlink ref="P24" r:id="rId23" xr:uid="{FAE67DCD-9982-4BFB-811E-B9895544358A}"/>
-    <hyperlink ref="P25" r:id="rId24" xr:uid="{7C83ECCB-A2A1-4A0D-9CCA-3648BD934BF0}"/>
-    <hyperlink ref="P26" r:id="rId25" xr:uid="{072C146D-4CEE-4B76-B963-CFA8442C8A27}"/>
+    <hyperlink ref="O2" r:id="rId1" xr:uid="{6BEBFCE4-8952-483A-B810-41AD37D97EBD}"/>
+    <hyperlink ref="O3" r:id="rId2" xr:uid="{D524046E-282D-48B1-B165-26CC1C4FFB88}"/>
+    <hyperlink ref="O5" r:id="rId3" xr:uid="{5DEA23F7-7C73-4A14-9DD3-5278BC2CA0FD}"/>
+    <hyperlink ref="O6" r:id="rId4" xr:uid="{0F222FCC-092A-46C2-8C67-132F79850180}"/>
+    <hyperlink ref="O7" r:id="rId5" xr:uid="{0E1FD15B-EA7B-46AA-BDCF-0906EA72A11A}"/>
+    <hyperlink ref="O9" r:id="rId6" xr:uid="{F902A3C1-7171-44D1-806A-9E947DDAD93B}"/>
+    <hyperlink ref="O11" r:id="rId7" xr:uid="{16878787-2C90-404C-8B61-D831BB17EA09}"/>
+    <hyperlink ref="O12" r:id="rId8" xr:uid="{47F6A0B6-32B0-4D1E-BF6A-5C14FBD8C2FB}"/>
+    <hyperlink ref="O13" r:id="rId9" xr:uid="{46FCF794-02CF-4783-A6D0-B7650A470766}"/>
+    <hyperlink ref="O14" r:id="rId10" xr:uid="{139517B8-CC84-4C73-A991-3E942636A824}"/>
+    <hyperlink ref="O15" r:id="rId11" xr:uid="{430A97DF-25E1-4339-BA73-A62AD6E8C57F}"/>
+    <hyperlink ref="O16" r:id="rId12" xr:uid="{4ED2F39A-532C-43E5-B4D0-48B3FC05C99F}"/>
+    <hyperlink ref="O17" r:id="rId13" xr:uid="{D08429D6-EF85-4D4F-97AF-206489B50C5D}"/>
+    <hyperlink ref="O18" r:id="rId14" xr:uid="{043E06A2-2FFF-4ADA-9216-6C088E9319F8}"/>
+    <hyperlink ref="O19" r:id="rId15" xr:uid="{9014CB75-25A5-482C-BE9E-048157D01337}"/>
+    <hyperlink ref="O20" r:id="rId16" xr:uid="{5448FE94-E259-4CE2-A22C-BA2B5EFCC50E}"/>
+    <hyperlink ref="O27" r:id="rId17" xr:uid="{269A5F01-A933-4456-B6B6-E727FC46C348}"/>
+    <hyperlink ref="O21" r:id="rId18" xr:uid="{E80A8747-3BB7-4491-8EBF-E5493F5FCB00}"/>
+    <hyperlink ref="O28" r:id="rId19" xr:uid="{0DF85B10-C7FD-4563-9F44-25D6A1B507A8}"/>
+    <hyperlink ref="O22" r:id="rId20" xr:uid="{9090F4D3-65B5-4B4A-AD52-7B2B8982C229}"/>
+    <hyperlink ref="O23" r:id="rId21" xr:uid="{8E79B3C7-0396-4652-8DA2-D6853DE3A19C}"/>
+    <hyperlink ref="O29" r:id="rId22" xr:uid="{5D3E1B1B-01D5-4B40-AF5A-E2D2DF033AF5}"/>
+    <hyperlink ref="O24" r:id="rId23" xr:uid="{FAE67DCD-9982-4BFB-811E-B9895544358A}"/>
+    <hyperlink ref="O25" r:id="rId24" xr:uid="{7C83ECCB-A2A1-4A0D-9CCA-3648BD934BF0}"/>
+    <hyperlink ref="O26" r:id="rId25" xr:uid="{072C146D-4CEE-4B76-B963-CFA8442C8A27}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId26"/>

--- a/documents/Webtech MERN - Apr 2021.xlsx
+++ b/documents/Webtech MERN - Apr 2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Training\mindtree-april2021\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFCE40DA-24D2-4953-ABFD-A4667BD1C91C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E2D0FA7-4A10-4FC3-B10E-492BCB9B8B42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,22 +38,7 @@
     <author>ghosh</author>
   </authors>
   <commentList>
-    <comment ref="C13" authorId="0" shapeId="0" xr:uid="{9BF4976F-C4B2-4827-844B-8F6A304311AD}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>no code found in assignment-5 zip (es6/7)
-no code uploaded for es6/7 OOP concepts
-no code for webpack uploaded</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C16" authorId="0" shapeId="0" xr:uid="{3F02A748-1B67-4BB4-B8DD-B1743FE97FC1}">
+    <comment ref="F13" authorId="0" shapeId="0" xr:uid="{6CCB859B-CF16-44F7-A3A5-6968E6521973}">
       <text>
         <r>
           <rPr>
@@ -61,9 +46,124 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="1"/>
           </rPr>
-          <t>no code for webpack uploaded</t>
+          <t>code has been uploaded but is incomplete</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G13" authorId="0" shapeId="0" xr:uid="{ECDFB432-0397-4087-BED2-AD02DBAF0483}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>having compilation issues</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H13" authorId="0" shapeId="0" xr:uid="{76FF87A6-8363-4512-BEED-9C7B7F47454A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>having compilation issues</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F16" authorId="0" shapeId="0" xr:uid="{9E7C5583-CC70-4E75-8446-6ABDC90276F1}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>webpack assignment not uploaded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G16" authorId="0" shapeId="0" xr:uid="{EE5FE9C7-920A-4D78-A3D3-015B5097B7A4}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>SCSS assignment lacks lots of features like variable declaration, inheritance, include etc.</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H16" authorId="0" shapeId="0" xr:uid="{7131CFC9-B531-4DF6-8CAC-2FD6A6B2FD31}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>SCSS assignment lacks lots of features like variable declaration, inheritance, include etc.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G18" authorId="0" shapeId="0" xr:uid="{3D88660D-7D06-4204-97AB-7D42E5E75FE2}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">having compilation issues
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H18" authorId="0" shapeId="0" xr:uid="{2671BF53-A0E0-41D6-ABA6-0BB12ED81A69}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>not applying same style to alternate rows</t>
         </r>
       </text>
     </comment>
@@ -72,7 +172,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="874" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="423">
   <si>
     <t>https://redux-saga.js.org/docs/introduction/BeginnerTutorial.html</t>
   </si>
@@ -1428,6 +1528,15 @@
   </si>
   <si>
     <t>M1067052</t>
+  </si>
+  <si>
+    <t>DOM-1</t>
+  </si>
+  <si>
+    <t>WebComponents</t>
+  </si>
+  <si>
+    <t>DOM-2</t>
   </si>
 </sst>
 </file>
@@ -1499,14 +1608,14 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="16">
@@ -1600,7 +1709,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1642,37 +1751,20 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="thin">
+      <right style="thin">
         <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -1681,7 +1773,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1832,13 +1924,15 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2196,9 +2290,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BF31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F12" sqref="F12:BG12"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="49.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -7058,10 +7152,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{983E95EF-2C32-42F8-9CAB-F38FB8CA9197}">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7071,9 +7165,14 @@
     <col min="3" max="3" width="44.21875" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="4.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="40" t="s">
         <v>393</v>
       </c>
@@ -7098,20 +7197,40 @@
       <c r="H1" s="41" t="s">
         <v>382</v>
       </c>
+      <c r="I1" s="59" t="s">
+        <v>420</v>
+      </c>
+      <c r="J1" s="59" t="s">
+        <v>421</v>
+      </c>
+      <c r="K1" s="59" t="s">
+        <v>422</v>
+      </c>
+      <c r="L1" s="59" t="s">
+        <v>227</v>
+      </c>
+      <c r="M1" s="59" t="s">
+        <v>201</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="58" t="s">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" s="60" t="s">
         <v>397</v>
       </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="60"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="61"/>
+      <c r="M2" s="61"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="38">
         <v>1</v>
       </c>
@@ -7136,8 +7255,13 @@
       <c r="H3" s="42" t="s">
         <v>394</v>
       </c>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="38">
         <v>2</v>
       </c>
@@ -7156,14 +7280,19 @@
       <c r="F4" s="42" t="s">
         <v>394</v>
       </c>
-      <c r="G4" s="57" t="s">
-        <v>392</v>
-      </c>
-      <c r="H4" s="57" t="s">
-        <v>392</v>
-      </c>
+      <c r="G4" s="42" t="s">
+        <v>394</v>
+      </c>
+      <c r="H4" s="42" t="s">
+        <v>394</v>
+      </c>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="38">
         <v>3</v>
       </c>
@@ -7188,8 +7317,13 @@
       <c r="H5" s="42" t="s">
         <v>394</v>
       </c>
+      <c r="I5" s="39"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="39"/>
+      <c r="L5" s="39"/>
+      <c r="M5" s="39"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="38">
         <v>4</v>
       </c>
@@ -7214,8 +7348,13 @@
       <c r="H6" s="42" t="s">
         <v>394</v>
       </c>
+      <c r="I6" s="39"/>
+      <c r="J6" s="39"/>
+      <c r="K6" s="39"/>
+      <c r="L6" s="39"/>
+      <c r="M6" s="39"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="38">
         <v>5</v>
       </c>
@@ -7234,26 +7373,36 @@
       <c r="F7" s="42" t="s">
         <v>394</v>
       </c>
-      <c r="G7" s="57" t="s">
-        <v>392</v>
-      </c>
-      <c r="H7" s="57" t="s">
-        <v>392</v>
-      </c>
+      <c r="G7" s="42" t="s">
+        <v>394</v>
+      </c>
+      <c r="H7" s="42" t="s">
+        <v>394</v>
+      </c>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39"/>
+      <c r="K7" s="39"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="39"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="58" t="s">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" s="62" t="s">
         <v>398</v>
       </c>
-      <c r="B8" s="59"/>
-      <c r="C8" s="59"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="59"/>
-      <c r="G8" s="59"/>
-      <c r="H8" s="60"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="62"/>
+      <c r="H8" s="62"/>
+      <c r="I8" s="62"/>
+      <c r="J8" s="62"/>
+      <c r="K8" s="62"/>
+      <c r="L8" s="62"/>
+      <c r="M8" s="62"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="38">
         <v>6</v>
       </c>
@@ -7278,8 +7427,13 @@
       <c r="H9" s="42" t="s">
         <v>394</v>
       </c>
+      <c r="I9" s="39"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="39"/>
+      <c r="M9" s="39"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="38">
         <v>7</v>
       </c>
@@ -7304,8 +7458,13 @@
       <c r="H10" s="42" t="s">
         <v>394</v>
       </c>
+      <c r="I10" s="39"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="39"/>
+      <c r="L10" s="39"/>
+      <c r="M10" s="39"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="38">
         <v>8</v>
       </c>
@@ -7330,8 +7489,13 @@
       <c r="H11" s="42" t="s">
         <v>394</v>
       </c>
+      <c r="I11" s="39"/>
+      <c r="J11" s="39"/>
+      <c r="K11" s="39"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="39"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="38">
         <v>9</v>
       </c>
@@ -7356,8 +7520,13 @@
       <c r="H12" s="42" t="s">
         <v>394</v>
       </c>
+      <c r="I12" s="39"/>
+      <c r="J12" s="39"/>
+      <c r="K12" s="39"/>
+      <c r="L12" s="39"/>
+      <c r="M12" s="39"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="38">
         <v>10</v>
       </c>
@@ -7367,35 +7536,45 @@
       <c r="C13" s="47" t="s">
         <v>407</v>
       </c>
-      <c r="D13" s="39" t="s">
-        <v>392</v>
-      </c>
-      <c r="E13" s="39" t="s">
-        <v>392</v>
+      <c r="D13" s="42" t="s">
+        <v>394</v>
+      </c>
+      <c r="E13" s="42" t="s">
+        <v>394</v>
       </c>
       <c r="F13" s="39" t="s">
         <v>392</v>
       </c>
-      <c r="G13" s="57" t="s">
-        <v>392</v>
-      </c>
-      <c r="H13" s="57" t="s">
-        <v>392</v>
-      </c>
+      <c r="G13" s="58" t="s">
+        <v>394</v>
+      </c>
+      <c r="H13" s="58" t="s">
+        <v>394</v>
+      </c>
+      <c r="I13" s="39"/>
+      <c r="J13" s="39"/>
+      <c r="K13" s="39"/>
+      <c r="L13" s="39"/>
+      <c r="M13" s="39"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="58" t="s">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" s="62" t="s">
         <v>399</v>
       </c>
-      <c r="B14" s="59"/>
-      <c r="C14" s="59"/>
-      <c r="D14" s="59"/>
-      <c r="E14" s="59"/>
-      <c r="F14" s="59"/>
-      <c r="G14" s="59"/>
-      <c r="H14" s="60"/>
+      <c r="B14" s="62"/>
+      <c r="C14" s="62"/>
+      <c r="D14" s="62"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="62"/>
+      <c r="G14" s="62"/>
+      <c r="H14" s="62"/>
+      <c r="I14" s="62"/>
+      <c r="J14" s="62"/>
+      <c r="K14" s="62"/>
+      <c r="L14" s="62"/>
+      <c r="M14" s="62"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="38">
         <v>11</v>
       </c>
@@ -7420,8 +7599,13 @@
       <c r="H15" s="42" t="s">
         <v>394</v>
       </c>
+      <c r="I15" s="39"/>
+      <c r="J15" s="39"/>
+      <c r="K15" s="39"/>
+      <c r="L15" s="39"/>
+      <c r="M15" s="39"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="38">
         <v>12</v>
       </c>
@@ -7437,7 +7621,7 @@
       <c r="E16" s="42" t="s">
         <v>394</v>
       </c>
-      <c r="F16" s="39" t="s">
+      <c r="F16" s="57" t="s">
         <v>392</v>
       </c>
       <c r="G16" s="57" t="s">
@@ -7446,8 +7630,13 @@
       <c r="H16" s="57" t="s">
         <v>392</v>
       </c>
+      <c r="I16" s="39"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="39"/>
+      <c r="L16" s="39"/>
+      <c r="M16" s="39"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="38">
         <v>13</v>
       </c>
@@ -7472,8 +7661,13 @@
       <c r="H17" s="42" t="s">
         <v>394</v>
       </c>
+      <c r="I17" s="39"/>
+      <c r="J17" s="39"/>
+      <c r="K17" s="39"/>
+      <c r="L17" s="39"/>
+      <c r="M17" s="39"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="38">
         <v>14</v>
       </c>
@@ -7492,14 +7686,19 @@
       <c r="F18" s="42" t="s">
         <v>394</v>
       </c>
-      <c r="G18" s="57" t="s">
-        <v>392</v>
-      </c>
-      <c r="H18" s="57" t="s">
-        <v>392</v>
-      </c>
+      <c r="G18" s="58" t="s">
+        <v>394</v>
+      </c>
+      <c r="H18" s="58" t="s">
+        <v>394</v>
+      </c>
+      <c r="I18" s="39"/>
+      <c r="J18" s="39"/>
+      <c r="K18" s="39"/>
+      <c r="L18" s="39"/>
+      <c r="M18" s="39"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="38">
         <v>15</v>
       </c>
@@ -7524,12 +7723,17 @@
       <c r="H19" s="42" t="s">
         <v>394</v>
       </c>
+      <c r="I19" s="39"/>
+      <c r="J19" s="39"/>
+      <c r="K19" s="39"/>
+      <c r="L19" s="39"/>
+      <c r="M19" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A8:H8"/>
-    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A2:M2"/>
+    <mergeCell ref="A8:M8"/>
+    <mergeCell ref="A14:M14"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:H7 D15:H19 D9:H13" xr:uid="{4CB5697C-CE9B-4D9C-AF2A-AE71901AAEC8}">

--- a/documents/Webtech MERN - Apr 2021.xlsx
+++ b/documents/Webtech MERN - Apr 2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Training\mindtree-april2021\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E2D0FA7-4A10-4FC3-B10E-492BCB9B8B42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16136949-57D2-4E30-97F5-F501E54D0186}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2290,9 +2290,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BF31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" topLeftCell="AB1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AG11" sqref="AG11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="49.95" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/documents/Webtech MERN - Apr 2021.xlsx
+++ b/documents/Webtech MERN - Apr 2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Training\mindtree-april2021\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16136949-57D2-4E30-97F5-F501E54D0186}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAFFF95A-9C64-4410-88A0-19162434523A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -172,7 +172,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="424">
   <si>
     <t>https://redux-saga.js.org/docs/introduction/BeginnerTutorial.html</t>
   </si>
@@ -1537,6 +1537,9 @@
   </si>
   <si>
     <t>DOM-2</t>
+  </si>
+  <si>
+    <t>set state and props</t>
   </si>
 </sst>
 </file>
@@ -2290,9 +2293,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BF31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AG11" sqref="AG11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="49.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4270,22 +4273,22 @@
       </c>
     </row>
     <row r="13" spans="1:58" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="37" t="s">
+      <c r="A13" s="53" t="s">
         <v>338</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="53" t="s">
         <v>182</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="54" t="s">
         <v>181</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="55" t="s">
         <v>180</v>
       </c>
-      <c r="E13" s="15" t="s">
+      <c r="E13" s="56" t="s">
         <v>179</v>
       </c>
-      <c r="F13" s="15" t="s">
+      <c r="F13" s="56" t="s">
         <v>178</v>
       </c>
       <c r="G13" s="11" t="s">
@@ -4440,22 +4443,22 @@
       </c>
     </row>
     <row r="14" spans="1:58" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="37" t="s">
+      <c r="A14" s="53" t="s">
         <v>338</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="53" t="s">
         <v>165</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="54" t="s">
         <v>164</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="55" t="s">
         <v>163</v>
       </c>
-      <c r="E14" s="15" t="s">
+      <c r="E14" s="56" t="s">
         <v>154</v>
       </c>
-      <c r="F14" s="15" t="s">
+      <c r="F14" s="56" t="s">
         <v>153</v>
       </c>
       <c r="G14" s="11" t="s">
@@ -4600,22 +4603,22 @@
       </c>
     </row>
     <row r="15" spans="1:58" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="37" t="s">
+      <c r="A15" s="53" t="s">
         <v>339</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="53" t="s">
         <v>157</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="54" t="s">
         <v>156</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="55" t="s">
         <v>155</v>
       </c>
-      <c r="E15" s="15" t="s">
+      <c r="E15" s="56" t="s">
         <v>154</v>
       </c>
-      <c r="F15" s="15" t="s">
+      <c r="F15" s="56" t="s">
         <v>153</v>
       </c>
       <c r="G15" s="11" t="s">
@@ -4758,22 +4761,22 @@
       </c>
     </row>
     <row r="16" spans="1:58" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="37" t="s">
+      <c r="A16" s="53" t="s">
         <v>339</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="53" t="s">
         <v>146</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="54" t="s">
         <v>145</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="55" t="s">
         <v>144</v>
       </c>
-      <c r="E16" s="15" t="s">
+      <c r="E16" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="F16" s="15" t="s">
+      <c r="F16" s="56" t="s">
         <v>143</v>
       </c>
       <c r="G16" s="11" t="s">
@@ -4954,7 +4957,7 @@
         <v>129</v>
       </c>
       <c r="N17" s="14" t="s">
-        <v>128</v>
+        <v>423</v>
       </c>
       <c r="O17" s="10"/>
       <c r="P17" s="9"/>
@@ -4975,7 +4978,7 @@
       <c r="AA17" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="AB17" s="10" t="s">
+      <c r="AB17" s="11" t="s">
         <v>125</v>
       </c>
       <c r="AC17" s="17"/>

--- a/documents/Webtech MERN - Apr 2021.xlsx
+++ b/documents/Webtech MERN - Apr 2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Training\mindtree-april2021\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAFFF95A-9C64-4410-88A0-19162434523A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65C15B52-9BD8-4C61-8023-238B60201E7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -172,7 +172,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="425">
   <si>
     <t>https://redux-saga.js.org/docs/introduction/BeginnerTutorial.html</t>
   </si>
@@ -1540,6 +1540,9 @@
   </si>
   <si>
     <t>set state and props</t>
+  </si>
+  <si>
+    <t>Implement async operation on React app with lifecycles and hooks</t>
   </si>
 </sst>
 </file>
@@ -2293,9 +2296,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BF31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="49.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5256,19 +5259,19 @@
       <c r="A19" s="37" t="s">
         <v>340</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="53" t="s">
         <v>112</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="54" t="s">
         <v>111</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="55" t="s">
         <v>110</v>
       </c>
-      <c r="E19" s="15" t="s">
+      <c r="E19" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="F19" s="15" t="s">
+      <c r="F19" s="56" t="s">
         <v>109</v>
       </c>
       <c r="G19" s="11" t="s">
@@ -5438,7 +5441,7 @@
         <v>97</v>
       </c>
       <c r="I20" s="16" t="s">
-        <v>96</v>
+        <v>424</v>
       </c>
       <c r="J20" s="16"/>
       <c r="K20" s="16"/>

--- a/documents/Webtech MERN - Apr 2021.xlsx
+++ b/documents/Webtech MERN - Apr 2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Training\mindtree-april2021\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65C15B52-9BD8-4C61-8023-238B60201E7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49409C9D-DA45-4132-912B-3ED5360D8B1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2296,9 +2296,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BF31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AB18" sqref="AB18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="49.95" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/documents/Webtech MERN - Apr 2021.xlsx
+++ b/documents/Webtech MERN - Apr 2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Training\mindtree-april2021\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49409C9D-DA45-4132-912B-3ED5360D8B1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FF71CF4-C41C-45A6-BF3A-FEC2C1309846}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Webtech Mern" sheetId="1" r:id="rId1"/>
@@ -2296,9 +2296,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BF31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AB18" sqref="AB18"/>
+      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="49.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -7160,8 +7160,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{983E95EF-2C32-42F8-9CAB-F38FB8CA9197}">
   <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/documents/Webtech MERN - Apr 2021.xlsx
+++ b/documents/Webtech MERN - Apr 2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Training\mindtree-april2021\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FF71CF4-C41C-45A6-BF3A-FEC2C1309846}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{236E10C3-C66B-42D4-A1EB-8FF335B0F927}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -172,7 +172,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="880" uniqueCount="426">
   <si>
     <t>https://redux-saga.js.org/docs/introduction/BeginnerTutorial.html</t>
   </si>
@@ -1543,6 +1543,9 @@
   </si>
   <si>
     <t>Implement async operation on React app with lifecycles and hooks</t>
+  </si>
+  <si>
+    <t>React JS Coding Challenge</t>
   </si>
 </sst>
 </file>
@@ -1779,7 +1782,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1940,6 +1943,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2298,7 +2304,7 @@
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
+      <selection pane="bottomLeft" activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="49.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -7158,10 +7164,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{983E95EF-2C32-42F8-9CAB-F38FB8CA9197}">
-  <dimension ref="A1:M19"/>
+  <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7176,9 +7182,10 @@
     <col min="11" max="11" width="6.88671875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="4" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A1" s="40" t="s">
         <v>393</v>
       </c>
@@ -7218,8 +7225,11 @@
       <c r="M1" s="59" t="s">
         <v>201</v>
       </c>
+      <c r="N1" s="63" t="s">
+        <v>425</v>
+      </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="60" t="s">
         <v>397</v>
       </c>
@@ -7236,7 +7246,7 @@
       <c r="L2" s="61"/>
       <c r="M2" s="61"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="38">
         <v>1</v>
       </c>
@@ -7267,7 +7277,7 @@
       <c r="L3" s="39"/>
       <c r="M3" s="39"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="38">
         <v>2</v>
       </c>
@@ -7298,7 +7308,7 @@
       <c r="L4" s="39"/>
       <c r="M4" s="39"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="38">
         <v>3</v>
       </c>
@@ -7329,7 +7339,7 @@
       <c r="L5" s="39"/>
       <c r="M5" s="39"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="38">
         <v>4</v>
       </c>
@@ -7360,7 +7370,7 @@
       <c r="L6" s="39"/>
       <c r="M6" s="39"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="38">
         <v>5</v>
       </c>
@@ -7391,7 +7401,7 @@
       <c r="L7" s="39"/>
       <c r="M7" s="39"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="62" t="s">
         <v>398</v>
       </c>
@@ -7408,7 +7418,7 @@
       <c r="L8" s="62"/>
       <c r="M8" s="62"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="38">
         <v>6</v>
       </c>
@@ -7439,7 +7449,7 @@
       <c r="L9" s="39"/>
       <c r="M9" s="39"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="38">
         <v>7</v>
       </c>
@@ -7470,7 +7480,7 @@
       <c r="L10" s="39"/>
       <c r="M10" s="39"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="38">
         <v>8</v>
       </c>
@@ -7501,7 +7511,7 @@
       <c r="L11" s="39"/>
       <c r="M11" s="39"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="38">
         <v>9</v>
       </c>
@@ -7532,7 +7542,7 @@
       <c r="L12" s="39"/>
       <c r="M12" s="39"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="38">
         <v>10</v>
       </c>
@@ -7563,7 +7573,7 @@
       <c r="L13" s="39"/>
       <c r="M13" s="39"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="62" t="s">
         <v>399</v>
       </c>
@@ -7580,7 +7590,7 @@
       <c r="L14" s="62"/>
       <c r="M14" s="62"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="38">
         <v>11</v>
       </c>
@@ -7611,7 +7621,7 @@
       <c r="L15" s="39"/>
       <c r="M15" s="39"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="38">
         <v>12</v>
       </c>

--- a/documents/Webtech MERN - Apr 2021.xlsx
+++ b/documents/Webtech MERN - Apr 2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Training\mindtree-april2021\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{236E10C3-C66B-42D4-A1EB-8FF335B0F927}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CD44FA4-8B6F-4128-9043-7BCA8BBCFC21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1935,6 +1935,9 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1943,9 +1946,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -7225,26 +7225,26 @@
       <c r="M1" s="59" t="s">
         <v>201</v>
       </c>
-      <c r="N1" s="63" t="s">
+      <c r="N1" s="60" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="61" t="s">
         <v>397</v>
       </c>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="61"/>
-      <c r="M2" s="61"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="62"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="38">
@@ -7402,21 +7402,21 @@
       <c r="M7" s="39"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="62" t="s">
+      <c r="A8" s="63" t="s">
         <v>398</v>
       </c>
-      <c r="B8" s="62"/>
-      <c r="C8" s="62"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
-      <c r="G8" s="62"/>
-      <c r="H8" s="62"/>
-      <c r="I8" s="62"/>
-      <c r="J8" s="62"/>
-      <c r="K8" s="62"/>
-      <c r="L8" s="62"/>
-      <c r="M8" s="62"/>
+      <c r="B8" s="63"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="63"/>
+      <c r="H8" s="63"/>
+      <c r="I8" s="63"/>
+      <c r="J8" s="63"/>
+      <c r="K8" s="63"/>
+      <c r="L8" s="63"/>
+      <c r="M8" s="63"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="38">
@@ -7574,21 +7574,21 @@
       <c r="M13" s="39"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="62" t="s">
+      <c r="A14" s="63" t="s">
         <v>399</v>
       </c>
-      <c r="B14" s="62"/>
-      <c r="C14" s="62"/>
-      <c r="D14" s="62"/>
-      <c r="E14" s="62"/>
-      <c r="F14" s="62"/>
-      <c r="G14" s="62"/>
-      <c r="H14" s="62"/>
-      <c r="I14" s="62"/>
-      <c r="J14" s="62"/>
-      <c r="K14" s="62"/>
-      <c r="L14" s="62"/>
-      <c r="M14" s="62"/>
+      <c r="B14" s="63"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="63"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="63"/>
+      <c r="J14" s="63"/>
+      <c r="K14" s="63"/>
+      <c r="L14" s="63"/>
+      <c r="M14" s="63"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="38">

--- a/documents/Webtech MERN - Apr 2021.xlsx
+++ b/documents/Webtech MERN - Apr 2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Training\mindtree-april2021\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CD44FA4-8B6F-4128-9043-7BCA8BBCFC21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{343D5186-C00D-490A-A1EB-9F3E41ECD1E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/documents/Webtech MERN - Apr 2021.xlsx
+++ b/documents/Webtech MERN - Apr 2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Training\mindtree-april2021\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{343D5186-C00D-490A-A1EB-9F3E41ECD1E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76C67646-AB29-463D-A9FF-3967978CB8E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Webtech Mern" sheetId="1" r:id="rId1"/>
@@ -2302,9 +2302,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BF31"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="49.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -7166,8 +7166,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{983E95EF-2C32-42F8-9CAB-F38FB8CA9197}">
   <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/documents/Webtech MERN - Apr 2021.xlsx
+++ b/documents/Webtech MERN - Apr 2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Training\mindtree-april2021\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76C67646-AB29-463D-A9FF-3967978CB8E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46F30136-621C-4B75-9767-0397F6D37B1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2303,8 +2303,8 @@
   <dimension ref="A1:BF31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="49.95" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/documents/Webtech MERN - Apr 2021.xlsx
+++ b/documents/Webtech MERN - Apr 2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Training\mindtree-april2021\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46F30136-621C-4B75-9767-0397F6D37B1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2E72AAE-B285-4CCA-B3B7-F6A1A1EBC778}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2303,8 +2303,8 @@
   <dimension ref="A1:BF31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F19" sqref="F19"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="49.95" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/documents/Webtech MERN - Apr 2021.xlsx
+++ b/documents/Webtech MERN - Apr 2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Training\mindtree-april2021\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2E72AAE-B285-4CCA-B3B7-F6A1A1EBC778}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6D1F014-1F06-4DDC-A35E-F70AEBBEF988}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1627,7 +1627,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1717,6 +1717,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="5">
     <border>
@@ -1782,7 +1788,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1938,6 +1944,21 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1946,6 +1967,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2302,9 +2329,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BF31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="49.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2514,25 +2541,25 @@
       </c>
     </row>
     <row r="2" spans="1:58" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="61" t="s">
         <v>336</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="61" t="s">
         <v>300</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="62" t="s">
         <v>299</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="63" t="s">
         <v>298</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="27" t="s">
+      <c r="F2" s="64" t="s">
         <v>297</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="62" t="s">
         <v>296</v>
       </c>
       <c r="H2" s="14" t="s">
@@ -2672,25 +2699,25 @@
       </c>
     </row>
     <row r="3" spans="1:58" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="61" t="s">
         <v>336</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="61" t="s">
         <v>290</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="62" t="s">
         <v>289</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="63" t="s">
         <v>288</v>
       </c>
-      <c r="E3" s="27" t="s">
+      <c r="E3" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="27" t="s">
+      <c r="F3" s="64" t="s">
         <v>287</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="62" t="s">
         <v>286</v>
       </c>
       <c r="H3" s="14" t="s">
@@ -2834,25 +2861,25 @@
       </c>
     </row>
     <row r="4" spans="1:58" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="61" t="s">
         <v>336</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="61" t="s">
         <v>278</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="62" t="s">
         <v>277</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="63" t="s">
         <v>276</v>
       </c>
-      <c r="E4" s="27" t="s">
+      <c r="E4" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="27" t="s">
+      <c r="F4" s="64" t="s">
         <v>275</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="62" t="s">
         <v>274</v>
       </c>
       <c r="H4" s="14" t="s">
@@ -2998,25 +3025,25 @@
       </c>
     </row>
     <row r="5" spans="1:58" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="61" t="s">
         <v>336</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="61" t="s">
         <v>266</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="62" t="s">
         <v>265</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="63" t="s">
         <v>264</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="64" t="s">
         <v>263</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="62" t="s">
         <v>262</v>
       </c>
       <c r="H5" s="14" t="s">
@@ -3156,25 +3183,25 @@
       </c>
     </row>
     <row r="6" spans="1:58" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="61" t="s">
         <v>337</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="61" t="s">
         <v>256</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="62" t="s">
         <v>255</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="63" t="s">
         <v>254</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="64" t="s">
         <v>253</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="62" t="s">
         <v>252</v>
       </c>
       <c r="H6" s="16" t="s">
@@ -3322,25 +3349,25 @@
       </c>
     </row>
     <row r="7" spans="1:58" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="61" t="s">
         <v>337</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="61" t="s">
         <v>242</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="62" t="s">
         <v>241</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="63" t="s">
         <v>240</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="F7" s="64" t="s">
         <v>239</v>
       </c>
-      <c r="G7" s="25" t="s">
+      <c r="G7" s="65" t="s">
         <v>238</v>
       </c>
       <c r="H7" s="24" t="s">
@@ -3502,7 +3529,7 @@
       <c r="F8" s="56" t="s">
         <v>227</v>
       </c>
-      <c r="G8" s="25" t="s">
+      <c r="G8" s="70" t="s">
         <v>226</v>
       </c>
       <c r="H8" s="21" t="s">
@@ -3658,7 +3685,7 @@
       <c r="F9" s="52" t="s">
         <v>191</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="G9" s="50" t="s">
         <v>190</v>
       </c>
       <c r="H9" s="14" t="s">
@@ -3818,7 +3845,7 @@
       <c r="F10" s="52" t="s">
         <v>213</v>
       </c>
-      <c r="G10" s="11" t="s">
+      <c r="G10" s="50" t="s">
         <v>212</v>
       </c>
       <c r="H10" s="14" t="s">
@@ -3980,7 +4007,7 @@
       <c r="F11" s="56" t="s">
         <v>201</v>
       </c>
-      <c r="G11" s="11" t="s">
+      <c r="G11" s="69" t="s">
         <v>200</v>
       </c>
       <c r="H11" s="14" t="s">
@@ -4138,7 +4165,7 @@
       <c r="F12" s="52" t="s">
         <v>191</v>
       </c>
-      <c r="G12" s="11" t="s">
+      <c r="G12" s="50" t="s">
         <v>190</v>
       </c>
       <c r="H12" s="14" t="s">
@@ -4300,7 +4327,7 @@
       <c r="F13" s="56" t="s">
         <v>178</v>
       </c>
-      <c r="G13" s="11" t="s">
+      <c r="G13" s="54" t="s">
         <v>177</v>
       </c>
       <c r="H13" s="14" t="s">
@@ -4470,7 +4497,7 @@
       <c r="F14" s="56" t="s">
         <v>153</v>
       </c>
-      <c r="G14" s="11" t="s">
+      <c r="G14" s="54" t="s">
         <v>162</v>
       </c>
       <c r="H14" s="14" t="s">
@@ -4630,7 +4657,7 @@
       <c r="F15" s="56" t="s">
         <v>153</v>
       </c>
-      <c r="G15" s="11" t="s">
+      <c r="G15" s="54" t="s">
         <v>152</v>
       </c>
       <c r="H15" s="14" t="s">
@@ -4788,7 +4815,7 @@
       <c r="F16" s="56" t="s">
         <v>143</v>
       </c>
-      <c r="G16" s="11" t="s">
+      <c r="G16" s="69" t="s">
         <v>142</v>
       </c>
       <c r="H16" s="14" t="s">
@@ -4926,25 +4953,25 @@
       </c>
     </row>
     <row r="17" spans="1:58" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="37" t="s">
+      <c r="A17" s="49" t="s">
         <v>339</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="49" t="s">
         <v>137</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="50" t="s">
         <v>136</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="E17" s="15" t="s">
+      <c r="E17" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="F17" s="15" t="s">
+      <c r="F17" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="G17" s="11" t="s">
+      <c r="G17" s="50" t="s">
         <v>135</v>
       </c>
       <c r="H17" s="14" t="s">
@@ -5098,25 +5125,25 @@
       </c>
     </row>
     <row r="18" spans="1:58" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="37" t="s">
+      <c r="A18" s="49" t="s">
         <v>339</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="49" t="s">
         <v>123</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="50" t="s">
         <v>122</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="E18" s="15" t="s">
+      <c r="E18" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="F18" s="15" t="s">
+      <c r="F18" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="G18" s="11" t="s">
+      <c r="G18" s="50" t="s">
         <v>120</v>
       </c>
       <c r="H18" s="14" t="s">
@@ -5262,7 +5289,7 @@
       </c>
     </row>
     <row r="19" spans="1:58" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="37" t="s">
+      <c r="A19" s="53" t="s">
         <v>340</v>
       </c>
       <c r="B19" s="53" t="s">
@@ -5280,7 +5307,7 @@
       <c r="F19" s="56" t="s">
         <v>109</v>
       </c>
-      <c r="G19" s="11" t="s">
+      <c r="G19" s="54" t="s">
         <v>108</v>
       </c>
       <c r="H19" s="14" t="s">
@@ -5422,25 +5449,25 @@
       </c>
     </row>
     <row r="20" spans="1:58" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="37" t="s">
+      <c r="A20" s="49" t="s">
         <v>340</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="49" t="s">
         <v>101</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="51" t="s">
         <v>99</v>
       </c>
-      <c r="E20" s="15" t="s">
+      <c r="E20" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="F20" s="15" t="s">
+      <c r="F20" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="G20" s="11" t="s">
+      <c r="G20" s="50" t="s">
         <v>98</v>
       </c>
       <c r="H20" s="14" t="s">
@@ -5580,25 +5607,25 @@
       </c>
     </row>
     <row r="21" spans="1:58" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="37" t="s">
+      <c r="A21" s="49" t="s">
         <v>341</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="49" t="s">
         <v>92</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="51" t="s">
         <v>80</v>
       </c>
-      <c r="E21" s="15" t="s">
+      <c r="E21" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="F21" s="15" t="s">
+      <c r="F21" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="G21" s="11" t="s">
+      <c r="G21" s="50" t="s">
         <v>79</v>
       </c>
       <c r="H21" s="14" t="s">
@@ -5736,25 +5763,25 @@
       </c>
     </row>
     <row r="22" spans="1:58" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="37" t="s">
+      <c r="A22" s="53" t="s">
         <v>341</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="55" t="s">
         <v>62</v>
       </c>
-      <c r="E22" s="15" t="s">
+      <c r="E22" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="F22" s="15" t="s">
+      <c r="F22" s="56" t="s">
         <v>61</v>
       </c>
-      <c r="G22" s="11" t="s">
+      <c r="G22" s="54" t="s">
         <v>60</v>
       </c>
       <c r="H22" s="14" t="s">
@@ -5902,25 +5929,25 @@
       </c>
     </row>
     <row r="23" spans="1:58" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="53" t="s">
         <v>342</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="53" t="s">
         <v>75</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C23" s="54" t="s">
         <v>49</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D23" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="E23" s="15" t="s">
+      <c r="E23" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="F23" s="15" t="s">
+      <c r="F23" s="56" t="s">
         <v>47</v>
       </c>
-      <c r="G23" s="11" t="s">
+      <c r="G23" s="54" t="s">
         <v>46</v>
       </c>
       <c r="H23" s="14" t="s">
@@ -6060,25 +6087,25 @@
       </c>
     </row>
     <row r="24" spans="1:58" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="12" t="s">
+      <c r="A24" s="53" t="s">
         <v>342</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="C24" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="D24" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="E24" s="15" t="s">
+      <c r="E24" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="15" t="s">
+      <c r="F24" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="G24" s="11" t="s">
+      <c r="G24" s="54" t="s">
         <v>24</v>
       </c>
       <c r="H24" s="14" t="s">
@@ -6214,25 +6241,25 @@
       </c>
     </row>
     <row r="25" spans="1:58" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="12" t="s">
+      <c r="A25" s="49" t="s">
         <v>343</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="C25" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="D25" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="E25" s="15" t="s">
+      <c r="E25" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="F25" s="15" t="s">
+      <c r="F25" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="G25" s="11" t="s">
+      <c r="G25" s="50" t="s">
         <v>17</v>
       </c>
       <c r="H25" s="14" t="s">
@@ -6372,25 +6399,25 @@
       </c>
     </row>
     <row r="26" spans="1:58" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="12" t="s">
+      <c r="A26" s="49" t="s">
         <v>343</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="C26" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="D26" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="E26" s="15" t="s">
+      <c r="E26" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="F26" s="15" t="s">
+      <c r="F26" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="G26" s="11" t="s">
+      <c r="G26" s="50" t="s">
         <v>6</v>
       </c>
       <c r="H26" s="14" t="s">
@@ -6530,25 +6557,25 @@
       </c>
     </row>
     <row r="27" spans="1:58" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="37" t="s">
+      <c r="A27" s="53" t="s">
         <v>344</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="C27" s="54" t="s">
         <v>91</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="D27" s="55" t="s">
         <v>90</v>
       </c>
-      <c r="E27" s="15" t="s">
+      <c r="E27" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="F27" s="15" t="s">
+      <c r="F27" s="56" t="s">
         <v>89</v>
       </c>
-      <c r="G27" s="11" t="s">
+      <c r="G27" s="54" t="s">
         <v>88</v>
       </c>
       <c r="H27" s="14" t="s">
@@ -7230,21 +7257,21 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="66" t="s">
         <v>397</v>
       </c>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="62"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="67"/>
+      <c r="M2" s="67"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="38">
@@ -7402,21 +7429,21 @@
       <c r="M7" s="39"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="63" t="s">
+      <c r="A8" s="68" t="s">
         <v>398</v>
       </c>
-      <c r="B8" s="63"/>
-      <c r="C8" s="63"/>
-      <c r="D8" s="63"/>
-      <c r="E8" s="63"/>
-      <c r="F8" s="63"/>
-      <c r="G8" s="63"/>
-      <c r="H8" s="63"/>
-      <c r="I8" s="63"/>
-      <c r="J8" s="63"/>
-      <c r="K8" s="63"/>
-      <c r="L8" s="63"/>
-      <c r="M8" s="63"/>
+      <c r="B8" s="68"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="68"/>
+      <c r="G8" s="68"/>
+      <c r="H8" s="68"/>
+      <c r="I8" s="68"/>
+      <c r="J8" s="68"/>
+      <c r="K8" s="68"/>
+      <c r="L8" s="68"/>
+      <c r="M8" s="68"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="38">
@@ -7574,21 +7601,21 @@
       <c r="M13" s="39"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="63" t="s">
+      <c r="A14" s="68" t="s">
         <v>399</v>
       </c>
-      <c r="B14" s="63"/>
-      <c r="C14" s="63"/>
-      <c r="D14" s="63"/>
-      <c r="E14" s="63"/>
-      <c r="F14" s="63"/>
-      <c r="G14" s="63"/>
-      <c r="H14" s="63"/>
-      <c r="I14" s="63"/>
-      <c r="J14" s="63"/>
-      <c r="K14" s="63"/>
-      <c r="L14" s="63"/>
-      <c r="M14" s="63"/>
+      <c r="B14" s="68"/>
+      <c r="C14" s="68"/>
+      <c r="D14" s="68"/>
+      <c r="E14" s="68"/>
+      <c r="F14" s="68"/>
+      <c r="G14" s="68"/>
+      <c r="H14" s="68"/>
+      <c r="I14" s="68"/>
+      <c r="J14" s="68"/>
+      <c r="K14" s="68"/>
+      <c r="L14" s="68"/>
+      <c r="M14" s="68"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="38">
